--- a/SP1_spread.xlsx
+++ b/SP1_spread.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kovan\Rsoccer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1234EB50-D16A-41C6-A4CC-E64E2F615A83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95068CA-FA39-4629-994A-2C0AADE26C5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="199">
   <si>
     <t>Div</t>
   </si>
@@ -180,67 +180,121 @@
     <t>GoalsXcornerXbookings</t>
   </si>
   <si>
-    <t>189</t>
-  </si>
-  <si>
-    <t>190</t>
-  </si>
-  <si>
-    <t>191</t>
-  </si>
-  <si>
-    <t>192</t>
-  </si>
-  <si>
-    <t>193</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>204</t>
-  </si>
-  <si>
-    <t>205</t>
-  </si>
-  <si>
-    <t>206</t>
-  </si>
-  <si>
-    <t>207</t>
-  </si>
-  <si>
-    <t>208</t>
-  </si>
-  <si>
-    <t>209</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>292</t>
+  </si>
+  <si>
+    <t>293</t>
+  </si>
+  <si>
+    <t>294</t>
+  </si>
+  <si>
+    <t>295</t>
+  </si>
+  <si>
+    <t>296</t>
+  </si>
+  <si>
+    <t>297</t>
+  </si>
+  <si>
+    <t>298</t>
+  </si>
+  <si>
+    <t>299</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>303</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>305</t>
+  </si>
+  <si>
+    <t>306</t>
+  </si>
+  <si>
+    <t>307</t>
+  </si>
+  <si>
+    <t>308</t>
+  </si>
+  <si>
+    <t>309</t>
   </si>
   <si>
     <t>SP1</t>
@@ -300,12 +354,12 @@
     <t>Ath Madrid</t>
   </si>
   <si>
+    <t>Vallecano</t>
+  </si>
+  <si>
     <t>Girona</t>
   </si>
   <si>
-    <t>Vallecano</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
@@ -336,15 +390,30 @@
     <t>1-2</t>
   </si>
   <si>
+    <t>3-0</t>
+  </si>
+  <si>
     <t>3-1</t>
   </si>
   <si>
-    <t>3-0</t>
-  </si>
-  <si>
     <t>4-3</t>
   </si>
   <si>
+    <t>4-0</t>
+  </si>
+  <si>
+    <t>7-0</t>
+  </si>
+  <si>
+    <t>2-0</t>
+  </si>
+  <si>
+    <t>3-2</t>
+  </si>
+  <si>
+    <t>0-2</t>
+  </si>
+  <si>
     <t>5-6</t>
   </si>
   <si>
@@ -369,9 +438,6 @@
     <t>8-7</t>
   </si>
   <si>
-    <t>3-2</t>
-  </si>
-  <si>
     <t>2-3</t>
   </si>
   <si>
@@ -396,6 +462,48 @@
     <t>1-9</t>
   </si>
   <si>
+    <t>5-9</t>
+  </si>
+  <si>
+    <t>6-6</t>
+  </si>
+  <si>
+    <t>5-3</t>
+  </si>
+  <si>
+    <t>9-3</t>
+  </si>
+  <si>
+    <t>8-6</t>
+  </si>
+  <si>
+    <t>5-0</t>
+  </si>
+  <si>
+    <t>2-6</t>
+  </si>
+  <si>
+    <t>10-1</t>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t>14-3</t>
+  </si>
+  <si>
+    <t>6-5</t>
+  </si>
+  <si>
+    <t>7-5</t>
+  </si>
+  <si>
+    <t>4-1</t>
+  </si>
+  <si>
+    <t>7-3</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
@@ -463,6 +571,60 @@
   </si>
   <si>
     <t>Villarreal-Celta</t>
+  </si>
+  <si>
+    <t>Mallorca-Sevilla</t>
+  </si>
+  <si>
+    <t>Vallecano-Barcelona</t>
+  </si>
+  <si>
+    <t>Ath Bilbao-Valencia</t>
+  </si>
+  <si>
+    <t>Valladolid-Leganes</t>
+  </si>
+  <si>
+    <t>Ath Madrid-Espanol</t>
+  </si>
+  <si>
+    <t>Sociedad-Alaves</t>
+  </si>
+  <si>
+    <t>Girona-Osasuna</t>
+  </si>
+  <si>
+    <t>Las Palmas-Real Madrid</t>
+  </si>
+  <si>
+    <t>Barcelona-Valladolid</t>
+  </si>
+  <si>
+    <t>Ath Bilbao-Ath Madrid</t>
+  </si>
+  <si>
+    <t>Espanol-Vallecano</t>
+  </si>
+  <si>
+    <t>Leganes-Mallorca</t>
+  </si>
+  <si>
+    <t>Valencia-Villarreal</t>
+  </si>
+  <si>
+    <t>Alaves-Las Palmas</t>
+  </si>
+  <si>
+    <t>Osasuna-Celta</t>
+  </si>
+  <si>
+    <t>Sevilla-Girona</t>
+  </si>
+  <si>
+    <t>Getafe-Sociedad</t>
+  </si>
+  <si>
+    <t>Real Madrid-Betis</t>
   </si>
 </sst>
 </file>
@@ -470,7 +632,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -818,20 +980,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY22"/>
+  <dimension ref="A1:AY40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="Z8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AO23" sqref="AO23"/>
+      <selection pane="bottomRight" activeCell="AO41" sqref="AO41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
@@ -858,7 +1020,7 @@
     <col min="33" max="35" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="2.42578125" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="12" bestFit="1" customWidth="1"/>
@@ -1031,16 +1193,16 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C2" s="1">
         <v>45519</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1049,7 +1211,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -1058,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="L2">
         <v>1.48</v>
@@ -1070,10 +1232,10 @@
         <v>8.24</v>
       </c>
       <c r="O2" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="P2" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1121,16 +1283,16 @@
         <v>27</v>
       </c>
       <c r="AF2" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="AG2" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="AH2" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="AI2" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="AJ2">
         <v>5</v>
@@ -1139,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="AL2" t="s">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="AM2">
         <v>91</v>
@@ -1163,22 +1325,18 @@
         <v>550</v>
       </c>
       <c r="AT2">
-        <f>AO2*AP2</f>
         <v>700</v>
       </c>
       <c r="AU2">
         <v>22</v>
       </c>
       <c r="AV2">
-        <f>AN2*AO2</f>
         <v>28</v>
       </c>
       <c r="AW2">
-        <f>AO2*AD2</f>
         <v>154</v>
       </c>
       <c r="AX2">
-        <f>AM2*AD2</f>
         <v>1001</v>
       </c>
       <c r="AY2">
@@ -1190,16 +1348,16 @@
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C3" s="1">
         <v>45519</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1208,7 +1366,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1217,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="L3">
         <v>2.41</v>
@@ -1229,10 +1387,10 @@
         <v>3.07</v>
       </c>
       <c r="O3" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="P3" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="Q3">
         <v>19</v>
@@ -1280,16 +1438,16 @@
         <v>18</v>
       </c>
       <c r="AF3" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="AG3" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="AH3" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="AI3" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="AJ3">
         <v>2</v>
@@ -1298,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="AL3" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="AM3">
         <v>78</v>
@@ -1322,22 +1480,18 @@
         <v>160</v>
       </c>
       <c r="AT3">
-        <f t="shared" ref="AT3:AT22" si="0">AO3*AP3</f>
         <v>640</v>
       </c>
       <c r="AU3">
         <v>16</v>
       </c>
       <c r="AV3">
-        <f t="shared" ref="AV3:AV22" si="1">AN3*AO3</f>
         <v>64</v>
       </c>
       <c r="AW3">
-        <f t="shared" ref="AW3:AW22" si="2">AO3*AD3</f>
         <v>256</v>
       </c>
       <c r="AX3">
-        <f t="shared" ref="AX3:AX22" si="3">AM3*AD3</f>
         <v>624</v>
       </c>
       <c r="AY3">
@@ -1349,16 +1503,16 @@
         <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C4" s="1">
         <v>45520</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -1367,7 +1521,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1376,7 +1530,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="L4">
         <v>2.0499999999999998</v>
@@ -1388,10 +1542,10 @@
         <v>4.12</v>
       </c>
       <c r="O4" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="P4" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -1439,16 +1593,16 @@
         <v>31</v>
       </c>
       <c r="AF4" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="AG4" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="AH4" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="AI4" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="AJ4">
         <v>5</v>
@@ -1457,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="AL4" t="s">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c r="AM4">
         <v>167</v>
@@ -1481,22 +1635,18 @@
         <v>300</v>
       </c>
       <c r="AT4">
-        <f t="shared" si="0"/>
         <v>2300</v>
       </c>
       <c r="AU4">
         <v>18</v>
       </c>
       <c r="AV4">
-        <f t="shared" si="1"/>
         <v>138</v>
       </c>
       <c r="AW4">
-        <f t="shared" si="2"/>
         <v>276</v>
       </c>
       <c r="AX4">
-        <f t="shared" si="3"/>
         <v>1002</v>
       </c>
       <c r="AY4">
@@ -1508,16 +1658,16 @@
         <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C5" s="1">
         <v>45520</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -1526,7 +1676,7 @@
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1535,7 +1685,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="L5">
         <v>2.87</v>
@@ -1547,10 +1697,10 @@
         <v>2.71</v>
       </c>
       <c r="O5" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="P5" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="Q5">
         <v>13</v>
@@ -1598,16 +1748,16 @@
         <v>25</v>
       </c>
       <c r="AF5" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="AG5" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="AH5" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="AI5" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -1616,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="AL5" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="AM5">
         <v>199</v>
@@ -1640,22 +1790,18 @@
         <v>0</v>
       </c>
       <c r="AT5">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AU5">
         <v>36</v>
       </c>
       <c r="AV5">
-        <f t="shared" si="1"/>
         <v>292</v>
       </c>
       <c r="AW5">
-        <f t="shared" si="2"/>
         <v>657</v>
       </c>
       <c r="AX5">
-        <f t="shared" si="3"/>
         <v>1791</v>
       </c>
       <c r="AY5">
@@ -1667,16 +1813,16 @@
         <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C6" s="1">
         <v>45521</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1685,7 +1831,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1694,7 +1840,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="L6">
         <v>1.89</v>
@@ -1706,10 +1852,10 @@
         <v>4.57</v>
       </c>
       <c r="O6" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="P6" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="Q6">
         <v>16</v>
@@ -1757,16 +1903,16 @@
         <v>26</v>
       </c>
       <c r="AF6" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="AG6" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="AH6" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="AI6" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="AJ6">
         <v>5</v>
@@ -1775,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="AL6" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="AM6">
         <v>101</v>
@@ -1799,22 +1945,18 @@
         <v>500</v>
       </c>
       <c r="AT6">
-        <f t="shared" si="0"/>
         <v>600</v>
       </c>
       <c r="AU6">
         <v>20</v>
       </c>
       <c r="AV6">
-        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="AW6">
-        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="AX6">
-        <f t="shared" si="3"/>
         <v>1010</v>
       </c>
       <c r="AY6">
@@ -1826,16 +1968,16 @@
         <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C7" s="1">
         <v>45521</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="E7" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1844,7 +1986,7 @@
         <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1853,7 +1995,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="L7">
         <v>4.8899999999999997</v>
@@ -1865,10 +2007,10 @@
         <v>1.75</v>
       </c>
       <c r="O7" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="P7" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -1916,16 +2058,16 @@
         <v>24</v>
       </c>
       <c r="AF7" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="AG7" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="AH7" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="AI7" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="AJ7">
         <v>5</v>
@@ -1934,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="AL7" t="s">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c r="AM7">
         <v>138</v>
@@ -1958,22 +2100,18 @@
         <v>550</v>
       </c>
       <c r="AT7">
-        <f t="shared" si="0"/>
         <v>1350</v>
       </c>
       <c r="AU7">
         <v>33</v>
       </c>
       <c r="AV7">
-        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="AW7">
-        <f t="shared" si="2"/>
         <v>297</v>
       </c>
       <c r="AX7">
-        <f t="shared" si="3"/>
         <v>1518</v>
       </c>
       <c r="AY7">
@@ -1985,16 +2123,16 @@
         <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C8" s="1">
         <v>45522</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="E8" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -2003,7 +2141,7 @@
         <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2012,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="L8">
         <v>1.61</v>
@@ -2024,10 +2162,10 @@
         <v>6.8</v>
       </c>
       <c r="O8" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="P8" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="Q8">
         <v>11</v>
@@ -2075,16 +2213,16 @@
         <v>35</v>
       </c>
       <c r="AF8" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="AG8" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="AH8" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="AI8" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="AJ8">
         <v>6</v>
@@ -2093,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="AL8" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="AM8">
         <v>241</v>
@@ -2117,22 +2255,18 @@
         <v>900</v>
       </c>
       <c r="AT8">
-        <f t="shared" si="0"/>
         <v>3420</v>
       </c>
       <c r="AU8">
         <v>45</v>
       </c>
       <c r="AV8">
-        <f t="shared" si="1"/>
         <v>171</v>
       </c>
       <c r="AW8">
-        <f t="shared" si="2"/>
         <v>855</v>
       </c>
       <c r="AX8">
-        <f t="shared" si="3"/>
         <v>3615</v>
       </c>
       <c r="AY8">
@@ -2144,16 +2278,16 @@
         <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C9" s="1">
         <v>45522</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -2162,7 +2296,7 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2171,7 +2305,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="L9">
         <v>7.77</v>
@@ -2183,10 +2317,10 @@
         <v>1.46</v>
       </c>
       <c r="O9" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="P9" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="Q9">
         <v>12</v>
@@ -2234,16 +2368,16 @@
         <v>17</v>
       </c>
       <c r="AF9" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="AG9" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="AH9" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="AI9" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="AJ9">
         <v>1</v>
@@ -2252,7 +2386,7 @@
         <v>1</v>
       </c>
       <c r="AL9" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="AM9">
         <v>66</v>
@@ -2276,22 +2410,18 @@
         <v>525</v>
       </c>
       <c r="AT9">
-        <f t="shared" si="0"/>
         <v>630</v>
       </c>
       <c r="AU9">
         <v>30</v>
       </c>
       <c r="AV9">
-        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="AW9">
-        <f t="shared" si="2"/>
         <v>270</v>
       </c>
       <c r="AX9">
-        <f t="shared" si="3"/>
         <v>990</v>
       </c>
       <c r="AY9">
@@ -2303,16 +2433,16 @@
         <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C10" s="1">
         <v>45523</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="E10" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -2321,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -2330,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="L10">
         <v>2.39</v>
@@ -2342,10 +2472,10 @@
         <v>3.47</v>
       </c>
       <c r="O10" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="P10" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="Q10">
         <v>12</v>
@@ -2393,16 +2523,16 @@
         <v>23</v>
       </c>
       <c r="AF10" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="AG10" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="AH10" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="AI10" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="AJ10">
         <v>4</v>
@@ -2411,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="AL10" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="AM10">
         <v>23</v>
@@ -2435,22 +2565,18 @@
         <v>200</v>
       </c>
       <c r="AT10">
-        <f t="shared" si="0"/>
         <v>440</v>
       </c>
       <c r="AU10">
         <v>5</v>
       </c>
       <c r="AV10">
-        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="AW10">
-        <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="AX10">
-        <f t="shared" si="3"/>
         <v>115</v>
       </c>
       <c r="AY10">
@@ -2462,16 +2588,16 @@
         <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C11" s="1">
         <v>45523</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="E11" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -2480,7 +2606,7 @@
         <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -2489,7 +2615,7 @@
         <v>2</v>
       </c>
       <c r="K11" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="L11">
         <v>3.43</v>
@@ -2501,10 +2627,10 @@
         <v>2.12</v>
       </c>
       <c r="O11" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="P11" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="Q11">
         <v>8</v>
@@ -2552,16 +2678,16 @@
         <v>16</v>
       </c>
       <c r="AF11" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="AG11" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="AH11" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="AI11" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="AJ11">
         <v>4</v>
@@ -2570,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="AL11" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="AM11">
         <v>120</v>
@@ -2594,22 +2720,18 @@
         <v>200</v>
       </c>
       <c r="AT11">
-        <f t="shared" si="0"/>
         <v>1520</v>
       </c>
       <c r="AU11">
         <v>20</v>
       </c>
       <c r="AV11">
-        <f t="shared" si="1"/>
         <v>152</v>
       </c>
       <c r="AW11">
-        <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="AX11">
-        <f t="shared" si="3"/>
         <v>600</v>
       </c>
       <c r="AY11">
@@ -2621,16 +2743,16 @@
         <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C12" s="1">
         <v>45527</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F12">
         <v>3</v>
@@ -2639,7 +2761,7 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="I12">
         <v>2</v>
@@ -2648,7 +2770,7 @@
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="L12">
         <v>2.17</v>
@@ -2660,10 +2782,10 @@
         <v>3.71</v>
       </c>
       <c r="O12" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="P12" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -2711,16 +2833,16 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="AG12" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="AH12" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="AI12" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="AJ12">
         <v>3</v>
@@ -2729,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="AL12" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="AM12">
         <v>124</v>
@@ -2753,22 +2875,18 @@
         <v>330</v>
       </c>
       <c r="AT12">
-        <f t="shared" si="0"/>
         <v>1110</v>
       </c>
       <c r="AU12">
         <v>44</v>
       </c>
       <c r="AV12">
-        <f t="shared" si="1"/>
         <v>148</v>
       </c>
       <c r="AW12">
-        <f t="shared" si="2"/>
         <v>407</v>
       </c>
       <c r="AX12">
-        <f t="shared" si="3"/>
         <v>1364</v>
       </c>
       <c r="AY12">
@@ -2780,16 +2898,16 @@
         <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C13" s="1">
         <v>45527</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="E13" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -2798,7 +2916,7 @@
         <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -2807,7 +2925,7 @@
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="L13">
         <v>2.4500000000000002</v>
@@ -2819,10 +2937,10 @@
         <v>2.93</v>
       </c>
       <c r="O13" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="P13" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="Q13">
         <v>15</v>
@@ -2870,16 +2988,16 @@
         <v>22</v>
       </c>
       <c r="AF13" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="AG13" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="AH13" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="AI13" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="AJ13">
         <v>8</v>
@@ -2888,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="AL13" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="AM13">
         <v>137</v>
@@ -2912,22 +3030,18 @@
         <v>720</v>
       </c>
       <c r="AT13">
-        <f t="shared" si="0"/>
         <v>3360</v>
       </c>
       <c r="AU13">
         <v>27</v>
       </c>
       <c r="AV13">
-        <f t="shared" si="1"/>
         <v>126</v>
       </c>
       <c r="AW13">
-        <f t="shared" si="2"/>
         <v>378</v>
       </c>
       <c r="AX13">
-        <f t="shared" si="3"/>
         <v>1233</v>
       </c>
       <c r="AY13">
@@ -2939,16 +3053,16 @@
         <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C14" s="1">
         <v>45528</v>
       </c>
       <c r="D14" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E14" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -2957,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -2966,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="L14">
         <v>2.52</v>
@@ -2978,10 +3092,10 @@
         <v>3.28</v>
       </c>
       <c r="O14" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="P14" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="Q14">
         <v>15</v>
@@ -3029,16 +3143,16 @@
         <v>18</v>
       </c>
       <c r="AF14" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="AG14" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="AH14" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="AI14" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="AJ14">
         <v>3</v>
@@ -3047,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="AL14" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="AM14">
         <v>55</v>
@@ -3071,22 +3185,18 @@
         <v>270</v>
       </c>
       <c r="AT14">
-        <f t="shared" si="0"/>
         <v>420</v>
       </c>
       <c r="AU14">
         <v>9</v>
       </c>
       <c r="AV14">
-        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="AW14">
-        <f t="shared" si="2"/>
         <v>126</v>
       </c>
       <c r="AX14">
-        <f t="shared" si="3"/>
         <v>495</v>
       </c>
       <c r="AY14">
@@ -3098,16 +3208,16 @@
         <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C15" s="1">
         <v>45528</v>
       </c>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -3116,7 +3226,7 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -3125,7 +3235,7 @@
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="L15">
         <v>1.63</v>
@@ -3137,10 +3247,10 @@
         <v>5.34</v>
       </c>
       <c r="O15" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="P15" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="Q15">
         <v>13</v>
@@ -3188,16 +3298,16 @@
         <v>27</v>
       </c>
       <c r="AF15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="AG15" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="AH15" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="AI15" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="AJ15">
         <v>9</v>
@@ -3206,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="AL15" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="AM15">
         <v>141</v>
@@ -3230,22 +3340,18 @@
         <v>990</v>
       </c>
       <c r="AT15">
-        <f t="shared" si="0"/>
         <v>3240</v>
       </c>
       <c r="AU15">
         <v>33</v>
       </c>
       <c r="AV15">
-        <f t="shared" si="1"/>
         <v>108</v>
       </c>
       <c r="AW15">
-        <f t="shared" si="2"/>
         <v>396</v>
       </c>
       <c r="AX15">
-        <f t="shared" si="3"/>
         <v>1551</v>
       </c>
       <c r="AY15">
@@ -3257,16 +3363,16 @@
         <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C16" s="1">
         <v>45528</v>
       </c>
       <c r="D16" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -3275,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -3284,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="L16">
         <v>4.18</v>
@@ -3296,10 +3402,10 @@
         <v>2.11</v>
       </c>
       <c r="O16" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="P16" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="Q16">
         <v>13</v>
@@ -3347,16 +3453,16 @@
         <v>32</v>
       </c>
       <c r="AF16" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="AG16" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="AH16" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="AI16" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="AJ16">
         <v>4</v>
@@ -3365,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="AL16" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="AM16">
         <v>80</v>
@@ -3389,22 +3495,18 @@
         <v>440</v>
       </c>
       <c r="AT16">
-        <f t="shared" si="0"/>
         <v>560</v>
       </c>
       <c r="AU16">
         <v>11</v>
       </c>
       <c r="AV16">
-        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="AW16">
-        <f t="shared" si="2"/>
         <v>154</v>
       </c>
       <c r="AX16">
-        <f t="shared" si="3"/>
         <v>880</v>
       </c>
       <c r="AY16">
@@ -3416,16 +3518,16 @@
         <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C17" s="1">
         <v>45528</v>
       </c>
       <c r="D17" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="E17" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -3434,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -3443,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="L17">
         <v>2.5299999999999998</v>
@@ -3455,10 +3557,10 @@
         <v>3.38</v>
       </c>
       <c r="O17" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="P17" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="Q17">
         <v>12</v>
@@ -3506,16 +3608,16 @@
         <v>34</v>
       </c>
       <c r="AF17" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="AG17" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="AH17" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="AI17" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="AJ17">
         <v>3</v>
@@ -3524,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="AL17" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="AM17">
         <v>0</v>
@@ -3548,22 +3650,18 @@
         <v>150</v>
       </c>
       <c r="AT17">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AU17">
         <v>0</v>
       </c>
       <c r="AV17">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AW17">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AX17">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AY17">
@@ -3575,16 +3673,16 @@
         <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C18" s="1">
         <v>45529</v>
       </c>
       <c r="D18" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="E18" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="F18">
         <v>3</v>
@@ -3593,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -3602,7 +3700,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="L18">
         <v>1.17</v>
@@ -3614,10 +3712,10 @@
         <v>16.25</v>
       </c>
       <c r="O18" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="P18" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="Q18">
         <v>17</v>
@@ -3665,16 +3763,16 @@
         <v>25</v>
       </c>
       <c r="AF18" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="AG18" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="AH18" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="AI18" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="AJ18">
         <v>2</v>
@@ -3683,7 +3781,7 @@
         <v>0</v>
       </c>
       <c r="AL18" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="AM18">
         <v>228</v>
@@ -3707,22 +3805,18 @@
         <v>200</v>
       </c>
       <c r="AT18">
-        <f t="shared" si="0"/>
         <v>900</v>
       </c>
       <c r="AU18">
         <v>30</v>
       </c>
       <c r="AV18">
-        <f t="shared" si="1"/>
         <v>135</v>
       </c>
       <c r="AW18">
-        <f t="shared" si="2"/>
         <v>450</v>
       </c>
       <c r="AX18">
-        <f t="shared" si="3"/>
         <v>2280</v>
       </c>
       <c r="AY18">
@@ -3734,16 +3828,16 @@
         <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C19" s="1">
         <v>45529</v>
       </c>
       <c r="D19" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="E19" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -3752,7 +3846,7 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -3761,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="L19">
         <v>2.33</v>
@@ -3773,10 +3867,10 @@
         <v>3.78</v>
       </c>
       <c r="O19" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="P19" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="Q19">
         <v>10</v>
@@ -3824,16 +3918,16 @@
         <v>21</v>
       </c>
       <c r="AF19" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="AG19" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="AH19" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="AI19" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="AJ19">
         <v>2</v>
@@ -3842,7 +3936,7 @@
         <v>0</v>
       </c>
       <c r="AL19" t="s">
-        <v>141</v>
+        <v>177</v>
       </c>
       <c r="AM19">
         <v>246</v>
@@ -3866,22 +3960,18 @@
         <v>200</v>
       </c>
       <c r="AT19">
-        <f t="shared" si="0"/>
         <v>900</v>
       </c>
       <c r="AU19">
         <v>30</v>
       </c>
       <c r="AV19">
-        <f t="shared" si="1"/>
         <v>135</v>
       </c>
       <c r="AW19">
-        <f t="shared" si="2"/>
         <v>450</v>
       </c>
       <c r="AX19">
-        <f t="shared" si="3"/>
         <v>2460</v>
       </c>
       <c r="AY19">
@@ -3893,16 +3983,16 @@
         <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C20" s="1">
         <v>45529</v>
       </c>
       <c r="D20" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="E20" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -3911,7 +4001,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -3920,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="L20">
         <v>2.44</v>
@@ -3932,10 +4022,10 @@
         <v>3.28</v>
       </c>
       <c r="O20" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="P20" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -3983,16 +4073,16 @@
         <v>29</v>
       </c>
       <c r="AF20" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="AG20" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="AH20" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="AI20" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="AJ20">
         <v>5</v>
@@ -4001,7 +4091,7 @@
         <v>1</v>
       </c>
       <c r="AL20" t="s">
-        <v>142</v>
+        <v>178</v>
       </c>
       <c r="AM20">
         <v>0</v>
@@ -4025,22 +4115,18 @@
         <v>825</v>
       </c>
       <c r="AT20">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AU20">
         <v>0</v>
       </c>
       <c r="AV20">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AW20">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AX20">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AY20">
@@ -4052,16 +4138,16 @@
         <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C21" s="1">
         <v>45529</v>
       </c>
       <c r="D21" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="E21" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="F21">
         <v>3</v>
@@ -4070,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -4079,7 +4165,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="L21">
         <v>1.6</v>
@@ -4091,10 +4177,10 @@
         <v>5.47</v>
       </c>
       <c r="O21" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="P21" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -4142,16 +4228,16 @@
         <v>21</v>
       </c>
       <c r="AF21" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="AG21" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="AH21" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="AI21" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="AJ21">
         <v>4</v>
@@ -4160,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="AL21" t="s">
-        <v>143</v>
+        <v>179</v>
       </c>
       <c r="AM21">
         <v>177</v>
@@ -4184,22 +4270,18 @@
         <v>400</v>
       </c>
       <c r="AT21">
-        <f t="shared" si="0"/>
         <v>1080</v>
       </c>
       <c r="AU21">
         <v>30</v>
       </c>
       <c r="AV21">
-        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="AW21">
-        <f t="shared" si="2"/>
         <v>270</v>
       </c>
       <c r="AX21">
-        <f t="shared" si="3"/>
         <v>1770</v>
       </c>
       <c r="AY21">
@@ -4211,16 +4293,16 @@
         <v>70</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C22" s="1">
         <v>45530</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="E22" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="F22">
         <v>4</v>
@@ -4229,7 +4311,7 @@
         <v>3</v>
       </c>
       <c r="H22" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -4238,7 +4320,7 @@
         <v>2</v>
       </c>
       <c r="K22" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="L22">
         <v>1.94</v>
@@ -4250,10 +4332,10 @@
         <v>3.76</v>
       </c>
       <c r="O22" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="P22" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="Q22">
         <v>22</v>
@@ -4301,16 +4383,16 @@
         <v>14</v>
       </c>
       <c r="AF22" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="AG22" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="AH22" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="AI22" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="AJ22">
         <v>7</v>
@@ -4319,7 +4401,7 @@
         <v>0</v>
       </c>
       <c r="AL22" t="s">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="AM22">
         <v>363</v>
@@ -4343,26 +4425,2884 @@
         <v>770</v>
       </c>
       <c r="AT22">
-        <f t="shared" si="0"/>
         <v>5320</v>
       </c>
       <c r="AU22">
         <v>77</v>
       </c>
       <c r="AV22">
-        <f t="shared" si="1"/>
         <v>532</v>
       </c>
       <c r="AW22">
-        <f t="shared" si="2"/>
         <v>836</v>
       </c>
       <c r="AX22">
-        <f t="shared" si="3"/>
         <v>3993</v>
       </c>
       <c r="AY22">
         <v>5390</v>
+      </c>
+    </row>
+    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="1">
+        <v>45531</v>
+      </c>
+      <c r="D23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>110</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
+        <v>110</v>
+      </c>
+      <c r="L23">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="M23">
+        <v>3.11</v>
+      </c>
+      <c r="N23">
+        <v>3.33</v>
+      </c>
+      <c r="O23" t="s">
+        <v>116</v>
+      </c>
+      <c r="P23" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q23">
+        <v>12</v>
+      </c>
+      <c r="R23">
+        <v>4</v>
+      </c>
+      <c r="S23">
+        <v>16</v>
+      </c>
+      <c r="T23">
+        <v>7</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>1</v>
+      </c>
+      <c r="Y23">
+        <v>5</v>
+      </c>
+      <c r="Z23">
+        <v>9</v>
+      </c>
+      <c r="AA23">
+        <v>15</v>
+      </c>
+      <c r="AB23">
+        <v>10</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>14</v>
+      </c>
+      <c r="AE23">
+        <v>25</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>159</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>159</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>159</v>
+      </c>
+      <c r="AJ23">
+        <v>1</v>
+      </c>
+      <c r="AK23">
+        <v>1</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>181</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>35</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
+        <v>490</v>
+      </c>
+      <c r="AT23">
+        <f>AO23*AP23</f>
+        <v>0</v>
+      </c>
+      <c r="AU23">
+        <v>0</v>
+      </c>
+      <c r="AV23">
+        <f>AN23*AO23</f>
+        <v>0</v>
+      </c>
+      <c r="AW23">
+        <f>AO23*AD23</f>
+        <v>0</v>
+      </c>
+      <c r="AX23">
+        <f>AM23*AD23</f>
+        <v>0</v>
+      </c>
+      <c r="AY23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="1">
+        <v>45531</v>
+      </c>
+      <c r="D24" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24" t="s">
+        <v>112</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" t="s">
+        <v>111</v>
+      </c>
+      <c r="L24">
+        <v>5.7</v>
+      </c>
+      <c r="M24">
+        <v>4.07</v>
+      </c>
+      <c r="N24">
+        <v>1.64</v>
+      </c>
+      <c r="O24" t="s">
+        <v>113</v>
+      </c>
+      <c r="P24" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q24">
+        <v>8</v>
+      </c>
+      <c r="R24">
+        <v>4</v>
+      </c>
+      <c r="S24">
+        <v>22</v>
+      </c>
+      <c r="T24">
+        <v>5</v>
+      </c>
+      <c r="U24">
+        <v>3</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>6</v>
+      </c>
+      <c r="Z24">
+        <v>6</v>
+      </c>
+      <c r="AA24">
+        <v>17</v>
+      </c>
+      <c r="AB24">
+        <v>11</v>
+      </c>
+      <c r="AC24">
+        <v>3</v>
+      </c>
+      <c r="AD24">
+        <v>12</v>
+      </c>
+      <c r="AE24">
+        <v>28</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>159</v>
+      </c>
+      <c r="AJ24">
+        <v>4</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>182</v>
+      </c>
+      <c r="AM24">
+        <v>151</v>
+      </c>
+      <c r="AN24">
+        <v>3</v>
+      </c>
+      <c r="AO24">
+        <v>45</v>
+      </c>
+      <c r="AP24">
+        <v>40</v>
+      </c>
+      <c r="AQ24">
+        <v>300</v>
+      </c>
+      <c r="AR24">
+        <v>120</v>
+      </c>
+      <c r="AS24">
+        <v>480</v>
+      </c>
+      <c r="AT24">
+        <f t="shared" ref="AT24:AT40" si="0">AO24*AP24</f>
+        <v>1800</v>
+      </c>
+      <c r="AU24">
+        <v>36</v>
+      </c>
+      <c r="AV24">
+        <f t="shared" ref="AV24:AV40" si="1">AN24*AO24</f>
+        <v>135</v>
+      </c>
+      <c r="AW24">
+        <f t="shared" ref="AW24:AW40" si="2">AO24*AD24</f>
+        <v>540</v>
+      </c>
+      <c r="AX24">
+        <f t="shared" ref="AX24:AX40" si="3">AM24*AD24</f>
+        <v>1812</v>
+      </c>
+      <c r="AY24">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="1">
+        <v>45532</v>
+      </c>
+      <c r="D25" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>111</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25" t="s">
+        <v>111</v>
+      </c>
+      <c r="L25">
+        <v>1.63</v>
+      </c>
+      <c r="M25">
+        <v>3.91</v>
+      </c>
+      <c r="N25">
+        <v>5.96</v>
+      </c>
+      <c r="O25" t="s">
+        <v>113</v>
+      </c>
+      <c r="P25" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q25">
+        <v>13</v>
+      </c>
+      <c r="R25">
+        <v>4</v>
+      </c>
+      <c r="S25">
+        <v>2</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>3</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>5</v>
+      </c>
+      <c r="Z25">
+        <v>3</v>
+      </c>
+      <c r="AA25">
+        <v>14</v>
+      </c>
+      <c r="AB25">
+        <v>9</v>
+      </c>
+      <c r="AC25">
+        <v>1</v>
+      </c>
+      <c r="AD25">
+        <v>8</v>
+      </c>
+      <c r="AE25">
+        <v>23</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>159</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>159</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>159</v>
+      </c>
+      <c r="AJ25">
+        <v>4</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM25">
+        <v>45</v>
+      </c>
+      <c r="AN25">
+        <v>1</v>
+      </c>
+      <c r="AO25">
+        <v>24</v>
+      </c>
+      <c r="AP25">
+        <v>40</v>
+      </c>
+      <c r="AQ25">
+        <v>300</v>
+      </c>
+      <c r="AR25">
+        <v>40</v>
+      </c>
+      <c r="AS25">
+        <v>320</v>
+      </c>
+      <c r="AT25">
+        <f t="shared" si="0"/>
+        <v>960</v>
+      </c>
+      <c r="AU25">
+        <v>8</v>
+      </c>
+      <c r="AV25">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AW25">
+        <f t="shared" si="2"/>
+        <v>192</v>
+      </c>
+      <c r="AX25">
+        <f t="shared" si="3"/>
+        <v>360</v>
+      </c>
+      <c r="AY25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="1">
+        <v>45532</v>
+      </c>
+      <c r="D26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
+        <v>110</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26" t="s">
+        <v>110</v>
+      </c>
+      <c r="L26">
+        <v>2.34</v>
+      </c>
+      <c r="M26">
+        <v>3.02</v>
+      </c>
+      <c r="N26">
+        <v>3.64</v>
+      </c>
+      <c r="O26" t="s">
+        <v>116</v>
+      </c>
+      <c r="P26" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q26">
+        <v>12</v>
+      </c>
+      <c r="R26">
+        <v>2</v>
+      </c>
+      <c r="S26">
+        <v>8</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>1</v>
+      </c>
+      <c r="V26">
+        <v>5</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>4</v>
+      </c>
+      <c r="Z26">
+        <v>4</v>
+      </c>
+      <c r="AA26">
+        <v>13</v>
+      </c>
+      <c r="AB26">
+        <v>19</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>8</v>
+      </c>
+      <c r="AE26">
+        <v>32</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>159</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>159</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>159</v>
+      </c>
+      <c r="AJ26">
+        <v>6</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>60</v>
+      </c>
+      <c r="AQ26">
+        <v>500</v>
+      </c>
+      <c r="AR26">
+        <v>0</v>
+      </c>
+      <c r="AS26">
+        <v>480</v>
+      </c>
+      <c r="AT26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU26">
+        <v>0</v>
+      </c>
+      <c r="AV26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AW26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AX26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AY26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="1">
+        <v>45532</v>
+      </c>
+      <c r="D27" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" t="s">
+        <v>102</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" t="s">
+        <v>110</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27" t="s">
+        <v>110</v>
+      </c>
+      <c r="L27">
+        <v>1.29</v>
+      </c>
+      <c r="M27">
+        <v>5.48</v>
+      </c>
+      <c r="N27">
+        <v>12.02</v>
+      </c>
+      <c r="O27" t="s">
+        <v>116</v>
+      </c>
+      <c r="P27" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q27">
+        <v>24</v>
+      </c>
+      <c r="R27">
+        <v>7</v>
+      </c>
+      <c r="S27">
+        <v>8</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>2</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>9</v>
+      </c>
+      <c r="Z27">
+        <v>3</v>
+      </c>
+      <c r="AA27">
+        <v>6</v>
+      </c>
+      <c r="AB27">
+        <v>9</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>12</v>
+      </c>
+      <c r="AE27">
+        <v>15</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>159</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>159</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>159</v>
+      </c>
+      <c r="AJ27">
+        <v>2</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>185</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>0</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>20</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>0</v>
+      </c>
+      <c r="AS27">
+        <v>240</v>
+      </c>
+      <c r="AT27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU27">
+        <v>0</v>
+      </c>
+      <c r="AV27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AW27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AX27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AY27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="1">
+        <v>45532</v>
+      </c>
+      <c r="D28" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" t="s">
+        <v>106</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28" t="s">
+        <v>112</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28" t="s">
+        <v>110</v>
+      </c>
+      <c r="L28">
+        <v>1.71</v>
+      </c>
+      <c r="M28">
+        <v>3.58</v>
+      </c>
+      <c r="N28">
+        <v>5.78</v>
+      </c>
+      <c r="O28" t="s">
+        <v>115</v>
+      </c>
+      <c r="P28" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q28">
+        <v>8</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="S28">
+        <v>12</v>
+      </c>
+      <c r="T28">
+        <v>5</v>
+      </c>
+      <c r="U28">
+        <v>4</v>
+      </c>
+      <c r="V28">
+        <v>4</v>
+      </c>
+      <c r="W28">
+        <v>1</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>8</v>
+      </c>
+      <c r="Z28">
+        <v>6</v>
+      </c>
+      <c r="AA28">
+        <v>16</v>
+      </c>
+      <c r="AB28">
+        <v>12</v>
+      </c>
+      <c r="AC28">
+        <v>3</v>
+      </c>
+      <c r="AD28">
+        <v>14</v>
+      </c>
+      <c r="AE28">
+        <v>28</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>148</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>159</v>
+      </c>
+      <c r="AJ28">
+        <v>8</v>
+      </c>
+      <c r="AK28">
+        <v>1</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM28">
+        <v>154</v>
+      </c>
+      <c r="AN28">
+        <v>3</v>
+      </c>
+      <c r="AO28">
+        <v>43</v>
+      </c>
+      <c r="AP28">
+        <v>105</v>
+      </c>
+      <c r="AQ28">
+        <v>2600</v>
+      </c>
+      <c r="AR28">
+        <v>315</v>
+      </c>
+      <c r="AS28">
+        <v>1470</v>
+      </c>
+      <c r="AT28">
+        <f t="shared" si="0"/>
+        <v>4515</v>
+      </c>
+      <c r="AU28">
+        <v>42</v>
+      </c>
+      <c r="AV28">
+        <f t="shared" si="1"/>
+        <v>129</v>
+      </c>
+      <c r="AW28">
+        <f t="shared" si="2"/>
+        <v>602</v>
+      </c>
+      <c r="AX28">
+        <f t="shared" si="3"/>
+        <v>2156</v>
+      </c>
+      <c r="AY28">
+        <v>4410</v>
+      </c>
+    </row>
+    <row r="29" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="1">
+        <v>45533</v>
+      </c>
+      <c r="D29" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>111</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29" t="s">
+        <v>111</v>
+      </c>
+      <c r="L29">
+        <v>1.76</v>
+      </c>
+      <c r="M29">
+        <v>4</v>
+      </c>
+      <c r="N29">
+        <v>4.57</v>
+      </c>
+      <c r="O29" t="s">
+        <v>113</v>
+      </c>
+      <c r="P29" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q29">
+        <v>10</v>
+      </c>
+      <c r="R29">
+        <v>5</v>
+      </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>5</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>10</v>
+      </c>
+      <c r="AB29">
+        <v>9</v>
+      </c>
+      <c r="AC29">
+        <v>4</v>
+      </c>
+      <c r="AD29">
+        <v>5</v>
+      </c>
+      <c r="AE29">
+        <v>19</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>149</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>158</v>
+      </c>
+      <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>187</v>
+      </c>
+      <c r="AM29">
+        <v>233</v>
+      </c>
+      <c r="AN29">
+        <v>4</v>
+      </c>
+      <c r="AO29">
+        <v>44</v>
+      </c>
+      <c r="AP29">
+        <v>0</v>
+      </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
+      <c r="AR29">
+        <v>0</v>
+      </c>
+      <c r="AS29">
+        <v>0</v>
+      </c>
+      <c r="AT29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU29">
+        <v>20</v>
+      </c>
+      <c r="AV29">
+        <f t="shared" si="1"/>
+        <v>176</v>
+      </c>
+      <c r="AW29">
+        <f t="shared" si="2"/>
+        <v>220</v>
+      </c>
+      <c r="AX29">
+        <f t="shared" si="3"/>
+        <v>1165</v>
+      </c>
+      <c r="AY29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="1">
+        <v>45533</v>
+      </c>
+      <c r="D30" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>110</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30" t="s">
+        <v>111</v>
+      </c>
+      <c r="L30">
+        <v>8.1</v>
+      </c>
+      <c r="M30">
+        <v>5.27</v>
+      </c>
+      <c r="N30">
+        <v>1.38</v>
+      </c>
+      <c r="O30" t="s">
+        <v>113</v>
+      </c>
+      <c r="P30" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q30">
+        <v>7</v>
+      </c>
+      <c r="R30">
+        <v>3</v>
+      </c>
+      <c r="S30">
+        <v>25</v>
+      </c>
+      <c r="T30">
+        <v>8</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>2</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>2</v>
+      </c>
+      <c r="Z30">
+        <v>6</v>
+      </c>
+      <c r="AA30">
+        <v>16</v>
+      </c>
+      <c r="AB30">
+        <v>13</v>
+      </c>
+      <c r="AC30">
+        <v>2</v>
+      </c>
+      <c r="AD30">
+        <v>8</v>
+      </c>
+      <c r="AE30">
+        <v>29</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>150</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>159</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>159</v>
+      </c>
+      <c r="AJ30">
+        <v>2</v>
+      </c>
+      <c r="AK30">
+        <v>0</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>188</v>
+      </c>
+      <c r="AM30">
+        <v>74</v>
+      </c>
+      <c r="AN30">
+        <v>2</v>
+      </c>
+      <c r="AO30">
+        <v>17</v>
+      </c>
+      <c r="AP30">
+        <v>20</v>
+      </c>
+      <c r="AQ30">
+        <v>0</v>
+      </c>
+      <c r="AR30">
+        <v>40</v>
+      </c>
+      <c r="AS30">
+        <v>160</v>
+      </c>
+      <c r="AT30">
+        <f t="shared" si="0"/>
+        <v>340</v>
+      </c>
+      <c r="AU30">
+        <v>16</v>
+      </c>
+      <c r="AV30">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="AW30">
+        <f t="shared" si="2"/>
+        <v>136</v>
+      </c>
+      <c r="AX30">
+        <f t="shared" si="3"/>
+        <v>592</v>
+      </c>
+      <c r="AY30">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="31" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="1">
+        <v>45535</v>
+      </c>
+      <c r="D31" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F31">
+        <v>7</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" t="s">
+        <v>111</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
+        <v>111</v>
+      </c>
+      <c r="L31">
+        <v>1.25</v>
+      </c>
+      <c r="M31">
+        <v>6.39</v>
+      </c>
+      <c r="N31">
+        <v>11.82</v>
+      </c>
+      <c r="O31" t="s">
+        <v>120</v>
+      </c>
+      <c r="P31" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q31">
+        <v>23</v>
+      </c>
+      <c r="R31">
+        <v>10</v>
+      </c>
+      <c r="S31">
+        <v>5</v>
+      </c>
+      <c r="T31">
+        <v>2</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>3</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>10</v>
+      </c>
+      <c r="Z31">
+        <v>1</v>
+      </c>
+      <c r="AA31">
+        <v>6</v>
+      </c>
+      <c r="AB31">
+        <v>12</v>
+      </c>
+      <c r="AC31">
+        <v>7</v>
+      </c>
+      <c r="AD31">
+        <v>11</v>
+      </c>
+      <c r="AE31">
+        <v>18</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>158</v>
+      </c>
+      <c r="AJ31">
+        <v>3</v>
+      </c>
+      <c r="AK31">
+        <v>0</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>189</v>
+      </c>
+      <c r="AM31">
+        <v>392</v>
+      </c>
+      <c r="AN31">
+        <v>7</v>
+      </c>
+      <c r="AO31">
+        <v>92</v>
+      </c>
+      <c r="AP31">
+        <v>30</v>
+      </c>
+      <c r="AQ31">
+        <v>0</v>
+      </c>
+      <c r="AR31">
+        <v>210</v>
+      </c>
+      <c r="AS31">
+        <v>330</v>
+      </c>
+      <c r="AT31">
+        <f t="shared" si="0"/>
+        <v>2760</v>
+      </c>
+      <c r="AU31">
+        <v>77</v>
+      </c>
+      <c r="AV31">
+        <f t="shared" si="1"/>
+        <v>644</v>
+      </c>
+      <c r="AW31">
+        <f t="shared" si="2"/>
+        <v>1012</v>
+      </c>
+      <c r="AX31">
+        <f t="shared" si="3"/>
+        <v>4312</v>
+      </c>
+      <c r="AY31">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="32" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="1">
+        <v>45535</v>
+      </c>
+      <c r="D32" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" t="s">
+        <v>107</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
+        <v>112</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32" t="s">
+        <v>110</v>
+      </c>
+      <c r="L32">
+        <v>3.05</v>
+      </c>
+      <c r="M32">
+        <v>3.35</v>
+      </c>
+      <c r="N32">
+        <v>2.46</v>
+      </c>
+      <c r="O32" t="s">
+        <v>116</v>
+      </c>
+      <c r="P32" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q32">
+        <v>8</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <v>9</v>
+      </c>
+      <c r="T32">
+        <v>2</v>
+      </c>
+      <c r="U32">
+        <v>3</v>
+      </c>
+      <c r="V32">
+        <v>1</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>2</v>
+      </c>
+      <c r="Z32">
+        <v>2</v>
+      </c>
+      <c r="AA32">
+        <v>13</v>
+      </c>
+      <c r="AB32">
+        <v>9</v>
+      </c>
+      <c r="AC32">
+        <v>1</v>
+      </c>
+      <c r="AD32">
+        <v>4</v>
+      </c>
+      <c r="AE32">
+        <v>22</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>159</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>159</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>159</v>
+      </c>
+      <c r="AJ32">
+        <v>4</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>190</v>
+      </c>
+      <c r="AM32">
+        <v>90</v>
+      </c>
+      <c r="AN32">
+        <v>1</v>
+      </c>
+      <c r="AO32">
+        <v>10</v>
+      </c>
+      <c r="AP32">
+        <v>40</v>
+      </c>
+      <c r="AQ32">
+        <v>300</v>
+      </c>
+      <c r="AR32">
+        <v>40</v>
+      </c>
+      <c r="AS32">
+        <v>160</v>
+      </c>
+      <c r="AT32">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="AU32">
+        <v>4</v>
+      </c>
+      <c r="AV32">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="AW32">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="AX32">
+        <f t="shared" si="3"/>
+        <v>360</v>
+      </c>
+      <c r="AY32">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="1">
+        <v>45535</v>
+      </c>
+      <c r="D33" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33" t="s">
+        <v>108</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>111</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33" t="s">
+        <v>110</v>
+      </c>
+      <c r="L33">
+        <v>2.8</v>
+      </c>
+      <c r="M33">
+        <v>3.01</v>
+      </c>
+      <c r="N33">
+        <v>2.92</v>
+      </c>
+      <c r="O33" t="s">
+        <v>115</v>
+      </c>
+      <c r="P33" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q33">
+        <v>10</v>
+      </c>
+      <c r="R33">
+        <v>5</v>
+      </c>
+      <c r="S33">
+        <v>17</v>
+      </c>
+      <c r="T33">
+        <v>5</v>
+      </c>
+      <c r="U33">
+        <v>3</v>
+      </c>
+      <c r="V33">
+        <v>2</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>3</v>
+      </c>
+      <c r="Z33">
+        <v>7</v>
+      </c>
+      <c r="AA33">
+        <v>14</v>
+      </c>
+      <c r="AB33">
+        <v>16</v>
+      </c>
+      <c r="AC33">
+        <v>3</v>
+      </c>
+      <c r="AD33">
+        <v>10</v>
+      </c>
+      <c r="AE33">
+        <v>30</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>159</v>
+      </c>
+      <c r="AJ33">
+        <v>5</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>191</v>
+      </c>
+      <c r="AM33">
+        <v>102</v>
+      </c>
+      <c r="AN33">
+        <v>3</v>
+      </c>
+      <c r="AO33">
+        <v>49</v>
+      </c>
+      <c r="AP33">
+        <v>50</v>
+      </c>
+      <c r="AQ33">
+        <v>600</v>
+      </c>
+      <c r="AR33">
+        <v>150</v>
+      </c>
+      <c r="AS33">
+        <v>500</v>
+      </c>
+      <c r="AT33">
+        <f t="shared" si="0"/>
+        <v>2450</v>
+      </c>
+      <c r="AU33">
+        <v>30</v>
+      </c>
+      <c r="AV33">
+        <f t="shared" si="1"/>
+        <v>147</v>
+      </c>
+      <c r="AW33">
+        <f t="shared" si="2"/>
+        <v>490</v>
+      </c>
+      <c r="AX33">
+        <f t="shared" si="3"/>
+        <v>1020</v>
+      </c>
+      <c r="AY33">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="1">
+        <v>45535</v>
+      </c>
+      <c r="D34" t="s">
+        <v>105</v>
+      </c>
+      <c r="E34" t="s">
+        <v>97</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34" t="s">
+        <v>112</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34" t="s">
+        <v>112</v>
+      </c>
+      <c r="L34">
+        <v>2.6</v>
+      </c>
+      <c r="M34">
+        <v>2.89</v>
+      </c>
+      <c r="N34">
+        <v>3.32</v>
+      </c>
+      <c r="O34" t="s">
+        <v>114</v>
+      </c>
+      <c r="P34" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q34">
+        <v>4</v>
+      </c>
+      <c r="R34">
+        <v>2</v>
+      </c>
+      <c r="S34">
+        <v>12</v>
+      </c>
+      <c r="T34">
+        <v>3</v>
+      </c>
+      <c r="U34">
+        <v>1</v>
+      </c>
+      <c r="V34">
+        <v>3</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>1</v>
+      </c>
+      <c r="Z34">
+        <v>3</v>
+      </c>
+      <c r="AA34">
+        <v>11</v>
+      </c>
+      <c r="AB34">
+        <v>17</v>
+      </c>
+      <c r="AC34">
+        <v>1</v>
+      </c>
+      <c r="AD34">
+        <v>4</v>
+      </c>
+      <c r="AE34">
+        <v>28</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>152</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>159</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>159</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>159</v>
+      </c>
+      <c r="AJ34">
+        <v>4</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>192</v>
+      </c>
+      <c r="AM34">
+        <v>43</v>
+      </c>
+      <c r="AN34">
+        <v>1</v>
+      </c>
+      <c r="AO34">
+        <v>14</v>
+      </c>
+      <c r="AP34">
+        <v>40</v>
+      </c>
+      <c r="AQ34">
+        <v>300</v>
+      </c>
+      <c r="AR34">
+        <v>40</v>
+      </c>
+      <c r="AS34">
+        <v>160</v>
+      </c>
+      <c r="AT34">
+        <f t="shared" si="0"/>
+        <v>560</v>
+      </c>
+      <c r="AU34">
+        <v>4</v>
+      </c>
+      <c r="AV34">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="AW34">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="AX34">
+        <f t="shared" si="3"/>
+        <v>172</v>
+      </c>
+      <c r="AY34">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="1">
+        <v>45535</v>
+      </c>
+      <c r="D35" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" t="s">
+        <v>99</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>110</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35" t="s">
+        <v>110</v>
+      </c>
+      <c r="L35">
+        <v>2.81</v>
+      </c>
+      <c r="M35">
+        <v>3.41</v>
+      </c>
+      <c r="N35">
+        <v>2.61</v>
+      </c>
+      <c r="O35" t="s">
+        <v>115</v>
+      </c>
+      <c r="P35" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q35">
+        <v>22</v>
+      </c>
+      <c r="R35">
+        <v>6</v>
+      </c>
+      <c r="S35">
+        <v>9</v>
+      </c>
+      <c r="T35">
+        <v>3</v>
+      </c>
+      <c r="U35">
+        <v>3</v>
+      </c>
+      <c r="V35">
+        <v>5</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>1</v>
+      </c>
+      <c r="Y35">
+        <v>14</v>
+      </c>
+      <c r="Z35">
+        <v>3</v>
+      </c>
+      <c r="AA35">
+        <v>15</v>
+      </c>
+      <c r="AB35">
+        <v>11</v>
+      </c>
+      <c r="AC35">
+        <v>2</v>
+      </c>
+      <c r="AD35">
+        <v>17</v>
+      </c>
+      <c r="AE35">
+        <v>26</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>159</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>159</v>
+      </c>
+      <c r="AJ35">
+        <v>8</v>
+      </c>
+      <c r="AK35">
+        <v>1</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>193</v>
+      </c>
+      <c r="AM35">
+        <v>89</v>
+      </c>
+      <c r="AN35">
+        <v>2</v>
+      </c>
+      <c r="AO35">
+        <v>31</v>
+      </c>
+      <c r="AP35">
+        <v>105</v>
+      </c>
+      <c r="AQ35">
+        <v>2250</v>
+      </c>
+      <c r="AR35">
+        <v>210</v>
+      </c>
+      <c r="AS35">
+        <v>1785</v>
+      </c>
+      <c r="AT35">
+        <f t="shared" si="0"/>
+        <v>3255</v>
+      </c>
+      <c r="AU35">
+        <v>34</v>
+      </c>
+      <c r="AV35">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="AW35">
+        <f t="shared" si="2"/>
+        <v>527</v>
+      </c>
+      <c r="AX35">
+        <f t="shared" si="3"/>
+        <v>1513</v>
+      </c>
+      <c r="AY35">
+        <v>3570</v>
+      </c>
+    </row>
+    <row r="36" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="1">
+        <v>45536</v>
+      </c>
+      <c r="D36" t="s">
+        <v>106</v>
+      </c>
+      <c r="E36" t="s">
+        <v>93</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>111</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36" t="s">
+        <v>111</v>
+      </c>
+      <c r="L36">
+        <v>1.94</v>
+      </c>
+      <c r="M36">
+        <v>3.38</v>
+      </c>
+      <c r="N36">
+        <v>4.45</v>
+      </c>
+      <c r="O36" t="s">
+        <v>113</v>
+      </c>
+      <c r="P36" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q36">
+        <v>15</v>
+      </c>
+      <c r="R36">
+        <v>5</v>
+      </c>
+      <c r="S36">
+        <v>12</v>
+      </c>
+      <c r="T36">
+        <v>7</v>
+      </c>
+      <c r="U36">
+        <v>3</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>6</v>
+      </c>
+      <c r="Z36">
+        <v>5</v>
+      </c>
+      <c r="AA36">
+        <v>13</v>
+      </c>
+      <c r="AB36">
+        <v>9</v>
+      </c>
+      <c r="AC36">
+        <v>2</v>
+      </c>
+      <c r="AD36">
+        <v>11</v>
+      </c>
+      <c r="AE36">
+        <v>22</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>159</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>159</v>
+      </c>
+      <c r="AJ36">
+        <v>3</v>
+      </c>
+      <c r="AK36">
+        <v>0</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>194</v>
+      </c>
+      <c r="AM36">
+        <v>85</v>
+      </c>
+      <c r="AN36">
+        <v>2</v>
+      </c>
+      <c r="AO36">
+        <v>18</v>
+      </c>
+      <c r="AP36">
+        <v>30</v>
+      </c>
+      <c r="AQ36">
+        <v>0</v>
+      </c>
+      <c r="AR36">
+        <v>60</v>
+      </c>
+      <c r="AS36">
+        <v>330</v>
+      </c>
+      <c r="AT36">
+        <f t="shared" si="0"/>
+        <v>540</v>
+      </c>
+      <c r="AU36">
+        <v>22</v>
+      </c>
+      <c r="AV36">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="AW36">
+        <f t="shared" si="2"/>
+        <v>198</v>
+      </c>
+      <c r="AX36">
+        <f t="shared" si="3"/>
+        <v>935</v>
+      </c>
+      <c r="AY36">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="37" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="1">
+        <v>45536</v>
+      </c>
+      <c r="D37" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" t="s">
+        <v>92</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37" t="s">
+        <v>111</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37" t="s">
+        <v>111</v>
+      </c>
+      <c r="L37">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="M37">
+        <v>3.31</v>
+      </c>
+      <c r="N37">
+        <v>3</v>
+      </c>
+      <c r="O37" t="s">
+        <v>118</v>
+      </c>
+      <c r="P37" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q37">
+        <v>10</v>
+      </c>
+      <c r="R37">
+        <v>4</v>
+      </c>
+      <c r="S37">
+        <v>12</v>
+      </c>
+      <c r="T37">
+        <v>3</v>
+      </c>
+      <c r="U37">
+        <v>2</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>1</v>
+      </c>
+      <c r="Y37">
+        <v>6</v>
+      </c>
+      <c r="Z37">
+        <v>3</v>
+      </c>
+      <c r="AA37">
+        <v>19</v>
+      </c>
+      <c r="AB37">
+        <v>10</v>
+      </c>
+      <c r="AC37">
+        <v>5</v>
+      </c>
+      <c r="AD37">
+        <v>9</v>
+      </c>
+      <c r="AE37">
+        <v>29</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>158</v>
+      </c>
+      <c r="AJ37">
+        <v>2</v>
+      </c>
+      <c r="AK37">
+        <v>1</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>195</v>
+      </c>
+      <c r="AM37">
+        <v>247</v>
+      </c>
+      <c r="AN37">
+        <v>5</v>
+      </c>
+      <c r="AO37">
+        <v>92</v>
+      </c>
+      <c r="AP37">
+        <v>45</v>
+      </c>
+      <c r="AQ37">
+        <v>500</v>
+      </c>
+      <c r="AR37">
+        <v>225</v>
+      </c>
+      <c r="AS37">
+        <v>405</v>
+      </c>
+      <c r="AT37">
+        <f t="shared" si="0"/>
+        <v>4140</v>
+      </c>
+      <c r="AU37">
+        <v>45</v>
+      </c>
+      <c r="AV37">
+        <f t="shared" si="1"/>
+        <v>460</v>
+      </c>
+      <c r="AW37">
+        <f t="shared" si="2"/>
+        <v>828</v>
+      </c>
+      <c r="AX37">
+        <f t="shared" si="3"/>
+        <v>2223</v>
+      </c>
+      <c r="AY37">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="38" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="1">
+        <v>45536</v>
+      </c>
+      <c r="D38" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" t="s">
+        <v>109</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38" t="s">
+        <v>112</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38" t="s">
+        <v>112</v>
+      </c>
+      <c r="L38">
+        <v>2.42</v>
+      </c>
+      <c r="M38">
+        <v>3.8</v>
+      </c>
+      <c r="N38">
+        <v>2.8</v>
+      </c>
+      <c r="O38" t="s">
+        <v>114</v>
+      </c>
+      <c r="P38" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q38">
+        <v>16</v>
+      </c>
+      <c r="R38">
+        <v>5</v>
+      </c>
+      <c r="S38">
+        <v>11</v>
+      </c>
+      <c r="T38">
+        <v>4</v>
+      </c>
+      <c r="U38">
+        <v>3</v>
+      </c>
+      <c r="V38">
+        <v>2</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>7</v>
+      </c>
+      <c r="Z38">
+        <v>5</v>
+      </c>
+      <c r="AA38">
+        <v>6</v>
+      </c>
+      <c r="AB38">
+        <v>14</v>
+      </c>
+      <c r="AC38">
+        <v>2</v>
+      </c>
+      <c r="AD38">
+        <v>12</v>
+      </c>
+      <c r="AE38">
+        <v>20</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>159</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>159</v>
+      </c>
+      <c r="AJ38">
+        <v>5</v>
+      </c>
+      <c r="AK38">
+        <v>0</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>196</v>
+      </c>
+      <c r="AM38">
+        <v>114</v>
+      </c>
+      <c r="AN38">
+        <v>2</v>
+      </c>
+      <c r="AO38">
+        <v>32</v>
+      </c>
+      <c r="AP38">
+        <v>50</v>
+      </c>
+      <c r="AQ38">
+        <v>600</v>
+      </c>
+      <c r="AR38">
+        <v>100</v>
+      </c>
+      <c r="AS38">
+        <v>600</v>
+      </c>
+      <c r="AT38">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+      <c r="AU38">
+        <v>24</v>
+      </c>
+      <c r="AV38">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="AW38">
+        <f t="shared" si="2"/>
+        <v>384</v>
+      </c>
+      <c r="AX38">
+        <f t="shared" si="3"/>
+        <v>1368</v>
+      </c>
+      <c r="AY38">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="1">
+        <v>45536</v>
+      </c>
+      <c r="D39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E39" t="s">
+        <v>96</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39" t="s">
+        <v>110</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39" t="s">
+        <v>110</v>
+      </c>
+      <c r="L39">
+        <v>3.59</v>
+      </c>
+      <c r="M39">
+        <v>2.87</v>
+      </c>
+      <c r="N39">
+        <v>2.46</v>
+      </c>
+      <c r="O39" t="s">
+        <v>116</v>
+      </c>
+      <c r="P39" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q39">
+        <v>16</v>
+      </c>
+      <c r="R39">
+        <v>1</v>
+      </c>
+      <c r="S39">
+        <v>1</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>1</v>
+      </c>
+      <c r="V39">
+        <v>1</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>4</v>
+      </c>
+      <c r="Z39">
+        <v>1</v>
+      </c>
+      <c r="AA39">
+        <v>14</v>
+      </c>
+      <c r="AB39">
+        <v>16</v>
+      </c>
+      <c r="AC39">
+        <v>0</v>
+      </c>
+      <c r="AD39">
+        <v>5</v>
+      </c>
+      <c r="AE39">
+        <v>30</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>156</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>159</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>159</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>159</v>
+      </c>
+      <c r="AJ39">
+        <v>2</v>
+      </c>
+      <c r="AK39">
+        <v>0</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM39">
+        <v>0</v>
+      </c>
+      <c r="AN39">
+        <v>0</v>
+      </c>
+      <c r="AO39">
+        <v>0</v>
+      </c>
+      <c r="AP39">
+        <v>20</v>
+      </c>
+      <c r="AQ39">
+        <v>100</v>
+      </c>
+      <c r="AR39">
+        <v>0</v>
+      </c>
+      <c r="AS39">
+        <v>100</v>
+      </c>
+      <c r="AT39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU39">
+        <v>0</v>
+      </c>
+      <c r="AV39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AW39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AX39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AY39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="1">
+        <v>45536</v>
+      </c>
+      <c r="D40" t="s">
+        <v>104</v>
+      </c>
+      <c r="E40" t="s">
+        <v>91</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40" t="s">
+        <v>111</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40" t="s">
+        <v>110</v>
+      </c>
+      <c r="L40">
+        <v>1.29</v>
+      </c>
+      <c r="M40">
+        <v>5.97</v>
+      </c>
+      <c r="N40">
+        <v>9.9</v>
+      </c>
+      <c r="O40" t="s">
+        <v>116</v>
+      </c>
+      <c r="P40" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q40">
+        <v>20</v>
+      </c>
+      <c r="R40">
+        <v>8</v>
+      </c>
+      <c r="S40">
+        <v>12</v>
+      </c>
+      <c r="T40">
+        <v>2</v>
+      </c>
+      <c r="U40">
+        <v>2</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>7</v>
+      </c>
+      <c r="Z40">
+        <v>3</v>
+      </c>
+      <c r="AA40">
+        <v>8</v>
+      </c>
+      <c r="AB40">
+        <v>16</v>
+      </c>
+      <c r="AC40">
+        <v>2</v>
+      </c>
+      <c r="AD40">
+        <v>10</v>
+      </c>
+      <c r="AE40">
+        <v>24</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>159</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>159</v>
+      </c>
+      <c r="AJ40">
+        <v>2</v>
+      </c>
+      <c r="AK40">
+        <v>0</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>198</v>
+      </c>
+      <c r="AM40">
+        <v>142</v>
+      </c>
+      <c r="AN40">
+        <v>2</v>
+      </c>
+      <c r="AO40">
+        <v>18</v>
+      </c>
+      <c r="AP40">
+        <v>20</v>
+      </c>
+      <c r="AQ40">
+        <v>0</v>
+      </c>
+      <c r="AR40">
+        <v>40</v>
+      </c>
+      <c r="AS40">
+        <v>200</v>
+      </c>
+      <c r="AT40">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="AU40">
+        <v>20</v>
+      </c>
+      <c r="AV40">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="AW40">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+      <c r="AX40">
+        <f t="shared" si="3"/>
+        <v>1420</v>
+      </c>
+      <c r="AY40">
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/SP1_spread.xlsx
+++ b/SP1_spread.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kovan\Rsoccer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95068CA-FA39-4629-994A-2C0AADE26C5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F488D66-462D-46F1-B3A4-0857796EDC8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3795" yWindow="2655" windowWidth="20355" windowHeight="12495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="259">
   <si>
     <t>Div</t>
   </si>
@@ -243,58 +243,127 @@
     <t>21</t>
   </si>
   <si>
-    <t>292</t>
-  </si>
-  <si>
-    <t>293</t>
-  </si>
-  <si>
-    <t>294</t>
-  </si>
-  <si>
-    <t>295</t>
-  </si>
-  <si>
-    <t>296</t>
-  </si>
-  <si>
-    <t>297</t>
-  </si>
-  <si>
-    <t>298</t>
-  </si>
-  <si>
-    <t>299</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>301</t>
-  </si>
-  <si>
-    <t>302</t>
-  </si>
-  <si>
-    <t>303</t>
-  </si>
-  <si>
-    <t>304</t>
-  </si>
-  <si>
-    <t>305</t>
-  </si>
-  <si>
-    <t>306</t>
-  </si>
-  <si>
-    <t>307</t>
-  </si>
-  <si>
-    <t>308</t>
-  </si>
-  <si>
-    <t>309</t>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>463</t>
+  </si>
+  <si>
+    <t>464</t>
+  </si>
+  <si>
+    <t>465</t>
+  </si>
+  <si>
+    <t>466</t>
+  </si>
+  <si>
+    <t>467</t>
+  </si>
+  <si>
+    <t>468</t>
+  </si>
+  <si>
+    <t>469</t>
+  </si>
+  <si>
+    <t>470</t>
+  </si>
+  <si>
+    <t>471</t>
+  </si>
+  <si>
+    <t>472</t>
+  </si>
+  <si>
+    <t>473</t>
+  </si>
+  <si>
+    <t>474</t>
+  </si>
+  <si>
+    <t>475</t>
   </si>
   <si>
     <t>SP1</t>
@@ -393,6 +462,12 @@
     <t>3-0</t>
   </si>
   <si>
+    <t>2-0</t>
+  </si>
+  <si>
+    <t>0-2</t>
+  </si>
+  <si>
     <t>3-1</t>
   </si>
   <si>
@@ -405,13 +480,19 @@
     <t>7-0</t>
   </si>
   <si>
-    <t>2-0</t>
-  </si>
-  <si>
     <t>3-2</t>
   </si>
   <si>
-    <t>0-2</t>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>4-1</t>
+  </si>
+  <si>
+    <t>1-5</t>
   </si>
   <si>
     <t>5-6</t>
@@ -438,9 +519,6 @@
     <t>8-7</t>
   </si>
   <si>
-    <t>2-3</t>
-  </si>
-  <si>
     <t>4-7</t>
   </si>
   <si>
@@ -498,12 +576,45 @@
     <t>7-5</t>
   </si>
   <si>
-    <t>4-1</t>
-  </si>
-  <si>
     <t>7-3</t>
   </si>
   <si>
+    <t>11-1</t>
+  </si>
+  <si>
+    <t>7-6</t>
+  </si>
+  <si>
+    <t>0-5</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>1-6</t>
+  </si>
+  <si>
+    <t>8-4</t>
+  </si>
+  <si>
+    <t>3-5</t>
+  </si>
+  <si>
+    <t>5-7</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>9-4</t>
+  </si>
+  <si>
+    <t>6-2</t>
+  </si>
+  <si>
+    <t>3-6</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
@@ -625,6 +736,75 @@
   </si>
   <si>
     <t>Real Madrid-Betis</t>
+  </si>
+  <si>
+    <t>Betis-Leganes</t>
+  </si>
+  <si>
+    <t>Mallorca-Villarreal</t>
+  </si>
+  <si>
+    <t>Espanol-Alaves</t>
+  </si>
+  <si>
+    <t>Sevilla-Getafe</t>
+  </si>
+  <si>
+    <t>Sociedad-Real Madrid</t>
+  </si>
+  <si>
+    <t>Celta-Valladolid</t>
+  </si>
+  <si>
+    <t>Girona-Barcelona</t>
+  </si>
+  <si>
+    <t>Las Palmas-Ath Bilbao</t>
+  </si>
+  <si>
+    <t>Ath Madrid-Valencia</t>
+  </si>
+  <si>
+    <t>Vallecano-Osasuna</t>
+  </si>
+  <si>
+    <t>Mallorca-Sociedad</t>
+  </si>
+  <si>
+    <t>Betis-Getafe</t>
+  </si>
+  <si>
+    <t>Leganes-Ath Bilbao</t>
+  </si>
+  <si>
+    <t>Alaves-Sevilla</t>
+  </si>
+  <si>
+    <t>Valladolid-Sociedad</t>
+  </si>
+  <si>
+    <t>Osasuna-Las Palmas</t>
+  </si>
+  <si>
+    <t>Valencia-Girona</t>
+  </si>
+  <si>
+    <t>Real Madrid-Espanol</t>
+  </si>
+  <si>
+    <t>Getafe-Leganes</t>
+  </si>
+  <si>
+    <t>Ath Bilbao-Celta</t>
+  </si>
+  <si>
+    <t>Villarreal-Barcelona</t>
+  </si>
+  <si>
+    <t>Vallecano-Ath Madrid</t>
+  </si>
+  <si>
+    <t>Betis-Mallorca</t>
   </si>
 </sst>
 </file>
@@ -980,60 +1160,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY40"/>
+  <dimension ref="A1:AY63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="Z8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="Z41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AO41" sqref="AO41"/>
+      <selection pane="bottomRight" activeCell="AO64" sqref="AO64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="31" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="31" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="6" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="2.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.25">
@@ -1193,16 +1373,16 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C2" s="1">
         <v>45519</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="E2" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1211,7 +1391,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -1220,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="L2">
         <v>1.48</v>
@@ -1232,10 +1412,10 @@
         <v>8.24</v>
       </c>
       <c r="O2" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="P2" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1283,16 +1463,16 @@
         <v>27</v>
       </c>
       <c r="AF2" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="AG2" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="AH2" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AI2" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AJ2">
         <v>5</v>
@@ -1301,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="AL2" t="s">
-        <v>160</v>
+        <v>197</v>
       </c>
       <c r="AM2">
         <v>91</v>
@@ -1348,16 +1528,16 @@
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C3" s="1">
         <v>45519</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="E3" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1366,7 +1546,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1375,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="L3">
         <v>2.41</v>
@@ -1387,10 +1567,10 @@
         <v>3.07</v>
       </c>
       <c r="O3" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="P3" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="Q3">
         <v>19</v>
@@ -1438,16 +1618,16 @@
         <v>18</v>
       </c>
       <c r="AF3" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="AG3" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="AH3" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AI3" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AJ3">
         <v>2</v>
@@ -1456,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="AL3" t="s">
-        <v>161</v>
+        <v>198</v>
       </c>
       <c r="AM3">
         <v>78</v>
@@ -1503,16 +1683,16 @@
         <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C4" s="1">
         <v>45520</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="E4" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -1521,7 +1701,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1530,7 +1710,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="L4">
         <v>2.0499999999999998</v>
@@ -1542,10 +1722,10 @@
         <v>4.12</v>
       </c>
       <c r="O4" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="P4" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -1593,16 +1773,16 @@
         <v>31</v>
       </c>
       <c r="AF4" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="AG4" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="AH4" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="AI4" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AJ4">
         <v>5</v>
@@ -1611,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="AL4" t="s">
-        <v>162</v>
+        <v>199</v>
       </c>
       <c r="AM4">
         <v>167</v>
@@ -1658,16 +1838,16 @@
         <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C5" s="1">
         <v>45520</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -1676,7 +1856,7 @@
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1685,7 +1865,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="L5">
         <v>2.87</v>
@@ -1697,10 +1877,10 @@
         <v>2.71</v>
       </c>
       <c r="O5" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="P5" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="Q5">
         <v>13</v>
@@ -1748,16 +1928,16 @@
         <v>25</v>
       </c>
       <c r="AF5" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="AG5" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="AH5" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="AI5" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -1766,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="AL5" t="s">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="AM5">
         <v>199</v>
@@ -1813,16 +1993,16 @@
         <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C6" s="1">
         <v>45521</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="E6" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1831,7 +2011,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1840,7 +2020,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="L6">
         <v>1.89</v>
@@ -1852,10 +2032,10 @@
         <v>4.57</v>
       </c>
       <c r="O6" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="P6" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="Q6">
         <v>16</v>
@@ -1903,16 +2083,16 @@
         <v>26</v>
       </c>
       <c r="AF6" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="AG6" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="AH6" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AI6" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AJ6">
         <v>5</v>
@@ -1921,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="AL6" t="s">
-        <v>164</v>
+        <v>201</v>
       </c>
       <c r="AM6">
         <v>101</v>
@@ -1968,16 +2148,16 @@
         <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C7" s="1">
         <v>45521</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="E7" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1986,7 +2166,7 @@
         <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1995,7 +2175,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="L7">
         <v>4.8899999999999997</v>
@@ -2007,10 +2187,10 @@
         <v>1.75</v>
       </c>
       <c r="O7" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="P7" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2058,16 +2238,16 @@
         <v>24</v>
       </c>
       <c r="AF7" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="AG7" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="AH7" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="AI7" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AJ7">
         <v>5</v>
@@ -2076,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="AL7" t="s">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="AM7">
         <v>138</v>
@@ -2123,16 +2303,16 @@
         <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C8" s="1">
         <v>45522</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="E8" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -2141,7 +2321,7 @@
         <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2150,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="L8">
         <v>1.61</v>
@@ -2162,10 +2342,10 @@
         <v>6.8</v>
       </c>
       <c r="O8" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="P8" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="Q8">
         <v>11</v>
@@ -2213,16 +2393,16 @@
         <v>35</v>
       </c>
       <c r="AF8" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="AG8" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="AH8" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="AI8" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AJ8">
         <v>6</v>
@@ -2231,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="AL8" t="s">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c r="AM8">
         <v>241</v>
@@ -2278,16 +2458,16 @@
         <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C9" s="1">
         <v>45522</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="E9" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -2296,7 +2476,7 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2305,7 +2485,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="L9">
         <v>7.77</v>
@@ -2317,10 +2497,10 @@
         <v>1.46</v>
       </c>
       <c r="O9" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="P9" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="Q9">
         <v>12</v>
@@ -2368,16 +2548,16 @@
         <v>17</v>
       </c>
       <c r="AF9" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="AG9" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="AH9" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AI9" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AJ9">
         <v>1</v>
@@ -2386,7 +2566,7 @@
         <v>1</v>
       </c>
       <c r="AL9" t="s">
-        <v>167</v>
+        <v>204</v>
       </c>
       <c r="AM9">
         <v>66</v>
@@ -2433,16 +2613,16 @@
         <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C10" s="1">
         <v>45523</v>
       </c>
       <c r="D10" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="E10" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -2451,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -2460,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="L10">
         <v>2.39</v>
@@ -2472,10 +2652,10 @@
         <v>3.47</v>
       </c>
       <c r="O10" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="P10" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="Q10">
         <v>12</v>
@@ -2523,16 +2703,16 @@
         <v>23</v>
       </c>
       <c r="AF10" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="AG10" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AH10" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AI10" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AJ10">
         <v>4</v>
@@ -2541,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="AL10" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="AM10">
         <v>23</v>
@@ -2588,16 +2768,16 @@
         <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C11" s="1">
         <v>45523</v>
       </c>
       <c r="D11" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="E11" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -2606,7 +2786,7 @@
         <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -2615,7 +2795,7 @@
         <v>2</v>
       </c>
       <c r="K11" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="L11">
         <v>3.43</v>
@@ -2627,10 +2807,10 @@
         <v>2.12</v>
       </c>
       <c r="O11" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="P11" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="Q11">
         <v>8</v>
@@ -2678,16 +2858,16 @@
         <v>16</v>
       </c>
       <c r="AF11" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="AG11" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="AH11" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="AI11" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="AJ11">
         <v>4</v>
@@ -2696,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="AL11" t="s">
-        <v>169</v>
+        <v>206</v>
       </c>
       <c r="AM11">
         <v>120</v>
@@ -2743,16 +2923,16 @@
         <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C12" s="1">
         <v>45527</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="E12" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="F12">
         <v>3</v>
@@ -2761,7 +2941,7 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="I12">
         <v>2</v>
@@ -2770,7 +2950,7 @@
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="L12">
         <v>2.17</v>
@@ -2782,10 +2962,10 @@
         <v>3.71</v>
       </c>
       <c r="O12" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="P12" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -2833,16 +3013,16 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="AG12" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="AH12" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="AI12" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="AJ12">
         <v>3</v>
@@ -2851,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="AL12" t="s">
-        <v>170</v>
+        <v>207</v>
       </c>
       <c r="AM12">
         <v>124</v>
@@ -2898,16 +3078,16 @@
         <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C13" s="1">
         <v>45527</v>
       </c>
       <c r="D13" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="E13" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -2916,7 +3096,7 @@
         <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -2925,7 +3105,7 @@
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="L13">
         <v>2.4500000000000002</v>
@@ -2937,10 +3117,10 @@
         <v>2.93</v>
       </c>
       <c r="O13" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="P13" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="Q13">
         <v>15</v>
@@ -2988,16 +3168,16 @@
         <v>22</v>
       </c>
       <c r="AF13" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="AG13" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="AH13" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="AI13" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AJ13">
         <v>8</v>
@@ -3006,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="AL13" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AM13">
         <v>137</v>
@@ -3053,16 +3233,16 @@
         <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C14" s="1">
         <v>45528</v>
       </c>
       <c r="D14" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="E14" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -3071,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -3080,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="L14">
         <v>2.52</v>
@@ -3092,10 +3272,10 @@
         <v>3.28</v>
       </c>
       <c r="O14" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="P14" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="Q14">
         <v>15</v>
@@ -3143,16 +3323,16 @@
         <v>18</v>
       </c>
       <c r="AF14" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="AG14" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AH14" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AI14" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AJ14">
         <v>3</v>
@@ -3161,7 +3341,7 @@
         <v>0</v>
       </c>
       <c r="AL14" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AM14">
         <v>55</v>
@@ -3208,16 +3388,16 @@
         <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C15" s="1">
         <v>45528</v>
       </c>
       <c r="D15" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="E15" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -3226,7 +3406,7 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -3235,7 +3415,7 @@
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="L15">
         <v>1.63</v>
@@ -3247,10 +3427,10 @@
         <v>5.34</v>
       </c>
       <c r="O15" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="P15" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="Q15">
         <v>13</v>
@@ -3298,16 +3478,16 @@
         <v>27</v>
       </c>
       <c r="AF15" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="AG15" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="AH15" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="AI15" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AJ15">
         <v>9</v>
@@ -3316,7 +3496,7 @@
         <v>0</v>
       </c>
       <c r="AL15" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="AM15">
         <v>141</v>
@@ -3363,16 +3543,16 @@
         <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C16" s="1">
         <v>45528</v>
       </c>
       <c r="D16" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="E16" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -3381,7 +3561,7 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -3390,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="L16">
         <v>4.18</v>
@@ -3402,10 +3582,10 @@
         <v>2.11</v>
       </c>
       <c r="O16" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="P16" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="Q16">
         <v>13</v>
@@ -3453,16 +3633,16 @@
         <v>32</v>
       </c>
       <c r="AF16" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="AG16" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AH16" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AI16" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AJ16">
         <v>4</v>
@@ -3471,7 +3651,7 @@
         <v>0</v>
       </c>
       <c r="AL16" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="AM16">
         <v>80</v>
@@ -3518,16 +3698,16 @@
         <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C17" s="1">
         <v>45528</v>
       </c>
       <c r="D17" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="E17" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -3536,7 +3716,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -3545,7 +3725,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="L17">
         <v>2.5299999999999998</v>
@@ -3557,10 +3737,10 @@
         <v>3.38</v>
       </c>
       <c r="O17" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="P17" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="Q17">
         <v>12</v>
@@ -3608,16 +3788,16 @@
         <v>34</v>
       </c>
       <c r="AF17" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="AG17" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AH17" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AI17" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AJ17">
         <v>3</v>
@@ -3626,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="AL17" t="s">
-        <v>175</v>
+        <v>212</v>
       </c>
       <c r="AM17">
         <v>0</v>
@@ -3673,16 +3853,16 @@
         <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C18" s="1">
         <v>45529</v>
       </c>
       <c r="D18" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="E18" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="F18">
         <v>3</v>
@@ -3691,7 +3871,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -3700,7 +3880,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="L18">
         <v>1.17</v>
@@ -3712,10 +3892,10 @@
         <v>16.25</v>
       </c>
       <c r="O18" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="P18" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="Q18">
         <v>17</v>
@@ -3763,16 +3943,16 @@
         <v>25</v>
       </c>
       <c r="AF18" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="AG18" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="AH18" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="AI18" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AJ18">
         <v>2</v>
@@ -3781,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="AL18" t="s">
-        <v>176</v>
+        <v>213</v>
       </c>
       <c r="AM18">
         <v>228</v>
@@ -3828,16 +4008,16 @@
         <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C19" s="1">
         <v>45529</v>
       </c>
       <c r="D19" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="E19" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -3846,7 +4026,7 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -3855,7 +4035,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="L19">
         <v>2.33</v>
@@ -3867,10 +4047,10 @@
         <v>3.78</v>
       </c>
       <c r="O19" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="P19" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="Q19">
         <v>10</v>
@@ -3918,16 +4098,16 @@
         <v>21</v>
       </c>
       <c r="AF19" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="AG19" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="AH19" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="AI19" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AJ19">
         <v>2</v>
@@ -3936,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="AL19" t="s">
-        <v>177</v>
+        <v>214</v>
       </c>
       <c r="AM19">
         <v>246</v>
@@ -3983,16 +4163,16 @@
         <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C20" s="1">
         <v>45529</v>
       </c>
       <c r="D20" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="E20" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -4001,7 +4181,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -4010,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="L20">
         <v>2.44</v>
@@ -4022,10 +4202,10 @@
         <v>3.28</v>
       </c>
       <c r="O20" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="P20" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -4073,16 +4253,16 @@
         <v>29</v>
       </c>
       <c r="AF20" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="AG20" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AH20" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AI20" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AJ20">
         <v>5</v>
@@ -4091,7 +4271,7 @@
         <v>1</v>
       </c>
       <c r="AL20" t="s">
-        <v>178</v>
+        <v>215</v>
       </c>
       <c r="AM20">
         <v>0</v>
@@ -4138,16 +4318,16 @@
         <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C21" s="1">
         <v>45529</v>
       </c>
       <c r="D21" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="E21" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="F21">
         <v>3</v>
@@ -4156,7 +4336,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -4165,7 +4345,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="L21">
         <v>1.6</v>
@@ -4177,10 +4357,10 @@
         <v>5.47</v>
       </c>
       <c r="O21" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="P21" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -4228,16 +4408,16 @@
         <v>21</v>
       </c>
       <c r="AF21" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="AG21" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="AH21" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="AI21" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AJ21">
         <v>4</v>
@@ -4246,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="AL21" t="s">
-        <v>179</v>
+        <v>216</v>
       </c>
       <c r="AM21">
         <v>177</v>
@@ -4293,16 +4473,16 @@
         <v>70</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C22" s="1">
         <v>45530</v>
       </c>
       <c r="D22" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="E22" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="F22">
         <v>4</v>
@@ -4311,7 +4491,7 @@
         <v>3</v>
       </c>
       <c r="H22" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -4320,7 +4500,7 @@
         <v>2</v>
       </c>
       <c r="K22" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="L22">
         <v>1.94</v>
@@ -4332,10 +4512,10 @@
         <v>3.76</v>
       </c>
       <c r="O22" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="P22" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="Q22">
         <v>22</v>
@@ -4383,16 +4563,16 @@
         <v>14</v>
       </c>
       <c r="AF22" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="AG22" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="AH22" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="AI22" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="AJ22">
         <v>7</v>
@@ -4401,7 +4581,7 @@
         <v>0</v>
       </c>
       <c r="AL22" t="s">
-        <v>180</v>
+        <v>217</v>
       </c>
       <c r="AM22">
         <v>363</v>
@@ -4448,16 +4628,16 @@
         <v>71</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C23" s="1">
         <v>45531</v>
       </c>
       <c r="D23" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="E23" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -4466,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -4475,7 +4655,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="L23">
         <v>2.4700000000000002</v>
@@ -4487,10 +4667,10 @@
         <v>3.33</v>
       </c>
       <c r="O23" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="P23" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="Q23">
         <v>12</v>
@@ -4538,16 +4718,16 @@
         <v>25</v>
       </c>
       <c r="AF23" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="AG23" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AH23" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AI23" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AJ23">
         <v>1</v>
@@ -4556,7 +4736,7 @@
         <v>1</v>
       </c>
       <c r="AL23" t="s">
-        <v>181</v>
+        <v>218</v>
       </c>
       <c r="AM23">
         <v>0</v>
@@ -4580,22 +4760,18 @@
         <v>490</v>
       </c>
       <c r="AT23">
-        <f>AO23*AP23</f>
         <v>0</v>
       </c>
       <c r="AU23">
         <v>0</v>
       </c>
       <c r="AV23">
-        <f>AN23*AO23</f>
         <v>0</v>
       </c>
       <c r="AW23">
-        <f>AO23*AD23</f>
         <v>0</v>
       </c>
       <c r="AX23">
-        <f>AM23*AD23</f>
         <v>0</v>
       </c>
       <c r="AY23">
@@ -4607,16 +4783,16 @@
         <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C24" s="1">
         <v>45531</v>
       </c>
       <c r="D24" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="E24" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -4625,7 +4801,7 @@
         <v>2</v>
       </c>
       <c r="H24" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -4634,7 +4810,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="L24">
         <v>5.7</v>
@@ -4646,10 +4822,10 @@
         <v>1.64</v>
       </c>
       <c r="O24" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="P24" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="Q24">
         <v>8</v>
@@ -4697,16 +4873,16 @@
         <v>28</v>
       </c>
       <c r="AF24" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="AG24" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="AH24" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="AI24" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AJ24">
         <v>4</v>
@@ -4715,7 +4891,7 @@
         <v>0</v>
       </c>
       <c r="AL24" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="AM24">
         <v>151</v>
@@ -4739,22 +4915,18 @@
         <v>480</v>
       </c>
       <c r="AT24">
-        <f t="shared" ref="AT24:AT40" si="0">AO24*AP24</f>
         <v>1800</v>
       </c>
       <c r="AU24">
         <v>36</v>
       </c>
       <c r="AV24">
-        <f t="shared" ref="AV24:AV40" si="1">AN24*AO24</f>
         <v>135</v>
       </c>
       <c r="AW24">
-        <f t="shared" ref="AW24:AW40" si="2">AO24*AD24</f>
         <v>540</v>
       </c>
       <c r="AX24">
-        <f t="shared" ref="AX24:AX40" si="3">AM24*AD24</f>
         <v>1812</v>
       </c>
       <c r="AY24">
@@ -4766,16 +4938,16 @@
         <v>73</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C25" s="1">
         <v>45532</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="E25" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -4784,7 +4956,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -4793,7 +4965,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="L25">
         <v>1.63</v>
@@ -4805,10 +4977,10 @@
         <v>5.96</v>
       </c>
       <c r="O25" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="P25" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="Q25">
         <v>13</v>
@@ -4856,16 +5028,16 @@
         <v>23</v>
       </c>
       <c r="AF25" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="AG25" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AH25" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AI25" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AJ25">
         <v>4</v>
@@ -4874,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="AL25" t="s">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c r="AM25">
         <v>45</v>
@@ -4898,22 +5070,18 @@
         <v>320</v>
       </c>
       <c r="AT25">
-        <f t="shared" si="0"/>
         <v>960</v>
       </c>
       <c r="AU25">
         <v>8</v>
       </c>
       <c r="AV25">
-        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="AW25">
-        <f t="shared" si="2"/>
         <v>192</v>
       </c>
       <c r="AX25">
-        <f t="shared" si="3"/>
         <v>360</v>
       </c>
       <c r="AY25">
@@ -4925,16 +5093,16 @@
         <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C26" s="1">
         <v>45532</v>
       </c>
       <c r="D26" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="E26" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -4943,7 +5111,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -4952,7 +5120,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="L26">
         <v>2.34</v>
@@ -4964,10 +5132,10 @@
         <v>3.64</v>
       </c>
       <c r="O26" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="P26" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="Q26">
         <v>12</v>
@@ -5015,16 +5183,16 @@
         <v>32</v>
       </c>
       <c r="AF26" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="AG26" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AH26" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AI26" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AJ26">
         <v>6</v>
@@ -5033,7 +5201,7 @@
         <v>0</v>
       </c>
       <c r="AL26" t="s">
-        <v>184</v>
+        <v>221</v>
       </c>
       <c r="AM26">
         <v>0</v>
@@ -5057,22 +5225,18 @@
         <v>480</v>
       </c>
       <c r="AT26">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AU26">
         <v>0</v>
       </c>
       <c r="AV26">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AW26">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AX26">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AY26">
@@ -5084,16 +5248,16 @@
         <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C27" s="1">
         <v>45532</v>
       </c>
       <c r="D27" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="E27" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -5102,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -5111,7 +5275,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="L27">
         <v>1.29</v>
@@ -5123,10 +5287,10 @@
         <v>12.02</v>
       </c>
       <c r="O27" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="P27" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="Q27">
         <v>24</v>
@@ -5174,16 +5338,16 @@
         <v>15</v>
       </c>
       <c r="AF27" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="AG27" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AH27" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AI27" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AJ27">
         <v>2</v>
@@ -5192,7 +5356,7 @@
         <v>0</v>
       </c>
       <c r="AL27" t="s">
-        <v>185</v>
+        <v>222</v>
       </c>
       <c r="AM27">
         <v>0</v>
@@ -5216,22 +5380,18 @@
         <v>240</v>
       </c>
       <c r="AT27">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AU27">
         <v>0</v>
       </c>
       <c r="AV27">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AW27">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AX27">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AY27">
@@ -5243,16 +5403,16 @@
         <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C28" s="1">
         <v>45532</v>
       </c>
       <c r="D28" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="E28" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -5261,7 +5421,7 @@
         <v>2</v>
       </c>
       <c r="H28" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -5270,7 +5430,7 @@
         <v>1</v>
       </c>
       <c r="K28" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="L28">
         <v>1.71</v>
@@ -5282,10 +5442,10 @@
         <v>5.78</v>
       </c>
       <c r="O28" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="P28" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="Q28">
         <v>8</v>
@@ -5333,16 +5493,16 @@
         <v>28</v>
       </c>
       <c r="AF28" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="AG28" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="AH28" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="AI28" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AJ28">
         <v>8</v>
@@ -5351,7 +5511,7 @@
         <v>1</v>
       </c>
       <c r="AL28" t="s">
-        <v>186</v>
+        <v>223</v>
       </c>
       <c r="AM28">
         <v>154</v>
@@ -5375,22 +5535,18 @@
         <v>1470</v>
       </c>
       <c r="AT28">
-        <f t="shared" si="0"/>
         <v>4515</v>
       </c>
       <c r="AU28">
         <v>42</v>
       </c>
       <c r="AV28">
-        <f t="shared" si="1"/>
         <v>129</v>
       </c>
       <c r="AW28">
-        <f t="shared" si="2"/>
         <v>602</v>
       </c>
       <c r="AX28">
-        <f t="shared" si="3"/>
         <v>2156</v>
       </c>
       <c r="AY28">
@@ -5402,16 +5558,16 @@
         <v>77</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C29" s="1">
         <v>45533</v>
       </c>
       <c r="D29" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="E29" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="F29">
         <v>4</v>
@@ -5420,7 +5576,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -5429,7 +5585,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="L29">
         <v>1.76</v>
@@ -5441,10 +5597,10 @@
         <v>4.57</v>
       </c>
       <c r="O29" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="P29" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="Q29">
         <v>10</v>
@@ -5492,16 +5648,16 @@
         <v>19</v>
       </c>
       <c r="AF29" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="AG29" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="AH29" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="AI29" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="AJ29">
         <v>0</v>
@@ -5510,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="AL29" t="s">
-        <v>187</v>
+        <v>224</v>
       </c>
       <c r="AM29">
         <v>233</v>
@@ -5534,22 +5690,18 @@
         <v>0</v>
       </c>
       <c r="AT29">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AU29">
         <v>20</v>
       </c>
       <c r="AV29">
-        <f t="shared" si="1"/>
         <v>176</v>
       </c>
       <c r="AW29">
-        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="AX29">
-        <f t="shared" si="3"/>
         <v>1165</v>
       </c>
       <c r="AY29">
@@ -5561,16 +5713,16 @@
         <v>78</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C30" s="1">
         <v>45533</v>
       </c>
       <c r="D30" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="E30" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -5579,7 +5731,7 @@
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -5588,7 +5740,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="L30">
         <v>8.1</v>
@@ -5600,10 +5752,10 @@
         <v>1.38</v>
       </c>
       <c r="O30" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="P30" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="Q30">
         <v>7</v>
@@ -5651,16 +5803,16 @@
         <v>29</v>
       </c>
       <c r="AF30" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="AG30" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="AH30" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AI30" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AJ30">
         <v>2</v>
@@ -5669,7 +5821,7 @@
         <v>0</v>
       </c>
       <c r="AL30" t="s">
-        <v>188</v>
+        <v>225</v>
       </c>
       <c r="AM30">
         <v>74</v>
@@ -5693,22 +5845,18 @@
         <v>160</v>
       </c>
       <c r="AT30">
-        <f t="shared" si="0"/>
         <v>340</v>
       </c>
       <c r="AU30">
         <v>16</v>
       </c>
       <c r="AV30">
-        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="AW30">
-        <f t="shared" si="2"/>
         <v>136</v>
       </c>
       <c r="AX30">
-        <f t="shared" si="3"/>
         <v>592</v>
       </c>
       <c r="AY30">
@@ -5720,16 +5868,16 @@
         <v>79</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C31" s="1">
         <v>45535</v>
       </c>
       <c r="D31" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="E31" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="F31">
         <v>7</v>
@@ -5738,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="I31">
         <v>3</v>
@@ -5747,7 +5895,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="L31">
         <v>1.25</v>
@@ -5759,10 +5907,10 @@
         <v>11.82</v>
       </c>
       <c r="O31" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="P31" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="Q31">
         <v>23</v>
@@ -5810,16 +5958,16 @@
         <v>18</v>
       </c>
       <c r="AF31" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="AG31" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="AH31" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="AI31" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="AJ31">
         <v>3</v>
@@ -5828,7 +5976,7 @@
         <v>0</v>
       </c>
       <c r="AL31" t="s">
-        <v>189</v>
+        <v>226</v>
       </c>
       <c r="AM31">
         <v>392</v>
@@ -5852,22 +6000,18 @@
         <v>330</v>
       </c>
       <c r="AT31">
-        <f t="shared" si="0"/>
         <v>2760</v>
       </c>
       <c r="AU31">
         <v>77</v>
       </c>
       <c r="AV31">
-        <f t="shared" si="1"/>
         <v>644</v>
       </c>
       <c r="AW31">
-        <f t="shared" si="2"/>
         <v>1012</v>
       </c>
       <c r="AX31">
-        <f t="shared" si="3"/>
         <v>4312</v>
       </c>
       <c r="AY31">
@@ -5879,16 +6023,16 @@
         <v>80</v>
       </c>
       <c r="B32" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C32" s="1">
         <v>45535</v>
       </c>
       <c r="D32" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="E32" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -5897,7 +6041,7 @@
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -5906,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="L32">
         <v>3.05</v>
@@ -5918,10 +6062,10 @@
         <v>2.46</v>
       </c>
       <c r="O32" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="P32" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="Q32">
         <v>8</v>
@@ -5969,16 +6113,16 @@
         <v>22</v>
       </c>
       <c r="AF32" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="AG32" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AH32" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AI32" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AJ32">
         <v>4</v>
@@ -5987,7 +6131,7 @@
         <v>0</v>
       </c>
       <c r="AL32" t="s">
-        <v>190</v>
+        <v>227</v>
       </c>
       <c r="AM32">
         <v>90</v>
@@ -6011,22 +6155,18 @@
         <v>160</v>
       </c>
       <c r="AT32">
-        <f t="shared" si="0"/>
         <v>400</v>
       </c>
       <c r="AU32">
         <v>4</v>
       </c>
       <c r="AV32">
-        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="AW32">
-        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="AX32">
-        <f t="shared" si="3"/>
         <v>360</v>
       </c>
       <c r="AY32">
@@ -6038,16 +6178,16 @@
         <v>81</v>
       </c>
       <c r="B33" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C33" s="1">
         <v>45535</v>
       </c>
       <c r="D33" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="E33" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="F33">
         <v>2</v>
@@ -6056,7 +6196,7 @@
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="I33">
         <v>1</v>
@@ -6065,7 +6205,7 @@
         <v>1</v>
       </c>
       <c r="K33" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="L33">
         <v>2.8</v>
@@ -6077,10 +6217,10 @@
         <v>2.92</v>
       </c>
       <c r="O33" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="P33" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="Q33">
         <v>10</v>
@@ -6128,16 +6268,16 @@
         <v>30</v>
       </c>
       <c r="AF33" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="AG33" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="AH33" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="AI33" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AJ33">
         <v>5</v>
@@ -6146,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="AL33" t="s">
-        <v>191</v>
+        <v>228</v>
       </c>
       <c r="AM33">
         <v>102</v>
@@ -6170,22 +6310,18 @@
         <v>500</v>
       </c>
       <c r="AT33">
-        <f t="shared" si="0"/>
         <v>2450</v>
       </c>
       <c r="AU33">
         <v>30</v>
       </c>
       <c r="AV33">
-        <f t="shared" si="1"/>
         <v>147</v>
       </c>
       <c r="AW33">
-        <f t="shared" si="2"/>
         <v>490</v>
       </c>
       <c r="AX33">
-        <f t="shared" si="3"/>
         <v>1020</v>
       </c>
       <c r="AY33">
@@ -6197,16 +6333,16 @@
         <v>82</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C34" s="1">
         <v>45535</v>
       </c>
       <c r="D34" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="E34" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -6215,7 +6351,7 @@
         <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -6224,7 +6360,7 @@
         <v>1</v>
       </c>
       <c r="K34" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="L34">
         <v>2.6</v>
@@ -6236,10 +6372,10 @@
         <v>3.32</v>
       </c>
       <c r="O34" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="P34" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -6287,16 +6423,16 @@
         <v>28</v>
       </c>
       <c r="AF34" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="AG34" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AH34" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AI34" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AJ34">
         <v>4</v>
@@ -6305,7 +6441,7 @@
         <v>0</v>
       </c>
       <c r="AL34" t="s">
-        <v>192</v>
+        <v>229</v>
       </c>
       <c r="AM34">
         <v>43</v>
@@ -6329,22 +6465,18 @@
         <v>160</v>
       </c>
       <c r="AT34">
-        <f t="shared" si="0"/>
         <v>560</v>
       </c>
       <c r="AU34">
         <v>4</v>
       </c>
       <c r="AV34">
-        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="AW34">
-        <f t="shared" si="2"/>
         <v>56</v>
       </c>
       <c r="AX34">
-        <f t="shared" si="3"/>
         <v>172</v>
       </c>
       <c r="AY34">
@@ -6356,16 +6488,16 @@
         <v>83</v>
       </c>
       <c r="B35" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C35" s="1">
         <v>45535</v>
       </c>
       <c r="D35" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="E35" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -6374,7 +6506,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -6383,7 +6515,7 @@
         <v>1</v>
       </c>
       <c r="K35" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="L35">
         <v>2.81</v>
@@ -6395,10 +6527,10 @@
         <v>2.61</v>
       </c>
       <c r="O35" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="P35" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="Q35">
         <v>22</v>
@@ -6446,16 +6578,16 @@
         <v>26</v>
       </c>
       <c r="AF35" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="AG35" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="AH35" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AI35" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AJ35">
         <v>8</v>
@@ -6464,7 +6596,7 @@
         <v>1</v>
       </c>
       <c r="AL35" t="s">
-        <v>193</v>
+        <v>230</v>
       </c>
       <c r="AM35">
         <v>89</v>
@@ -6488,22 +6620,18 @@
         <v>1785</v>
       </c>
       <c r="AT35">
-        <f t="shared" si="0"/>
         <v>3255</v>
       </c>
       <c r="AU35">
         <v>34</v>
       </c>
       <c r="AV35">
-        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="AW35">
-        <f t="shared" si="2"/>
         <v>527</v>
       </c>
       <c r="AX35">
-        <f t="shared" si="3"/>
         <v>1513</v>
       </c>
       <c r="AY35">
@@ -6515,16 +6643,16 @@
         <v>84</v>
       </c>
       <c r="B36" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C36" s="1">
         <v>45536</v>
       </c>
       <c r="D36" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="E36" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="F36">
         <v>2</v>
@@ -6533,7 +6661,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -6542,7 +6670,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="L36">
         <v>1.94</v>
@@ -6554,10 +6682,10 @@
         <v>4.45</v>
       </c>
       <c r="O36" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="P36" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="Q36">
         <v>15</v>
@@ -6605,16 +6733,16 @@
         <v>22</v>
       </c>
       <c r="AF36" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="AG36" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="AH36" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AI36" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AJ36">
         <v>3</v>
@@ -6623,7 +6751,7 @@
         <v>0</v>
       </c>
       <c r="AL36" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="AM36">
         <v>85</v>
@@ -6647,22 +6775,18 @@
         <v>330</v>
       </c>
       <c r="AT36">
-        <f t="shared" si="0"/>
         <v>540</v>
       </c>
       <c r="AU36">
         <v>22</v>
       </c>
       <c r="AV36">
-        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="AW36">
-        <f t="shared" si="2"/>
         <v>198</v>
       </c>
       <c r="AX36">
-        <f t="shared" si="3"/>
         <v>935</v>
       </c>
       <c r="AY36">
@@ -6674,16 +6798,16 @@
         <v>85</v>
       </c>
       <c r="B37" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C37" s="1">
         <v>45536</v>
       </c>
       <c r="D37" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="E37" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="F37">
         <v>3</v>
@@ -6692,7 +6816,7 @@
         <v>2</v>
       </c>
       <c r="H37" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="I37">
         <v>2</v>
@@ -6701,7 +6825,7 @@
         <v>1</v>
       </c>
       <c r="K37" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="L37">
         <v>2.5099999999999998</v>
@@ -6713,10 +6837,10 @@
         <v>3</v>
       </c>
       <c r="O37" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="P37" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="Q37">
         <v>10</v>
@@ -6764,16 +6888,16 @@
         <v>29</v>
       </c>
       <c r="AF37" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="AG37" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="AH37" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="AI37" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="AJ37">
         <v>2</v>
@@ -6782,7 +6906,7 @@
         <v>1</v>
       </c>
       <c r="AL37" t="s">
-        <v>195</v>
+        <v>232</v>
       </c>
       <c r="AM37">
         <v>247</v>
@@ -6806,22 +6930,18 @@
         <v>405</v>
       </c>
       <c r="AT37">
-        <f t="shared" si="0"/>
         <v>4140</v>
       </c>
       <c r="AU37">
         <v>45</v>
       </c>
       <c r="AV37">
-        <f t="shared" si="1"/>
         <v>460</v>
       </c>
       <c r="AW37">
-        <f t="shared" si="2"/>
         <v>828</v>
       </c>
       <c r="AX37">
-        <f t="shared" si="3"/>
         <v>2223</v>
       </c>
       <c r="AY37">
@@ -6833,16 +6953,16 @@
         <v>86</v>
       </c>
       <c r="B38" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C38" s="1">
         <v>45536</v>
       </c>
       <c r="D38" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="E38" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -6851,7 +6971,7 @@
         <v>2</v>
       </c>
       <c r="H38" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -6860,7 +6980,7 @@
         <v>1</v>
       </c>
       <c r="K38" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="L38">
         <v>2.42</v>
@@ -6872,10 +6992,10 @@
         <v>2.8</v>
       </c>
       <c r="O38" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="P38" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="Q38">
         <v>16</v>
@@ -6923,16 +7043,16 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="AG38" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="AH38" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AI38" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AJ38">
         <v>5</v>
@@ -6941,7 +7061,7 @@
         <v>0</v>
       </c>
       <c r="AL38" t="s">
-        <v>196</v>
+        <v>233</v>
       </c>
       <c r="AM38">
         <v>114</v>
@@ -6965,22 +7085,18 @@
         <v>600</v>
       </c>
       <c r="AT38">
-        <f t="shared" si="0"/>
         <v>1600</v>
       </c>
       <c r="AU38">
         <v>24</v>
       </c>
       <c r="AV38">
-        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="AW38">
-        <f t="shared" si="2"/>
         <v>384</v>
       </c>
       <c r="AX38">
-        <f t="shared" si="3"/>
         <v>1368</v>
       </c>
       <c r="AY38">
@@ -6992,16 +7108,16 @@
         <v>87</v>
       </c>
       <c r="B39" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C39" s="1">
         <v>45536</v>
       </c>
       <c r="D39" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="E39" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -7010,7 +7126,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -7019,7 +7135,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="L39">
         <v>3.59</v>
@@ -7031,10 +7147,10 @@
         <v>2.46</v>
       </c>
       <c r="O39" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="P39" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="Q39">
         <v>16</v>
@@ -7082,16 +7198,16 @@
         <v>30</v>
       </c>
       <c r="AF39" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AG39" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AH39" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AI39" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AJ39">
         <v>2</v>
@@ -7100,7 +7216,7 @@
         <v>0</v>
       </c>
       <c r="AL39" t="s">
-        <v>197</v>
+        <v>234</v>
       </c>
       <c r="AM39">
         <v>0</v>
@@ -7124,22 +7240,18 @@
         <v>100</v>
       </c>
       <c r="AT39">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AU39">
         <v>0</v>
       </c>
       <c r="AV39">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AW39">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AX39">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AY39">
@@ -7151,16 +7263,16 @@
         <v>88</v>
       </c>
       <c r="B40" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C40" s="1">
         <v>45536</v>
       </c>
       <c r="D40" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="E40" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="F40">
         <v>2</v>
@@ -7169,7 +7281,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -7178,7 +7290,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="L40">
         <v>1.29</v>
@@ -7190,10 +7302,10 @@
         <v>9.9</v>
       </c>
       <c r="O40" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="P40" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="Q40">
         <v>20</v>
@@ -7241,16 +7353,16 @@
         <v>24</v>
       </c>
       <c r="AF40" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="AG40" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="AH40" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AI40" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AJ40">
         <v>2</v>
@@ -7259,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="AL40" t="s">
-        <v>198</v>
+        <v>235</v>
       </c>
       <c r="AM40">
         <v>142</v>
@@ -7283,26 +7395,3639 @@
         <v>200</v>
       </c>
       <c r="AT40">
+        <v>360</v>
+      </c>
+      <c r="AU40">
+        <v>20</v>
+      </c>
+      <c r="AV40">
+        <v>36</v>
+      </c>
+      <c r="AW40">
+        <v>180</v>
+      </c>
+      <c r="AX40">
+        <v>1420</v>
+      </c>
+      <c r="AY40">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="41" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" s="1">
+        <v>45548</v>
+      </c>
+      <c r="D41" t="s">
+        <v>114</v>
+      </c>
+      <c r="E41" t="s">
+        <v>128</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41" t="s">
+        <v>134</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41" t="s">
+        <v>133</v>
+      </c>
+      <c r="L41">
+        <v>1.63</v>
+      </c>
+      <c r="M41">
+        <v>3.76</v>
+      </c>
+      <c r="N41">
+        <v>6.37</v>
+      </c>
+      <c r="O41" t="s">
+        <v>139</v>
+      </c>
+      <c r="P41" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q41">
+        <v>14</v>
+      </c>
+      <c r="R41">
+        <v>5</v>
+      </c>
+      <c r="S41">
+        <v>3</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>1</v>
+      </c>
+      <c r="V41">
+        <v>2</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>11</v>
+      </c>
+      <c r="Z41">
+        <v>1</v>
+      </c>
+      <c r="AA41">
+        <v>11</v>
+      </c>
+      <c r="AB41">
+        <v>18</v>
+      </c>
+      <c r="AC41">
+        <v>2</v>
+      </c>
+      <c r="AD41">
+        <v>12</v>
+      </c>
+      <c r="AE41">
+        <v>29</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>196</v>
+      </c>
+      <c r="AJ41">
+        <v>3</v>
+      </c>
+      <c r="AK41">
+        <v>0</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>236</v>
+      </c>
+      <c r="AM41">
+        <v>160</v>
+      </c>
+      <c r="AN41">
+        <v>2</v>
+      </c>
+      <c r="AO41">
+        <v>18</v>
+      </c>
+      <c r="AP41">
+        <v>30</v>
+      </c>
+      <c r="AQ41">
+        <v>200</v>
+      </c>
+      <c r="AR41">
+        <v>60</v>
+      </c>
+      <c r="AS41">
+        <v>360</v>
+      </c>
+      <c r="AT41">
+        <v>540</v>
+      </c>
+      <c r="AU41">
+        <v>24</v>
+      </c>
+      <c r="AV41">
+        <v>36</v>
+      </c>
+      <c r="AW41">
+        <v>216</v>
+      </c>
+      <c r="AX41">
+        <v>1920</v>
+      </c>
+      <c r="AY41">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="42" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" s="1">
+        <v>45549</v>
+      </c>
+      <c r="D42" t="s">
+        <v>120</v>
+      </c>
+      <c r="E42" t="s">
+        <v>122</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+      <c r="H42" t="s">
+        <v>135</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42" t="s">
+        <v>135</v>
+      </c>
+      <c r="L42">
+        <v>2.5</v>
+      </c>
+      <c r="M42">
+        <v>3.21</v>
+      </c>
+      <c r="N42">
+        <v>3.07</v>
+      </c>
+      <c r="O42" t="s">
+        <v>137</v>
+      </c>
+      <c r="P42" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q42">
+        <v>10</v>
+      </c>
+      <c r="R42">
+        <v>5</v>
+      </c>
+      <c r="S42">
+        <v>21</v>
+      </c>
+      <c r="T42">
+        <v>4</v>
+      </c>
+      <c r="U42">
+        <v>3</v>
+      </c>
+      <c r="V42">
+        <v>3</v>
+      </c>
+      <c r="W42">
+        <v>1</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>7</v>
+      </c>
+      <c r="Z42">
+        <v>6</v>
+      </c>
+      <c r="AA42">
+        <v>11</v>
+      </c>
+      <c r="AB42">
+        <v>10</v>
+      </c>
+      <c r="AC42">
+        <v>3</v>
+      </c>
+      <c r="AD42">
+        <v>13</v>
+      </c>
+      <c r="AE42">
+        <v>21</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>196</v>
+      </c>
+      <c r="AJ42">
+        <v>6</v>
+      </c>
+      <c r="AK42">
+        <v>1</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>237</v>
+      </c>
+      <c r="AM42">
+        <v>174</v>
+      </c>
+      <c r="AN42">
+        <v>3</v>
+      </c>
+      <c r="AO42">
+        <v>47</v>
+      </c>
+      <c r="AP42">
+        <v>85</v>
+      </c>
+      <c r="AQ42">
+        <v>1650</v>
+      </c>
+      <c r="AR42">
+        <v>255</v>
+      </c>
+      <c r="AS42">
+        <v>1105</v>
+      </c>
+      <c r="AT42">
+        <v>3995</v>
+      </c>
+      <c r="AU42">
+        <v>39</v>
+      </c>
+      <c r="AV42">
+        <v>141</v>
+      </c>
+      <c r="AW42">
+        <v>611</v>
+      </c>
+      <c r="AX42">
+        <v>2262</v>
+      </c>
+      <c r="AY42">
+        <v>3315</v>
+      </c>
+    </row>
+    <row r="43" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" s="1">
+        <v>45549</v>
+      </c>
+      <c r="D43" t="s">
+        <v>125</v>
+      </c>
+      <c r="E43" t="s">
+        <v>129</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43" t="s">
+        <v>134</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43" t="s">
+        <v>133</v>
+      </c>
+      <c r="L43">
+        <v>2.75</v>
+      </c>
+      <c r="M43">
+        <v>3.04</v>
+      </c>
+      <c r="N43">
+        <v>2.91</v>
+      </c>
+      <c r="O43" t="s">
+        <v>138</v>
+      </c>
+      <c r="P43" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q43">
+        <v>9</v>
+      </c>
+      <c r="R43">
+        <v>4</v>
+      </c>
+      <c r="S43">
+        <v>19</v>
+      </c>
+      <c r="T43">
+        <v>6</v>
+      </c>
+      <c r="U43">
+        <v>2</v>
+      </c>
+      <c r="V43">
+        <v>3</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>5</v>
+      </c>
+      <c r="AA43">
+        <v>17</v>
+      </c>
+      <c r="AB43">
+        <v>14</v>
+      </c>
+      <c r="AC43">
+        <v>5</v>
+      </c>
+      <c r="AD43">
+        <v>5</v>
+      </c>
+      <c r="AE43">
+        <v>31</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ43">
+        <v>5</v>
+      </c>
+      <c r="AK43">
+        <v>0</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>238</v>
+      </c>
+      <c r="AM43">
+        <v>243</v>
+      </c>
+      <c r="AN43">
+        <v>5</v>
+      </c>
+      <c r="AO43">
+        <v>45</v>
+      </c>
+      <c r="AP43">
+        <v>50</v>
+      </c>
+      <c r="AQ43">
+        <v>600</v>
+      </c>
+      <c r="AR43">
+        <v>250</v>
+      </c>
+      <c r="AS43">
+        <v>250</v>
+      </c>
+      <c r="AT43">
+        <v>2250</v>
+      </c>
+      <c r="AU43">
+        <v>25</v>
+      </c>
+      <c r="AV43">
+        <v>225</v>
+      </c>
+      <c r="AW43">
+        <v>225</v>
+      </c>
+      <c r="AX43">
+        <v>1215</v>
+      </c>
+      <c r="AY43">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="44" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" s="1">
+        <v>45549</v>
+      </c>
+      <c r="D44" t="s">
+        <v>123</v>
+      </c>
+      <c r="E44" t="s">
+        <v>126</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44" t="s">
+        <v>134</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44" t="s">
+        <v>134</v>
+      </c>
+      <c r="L44">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="M44">
+        <v>3.1</v>
+      </c>
+      <c r="N44">
+        <v>3.72</v>
+      </c>
+      <c r="O44" t="s">
+        <v>136</v>
+      </c>
+      <c r="P44" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q44">
+        <v>10</v>
+      </c>
+      <c r="R44">
+        <v>4</v>
+      </c>
+      <c r="S44">
+        <v>15</v>
+      </c>
+      <c r="T44">
+        <v>4</v>
+      </c>
+      <c r="U44">
+        <v>3</v>
+      </c>
+      <c r="V44">
+        <v>4</v>
+      </c>
+      <c r="W44">
+        <v>1</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>3</v>
+      </c>
+      <c r="Z44">
+        <v>4</v>
+      </c>
+      <c r="AA44">
+        <v>19</v>
+      </c>
+      <c r="AB44">
+        <v>15</v>
+      </c>
+      <c r="AC44">
+        <v>1</v>
+      </c>
+      <c r="AD44">
+        <v>7</v>
+      </c>
+      <c r="AE44">
+        <v>34</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>196</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>196</v>
+      </c>
+      <c r="AJ44">
+        <v>7</v>
+      </c>
+      <c r="AK44">
+        <v>1</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>239</v>
+      </c>
+      <c r="AM44">
+        <v>23</v>
+      </c>
+      <c r="AN44">
+        <v>1</v>
+      </c>
+      <c r="AO44">
+        <v>16</v>
+      </c>
+      <c r="AP44">
+        <v>95</v>
+      </c>
+      <c r="AQ44">
+        <v>2200</v>
+      </c>
+      <c r="AR44">
+        <v>95</v>
+      </c>
+      <c r="AS44">
+        <v>665</v>
+      </c>
+      <c r="AT44">
+        <v>1520</v>
+      </c>
+      <c r="AU44">
+        <v>7</v>
+      </c>
+      <c r="AV44">
+        <v>16</v>
+      </c>
+      <c r="AW44">
+        <v>112</v>
+      </c>
+      <c r="AX44">
+        <v>161</v>
+      </c>
+      <c r="AY44">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="45" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" s="1">
+        <v>45549</v>
+      </c>
+      <c r="D45" t="s">
+        <v>119</v>
+      </c>
+      <c r="E45" t="s">
+        <v>127</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45" t="s">
+        <v>135</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45" t="s">
+        <v>133</v>
+      </c>
+      <c r="L45">
+        <v>5.32</v>
+      </c>
+      <c r="M45">
+        <v>3.82</v>
+      </c>
+      <c r="N45">
+        <v>1.69</v>
+      </c>
+      <c r="O45" t="s">
+        <v>139</v>
+      </c>
+      <c r="P45" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q45">
+        <v>11</v>
+      </c>
+      <c r="R45">
+        <v>2</v>
+      </c>
+      <c r="S45">
+        <v>16</v>
+      </c>
+      <c r="T45">
+        <v>7</v>
+      </c>
+      <c r="U45">
+        <v>4</v>
+      </c>
+      <c r="V45">
+        <v>1</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>6</v>
+      </c>
+      <c r="Z45">
+        <v>6</v>
+      </c>
+      <c r="AA45">
+        <v>12</v>
+      </c>
+      <c r="AB45">
+        <v>9</v>
+      </c>
+      <c r="AC45">
+        <v>2</v>
+      </c>
+      <c r="AD45">
+        <v>12</v>
+      </c>
+      <c r="AE45">
+        <v>21</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>171</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>196</v>
+      </c>
+      <c r="AJ45">
+        <v>5</v>
+      </c>
+      <c r="AK45">
+        <v>0</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>240</v>
+      </c>
+      <c r="AM45">
+        <v>133</v>
+      </c>
+      <c r="AN45">
+        <v>2</v>
+      </c>
+      <c r="AO45">
+        <v>16</v>
+      </c>
+      <c r="AP45">
+        <v>50</v>
+      </c>
+      <c r="AQ45">
+        <v>400</v>
+      </c>
+      <c r="AR45">
+        <v>100</v>
+      </c>
+      <c r="AS45">
+        <v>600</v>
+      </c>
+      <c r="AT45">
+        <v>800</v>
+      </c>
+      <c r="AU45">
+        <v>24</v>
+      </c>
+      <c r="AV45">
+        <v>32</v>
+      </c>
+      <c r="AW45">
+        <v>192</v>
+      </c>
+      <c r="AX45">
+        <v>1596</v>
+      </c>
+      <c r="AY45">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" s="1">
+        <v>45550</v>
+      </c>
+      <c r="D46" t="s">
+        <v>115</v>
+      </c>
+      <c r="E46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F46">
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46" t="s">
+        <v>134</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46" t="s">
+        <v>134</v>
+      </c>
+      <c r="L46">
+        <v>1.68</v>
+      </c>
+      <c r="M46">
+        <v>4.03</v>
+      </c>
+      <c r="N46">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="O46" t="s">
+        <v>144</v>
+      </c>
+      <c r="P46" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q46">
+        <v>14</v>
+      </c>
+      <c r="R46">
+        <v>7</v>
+      </c>
+      <c r="S46">
+        <v>6</v>
+      </c>
+      <c r="T46">
+        <v>1</v>
+      </c>
+      <c r="U46">
+        <v>3</v>
+      </c>
+      <c r="V46">
+        <v>5</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>1</v>
+      </c>
+      <c r="Y46">
+        <v>5</v>
+      </c>
+      <c r="Z46">
+        <v>3</v>
+      </c>
+      <c r="AA46">
+        <v>14</v>
+      </c>
+      <c r="AB46">
+        <v>15</v>
+      </c>
+      <c r="AC46">
+        <v>4</v>
+      </c>
+      <c r="AD46">
+        <v>8</v>
+      </c>
+      <c r="AE46">
+        <v>29</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ46">
+        <v>8</v>
+      </c>
+      <c r="AK46">
+        <v>1</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>241</v>
+      </c>
+      <c r="AM46">
+        <v>197</v>
+      </c>
+      <c r="AN46">
+        <v>4</v>
+      </c>
+      <c r="AO46">
+        <v>57</v>
+      </c>
+      <c r="AP46">
+        <v>105</v>
+      </c>
+      <c r="AQ46">
+        <v>2250</v>
+      </c>
+      <c r="AR46">
+        <v>420</v>
+      </c>
+      <c r="AS46">
+        <v>840</v>
+      </c>
+      <c r="AT46">
+        <v>5985</v>
+      </c>
+      <c r="AU46">
+        <v>32</v>
+      </c>
+      <c r="AV46">
+        <v>228</v>
+      </c>
+      <c r="AW46">
+        <v>456</v>
+      </c>
+      <c r="AX46">
+        <v>1576</v>
+      </c>
+      <c r="AY46">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="47" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" t="s">
+        <v>112</v>
+      </c>
+      <c r="C47" s="1">
+        <v>45550</v>
+      </c>
+      <c r="D47" t="s">
+        <v>132</v>
+      </c>
+      <c r="E47" t="s">
+        <v>124</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>4</v>
+      </c>
+      <c r="H47" t="s">
+        <v>135</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>2</v>
+      </c>
+      <c r="K47" t="s">
+        <v>135</v>
+      </c>
+      <c r="L47">
+        <v>4.2</v>
+      </c>
+      <c r="M47">
+        <v>3.93</v>
+      </c>
+      <c r="N47">
+        <v>1.83</v>
+      </c>
+      <c r="O47" t="s">
+        <v>145</v>
+      </c>
+      <c r="P47" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q47">
+        <v>9</v>
+      </c>
+      <c r="R47">
+        <v>4</v>
+      </c>
+      <c r="S47">
+        <v>20</v>
+      </c>
+      <c r="T47">
+        <v>9</v>
+      </c>
+      <c r="U47">
+        <v>3</v>
+      </c>
+      <c r="V47">
+        <v>2</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>1</v>
+      </c>
+      <c r="Y47">
+        <v>1</v>
+      </c>
+      <c r="Z47">
+        <v>6</v>
+      </c>
+      <c r="AA47">
+        <v>13</v>
+      </c>
+      <c r="AB47">
+        <v>4</v>
+      </c>
+      <c r="AC47">
+        <v>5</v>
+      </c>
+      <c r="AD47">
+        <v>7</v>
+      </c>
+      <c r="AE47">
+        <v>17</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ47">
+        <v>5</v>
+      </c>
+      <c r="AK47">
+        <v>1</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>242</v>
+      </c>
+      <c r="AM47">
+        <v>258</v>
+      </c>
+      <c r="AN47">
+        <v>5</v>
+      </c>
+      <c r="AO47">
+        <v>73</v>
+      </c>
+      <c r="AP47">
+        <v>75</v>
+      </c>
+      <c r="AQ47">
+        <v>1350</v>
+      </c>
+      <c r="AR47">
+        <v>375</v>
+      </c>
+      <c r="AS47">
+        <v>525</v>
+      </c>
+      <c r="AT47">
+        <v>5475</v>
+      </c>
+      <c r="AU47">
+        <v>35</v>
+      </c>
+      <c r="AV47">
+        <v>365</v>
+      </c>
+      <c r="AW47">
+        <v>511</v>
+      </c>
+      <c r="AX47">
+        <v>1806</v>
+      </c>
+      <c r="AY47">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="48" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" t="s">
+        <v>112</v>
+      </c>
+      <c r="C48" s="1">
+        <v>45550</v>
+      </c>
+      <c r="D48" t="s">
+        <v>116</v>
+      </c>
+      <c r="E48" t="s">
+        <v>113</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <v>3</v>
+      </c>
+      <c r="H48" t="s">
+        <v>135</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>2</v>
+      </c>
+      <c r="K48" t="s">
+        <v>135</v>
+      </c>
+      <c r="L48">
+        <v>3.9</v>
+      </c>
+      <c r="M48">
+        <v>3.39</v>
+      </c>
+      <c r="N48">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="O48" t="s">
+        <v>145</v>
+      </c>
+      <c r="P48" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q48">
+        <v>15</v>
+      </c>
+      <c r="R48">
+        <v>6</v>
+      </c>
+      <c r="S48">
+        <v>9</v>
+      </c>
+      <c r="T48">
+        <v>4</v>
+      </c>
+      <c r="U48">
+        <v>1</v>
+      </c>
+      <c r="V48">
+        <v>2</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>1</v>
+      </c>
+      <c r="Y48">
+        <v>9</v>
+      </c>
+      <c r="Z48">
+        <v>3</v>
+      </c>
+      <c r="AA48">
+        <v>8</v>
+      </c>
+      <c r="AB48">
+        <v>12</v>
+      </c>
+      <c r="AC48">
+        <v>5</v>
+      </c>
+      <c r="AD48">
+        <v>12</v>
+      </c>
+      <c r="AE48">
+        <v>20</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>173</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ48">
+        <v>3</v>
+      </c>
+      <c r="AK48">
+        <v>1</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>243</v>
+      </c>
+      <c r="AM48">
+        <v>254</v>
+      </c>
+      <c r="AN48">
+        <v>5</v>
+      </c>
+      <c r="AO48">
+        <v>64</v>
+      </c>
+      <c r="AP48">
+        <v>55</v>
+      </c>
+      <c r="AQ48">
+        <v>450</v>
+      </c>
+      <c r="AR48">
+        <v>275</v>
+      </c>
+      <c r="AS48">
+        <v>660</v>
+      </c>
+      <c r="AT48">
+        <v>3520</v>
+      </c>
+      <c r="AU48">
+        <v>60</v>
+      </c>
+      <c r="AV48">
+        <v>320</v>
+      </c>
+      <c r="AW48">
+        <v>768</v>
+      </c>
+      <c r="AX48">
+        <v>3048</v>
+      </c>
+      <c r="AY48">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="49" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" s="1">
+        <v>45550</v>
+      </c>
+      <c r="D49" t="s">
+        <v>130</v>
+      </c>
+      <c r="E49" t="s">
+        <v>118</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49" t="s">
+        <v>134</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49" t="s">
+        <v>134</v>
+      </c>
+      <c r="L49">
+        <v>1.34</v>
+      </c>
+      <c r="M49">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="N49">
+        <v>9.9</v>
+      </c>
+      <c r="O49" t="s">
+        <v>136</v>
+      </c>
+      <c r="P49" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q49">
+        <v>14</v>
+      </c>
+      <c r="R49">
+        <v>5</v>
+      </c>
+      <c r="S49">
+        <v>5</v>
+      </c>
+      <c r="T49">
+        <v>1</v>
+      </c>
+      <c r="U49">
+        <v>1</v>
+      </c>
+      <c r="V49">
+        <v>2</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>7</v>
+      </c>
+      <c r="Z49">
+        <v>3</v>
+      </c>
+      <c r="AA49">
+        <v>10</v>
+      </c>
+      <c r="AB49">
+        <v>8</v>
+      </c>
+      <c r="AC49">
+        <v>3</v>
+      </c>
+      <c r="AD49">
+        <v>10</v>
+      </c>
+      <c r="AE49">
+        <v>18</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>196</v>
+      </c>
+      <c r="AJ49">
+        <v>3</v>
+      </c>
+      <c r="AK49">
+        <v>0</v>
+      </c>
+      <c r="AL49" t="s">
+        <v>244</v>
+      </c>
+      <c r="AM49">
+        <v>183</v>
+      </c>
+      <c r="AN49">
+        <v>3</v>
+      </c>
+      <c r="AO49">
+        <v>30</v>
+      </c>
+      <c r="AP49">
+        <v>30</v>
+      </c>
+      <c r="AQ49">
+        <v>200</v>
+      </c>
+      <c r="AR49">
+        <v>90</v>
+      </c>
+      <c r="AS49">
+        <v>300</v>
+      </c>
+      <c r="AT49">
+        <v>900</v>
+      </c>
+      <c r="AU49">
+        <v>30</v>
+      </c>
+      <c r="AV49">
+        <v>90</v>
+      </c>
+      <c r="AW49">
+        <v>300</v>
+      </c>
+      <c r="AX49">
+        <v>1830</v>
+      </c>
+      <c r="AY49">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="50" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" s="1">
+        <v>45551</v>
+      </c>
+      <c r="D50" t="s">
+        <v>131</v>
+      </c>
+      <c r="E50" t="s">
+        <v>117</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50" t="s">
+        <v>134</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50" t="s">
+        <v>135</v>
+      </c>
+      <c r="L50">
+        <v>2.08</v>
+      </c>
+      <c r="M50">
+        <v>3.18</v>
+      </c>
+      <c r="N50">
+        <v>4.13</v>
+      </c>
+      <c r="O50" t="s">
+        <v>137</v>
+      </c>
+      <c r="P50" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q50">
+        <v>17</v>
+      </c>
+      <c r="R50">
+        <v>6</v>
+      </c>
+      <c r="S50">
+        <v>5</v>
+      </c>
+      <c r="T50">
+        <v>2</v>
+      </c>
+      <c r="U50">
+        <v>3</v>
+      </c>
+      <c r="V50">
+        <v>2</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>7</v>
+      </c>
+      <c r="Z50">
+        <v>4</v>
+      </c>
+      <c r="AA50">
+        <v>12</v>
+      </c>
+      <c r="AB50">
+        <v>15</v>
+      </c>
+      <c r="AC50">
+        <v>4</v>
+      </c>
+      <c r="AD50">
+        <v>11</v>
+      </c>
+      <c r="AE50">
+        <v>27</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>166</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ50">
+        <v>5</v>
+      </c>
+      <c r="AK50">
+        <v>0</v>
+      </c>
+      <c r="AL50" t="s">
+        <v>245</v>
+      </c>
+      <c r="AM50">
+        <v>206</v>
+      </c>
+      <c r="AN50">
+        <v>4</v>
+      </c>
+      <c r="AO50">
+        <v>44</v>
+      </c>
+      <c r="AP50">
+        <v>50</v>
+      </c>
+      <c r="AQ50">
+        <v>600</v>
+      </c>
+      <c r="AR50">
+        <v>200</v>
+      </c>
+      <c r="AS50">
+        <v>550</v>
+      </c>
+      <c r="AT50">
+        <v>2200</v>
+      </c>
+      <c r="AU50">
+        <v>44</v>
+      </c>
+      <c r="AV50">
+        <v>176</v>
+      </c>
+      <c r="AW50">
+        <v>484</v>
+      </c>
+      <c r="AX50">
+        <v>2266</v>
+      </c>
+      <c r="AY50">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D51" t="s">
+        <v>120</v>
+      </c>
+      <c r="E51" t="s">
+        <v>119</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51" t="s">
+        <v>134</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51" t="s">
+        <v>134</v>
+      </c>
+      <c r="L51">
+        <v>2.94</v>
+      </c>
+      <c r="M51">
+        <v>2.81</v>
+      </c>
+      <c r="N51">
+        <v>3.02</v>
+      </c>
+      <c r="O51" t="s">
+        <v>136</v>
+      </c>
+      <c r="P51" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q51">
+        <v>10</v>
+      </c>
+      <c r="R51">
+        <v>4</v>
+      </c>
+      <c r="S51">
+        <v>13</v>
+      </c>
+      <c r="T51">
+        <v>4</v>
+      </c>
+      <c r="U51">
+        <v>1</v>
+      </c>
+      <c r="V51">
+        <v>1</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <v>5</v>
+      </c>
+      <c r="Z51">
+        <v>5</v>
+      </c>
+      <c r="AA51">
+        <v>5</v>
+      </c>
+      <c r="AB51">
+        <v>10</v>
+      </c>
+      <c r="AC51">
+        <v>1</v>
+      </c>
+      <c r="AD51">
+        <v>10</v>
+      </c>
+      <c r="AE51">
+        <v>15</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>196</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>196</v>
+      </c>
+      <c r="AJ51">
+        <v>2</v>
+      </c>
+      <c r="AK51">
+        <v>0</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>246</v>
+      </c>
+      <c r="AM51">
+        <v>36</v>
+      </c>
+      <c r="AN51">
+        <v>1</v>
+      </c>
+      <c r="AO51">
+        <v>9</v>
+      </c>
+      <c r="AP51">
+        <v>20</v>
+      </c>
+      <c r="AQ51">
+        <v>100</v>
+      </c>
+      <c r="AR51">
+        <v>20</v>
+      </c>
+      <c r="AS51">
+        <v>200</v>
+      </c>
+      <c r="AT51">
+        <f>AO51*AP51</f>
+        <v>180</v>
+      </c>
+      <c r="AU51">
+        <v>10</v>
+      </c>
+      <c r="AV51">
+        <f>AN51*AO51</f>
+        <v>9</v>
+      </c>
+      <c r="AW51">
+        <f>AO51*AD51</f>
+        <v>90</v>
+      </c>
+      <c r="AX51">
+        <f>AM51*AD51</f>
+        <v>360</v>
+      </c>
+      <c r="AY51">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" s="1">
+        <v>45553</v>
+      </c>
+      <c r="D52" t="s">
+        <v>114</v>
+      </c>
+      <c r="E52" t="s">
+        <v>126</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52" t="s">
+        <v>134</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52" t="s">
+        <v>133</v>
+      </c>
+      <c r="L52">
+        <v>1.96</v>
+      </c>
+      <c r="M52">
+        <v>3.15</v>
+      </c>
+      <c r="N52">
+        <v>4.84</v>
+      </c>
+      <c r="O52" t="s">
+        <v>139</v>
+      </c>
+      <c r="P52" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q52">
+        <v>18</v>
+      </c>
+      <c r="R52">
+        <v>8</v>
+      </c>
+      <c r="S52">
+        <v>15</v>
+      </c>
+      <c r="T52">
+        <v>5</v>
+      </c>
+      <c r="U52">
+        <v>3</v>
+      </c>
+      <c r="V52">
+        <v>5</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <v>8</v>
+      </c>
+      <c r="Z52">
+        <v>4</v>
+      </c>
+      <c r="AA52">
+        <v>10</v>
+      </c>
+      <c r="AB52">
+        <v>20</v>
+      </c>
+      <c r="AC52">
+        <v>3</v>
+      </c>
+      <c r="AD52">
+        <v>12</v>
+      </c>
+      <c r="AE52">
+        <v>30</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>188</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>196</v>
+      </c>
+      <c r="AJ52">
+        <v>8</v>
+      </c>
+      <c r="AK52">
+        <v>0</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>247</v>
+      </c>
+      <c r="AM52">
+        <v>225</v>
+      </c>
+      <c r="AN52">
+        <v>3</v>
+      </c>
+      <c r="AO52">
+        <v>48</v>
+      </c>
+      <c r="AP52">
+        <v>80</v>
+      </c>
+      <c r="AQ52">
+        <v>1500</v>
+      </c>
+      <c r="AR52">
+        <v>240</v>
+      </c>
+      <c r="AS52">
+        <v>960</v>
+      </c>
+      <c r="AT52">
+        <f t="shared" ref="AT52:AT63" si="0">AO52*AP52</f>
+        <v>3840</v>
+      </c>
+      <c r="AU52">
+        <v>36</v>
+      </c>
+      <c r="AV52">
+        <f t="shared" ref="AV52:AV63" si="1">AN52*AO52</f>
+        <v>144</v>
+      </c>
+      <c r="AW52">
+        <f t="shared" ref="AW52:AW63" si="2">AO52*AD52</f>
+        <v>576</v>
+      </c>
+      <c r="AX52">
+        <f t="shared" ref="AX52:AX63" si="3">AM52*AD52</f>
+        <v>2700</v>
+      </c>
+      <c r="AY52">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="53" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="1">
+        <v>45554</v>
+      </c>
+      <c r="D53" t="s">
+        <v>128</v>
+      </c>
+      <c r="E53" t="s">
+        <v>113</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53" t="s">
+        <v>135</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53" t="s">
+        <v>133</v>
+      </c>
+      <c r="L53">
+        <v>4.26</v>
+      </c>
+      <c r="M53">
+        <v>3.16</v>
+      </c>
+      <c r="N53">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="O53" t="s">
+        <v>139</v>
+      </c>
+      <c r="P53" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q53">
+        <v>14</v>
+      </c>
+      <c r="R53">
+        <v>3</v>
+      </c>
+      <c r="S53">
+        <v>10</v>
+      </c>
+      <c r="T53">
+        <v>4</v>
+      </c>
+      <c r="U53">
+        <v>3</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <v>4</v>
+      </c>
+      <c r="Z53">
+        <v>7</v>
+      </c>
+      <c r="AA53">
+        <v>12</v>
+      </c>
+      <c r="AB53">
+        <v>11</v>
+      </c>
+      <c r="AC53">
+        <v>2</v>
+      </c>
+      <c r="AD53">
+        <v>11</v>
+      </c>
+      <c r="AE53">
+        <v>23</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>163</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>196</v>
+      </c>
+      <c r="AJ53">
+        <v>3</v>
+      </c>
+      <c r="AK53">
+        <v>0</v>
+      </c>
+      <c r="AL53" t="s">
+        <v>248</v>
+      </c>
+      <c r="AM53">
+        <v>140</v>
+      </c>
+      <c r="AN53">
+        <v>2</v>
+      </c>
+      <c r="AO53">
+        <v>12</v>
+      </c>
+      <c r="AP53">
+        <v>30</v>
+      </c>
+      <c r="AQ53">
+        <v>0</v>
+      </c>
+      <c r="AR53">
+        <v>60</v>
+      </c>
+      <c r="AS53">
+        <v>330</v>
+      </c>
+      <c r="AT53">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="AU40">
-        <v>20</v>
-      </c>
-      <c r="AV40">
+      <c r="AU53">
+        <v>22</v>
+      </c>
+      <c r="AV53">
         <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AW53">
+        <f t="shared" si="2"/>
+        <v>132</v>
+      </c>
+      <c r="AX53">
+        <f t="shared" si="3"/>
+        <v>1540</v>
+      </c>
+      <c r="AY53">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="54" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" s="1">
+        <v>45555</v>
+      </c>
+      <c r="D54" t="s">
+        <v>129</v>
+      </c>
+      <c r="E54" t="s">
+        <v>123</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54" t="s">
+        <v>134</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54" t="s">
+        <v>134</v>
+      </c>
+      <c r="L54">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M54">
+        <v>3.3</v>
+      </c>
+      <c r="N54">
+        <v>3.7</v>
+      </c>
+      <c r="O54" t="s">
+        <v>136</v>
+      </c>
+      <c r="P54" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q54">
+        <v>10</v>
+      </c>
+      <c r="R54">
+        <v>4</v>
+      </c>
+      <c r="S54">
+        <v>8</v>
+      </c>
+      <c r="T54">
+        <v>2</v>
+      </c>
+      <c r="U54">
+        <v>1</v>
+      </c>
+      <c r="V54">
+        <v>4</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>3</v>
+      </c>
+      <c r="Z54">
+        <v>5</v>
+      </c>
+      <c r="AA54">
+        <v>11</v>
+      </c>
+      <c r="AB54">
+        <v>16</v>
+      </c>
+      <c r="AC54">
+        <v>3</v>
+      </c>
+      <c r="AD54">
+        <v>8</v>
+      </c>
+      <c r="AE54">
+        <v>27</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>196</v>
+      </c>
+      <c r="AJ54">
+        <v>5</v>
+      </c>
+      <c r="AK54">
+        <v>0</v>
+      </c>
+      <c r="AL54" t="s">
+        <v>249</v>
+      </c>
+      <c r="AM54">
+        <v>160</v>
+      </c>
+      <c r="AN54">
+        <v>3</v>
+      </c>
+      <c r="AO54">
+        <v>33</v>
+      </c>
+      <c r="AP54">
+        <v>50</v>
+      </c>
+      <c r="AQ54">
+        <v>400</v>
+      </c>
+      <c r="AR54">
+        <v>150</v>
+      </c>
+      <c r="AS54">
+        <v>400</v>
+      </c>
+      <c r="AT54">
+        <f t="shared" si="0"/>
+        <v>1650</v>
+      </c>
+      <c r="AU54">
+        <v>24</v>
+      </c>
+      <c r="AV54">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="AW54">
+        <f t="shared" si="2"/>
+        <v>264</v>
+      </c>
+      <c r="AX54">
+        <f t="shared" si="3"/>
+        <v>1280</v>
+      </c>
+      <c r="AY54">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>103</v>
+      </c>
+      <c r="B55" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" s="1">
+        <v>45556</v>
+      </c>
+      <c r="D55" t="s">
+        <v>121</v>
+      </c>
+      <c r="E55" t="s">
+        <v>119</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55" t="s">
+        <v>133</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55" t="s">
+        <v>133</v>
+      </c>
+      <c r="L55">
+        <v>3.87</v>
+      </c>
+      <c r="M55">
+        <v>3.03</v>
+      </c>
+      <c r="N55">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="O55" t="s">
+        <v>139</v>
+      </c>
+      <c r="P55" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q55">
+        <v>15</v>
+      </c>
+      <c r="R55">
+        <v>2</v>
+      </c>
+      <c r="S55">
+        <v>14</v>
+      </c>
+      <c r="T55">
+        <v>4</v>
+      </c>
+      <c r="U55">
+        <v>4</v>
+      </c>
+      <c r="V55">
+        <v>4</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <v>5</v>
+      </c>
+      <c r="Z55">
+        <v>7</v>
+      </c>
+      <c r="AA55">
+        <v>15</v>
+      </c>
+      <c r="AB55">
+        <v>12</v>
+      </c>
+      <c r="AC55">
+        <v>0</v>
+      </c>
+      <c r="AD55">
+        <v>12</v>
+      </c>
+      <c r="AE55">
+        <v>27</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>190</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>196</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI55" t="s">
+        <v>196</v>
+      </c>
+      <c r="AJ55">
+        <v>8</v>
+      </c>
+      <c r="AK55">
+        <v>0</v>
+      </c>
+      <c r="AL55" t="s">
+        <v>250</v>
+      </c>
+      <c r="AM55">
+        <v>0</v>
+      </c>
+      <c r="AN55">
+        <v>0</v>
+      </c>
+      <c r="AO55">
+        <v>0</v>
+      </c>
+      <c r="AP55">
+        <v>80</v>
+      </c>
+      <c r="AQ55">
+        <v>1600</v>
+      </c>
+      <c r="AR55">
+        <v>0</v>
+      </c>
+      <c r="AS55">
+        <v>960</v>
+      </c>
+      <c r="AT55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU55">
+        <v>0</v>
+      </c>
+      <c r="AV55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AW55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AX55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AY55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>104</v>
+      </c>
+      <c r="B56" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" s="1">
+        <v>45556</v>
+      </c>
+      <c r="D56" t="s">
+        <v>117</v>
+      </c>
+      <c r="E56" t="s">
+        <v>116</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56" t="s">
+        <v>134</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56" t="s">
+        <v>133</v>
+      </c>
+      <c r="L56">
+        <v>1.92</v>
+      </c>
+      <c r="M56">
+        <v>3.43</v>
+      </c>
+      <c r="N56">
+        <v>4.51</v>
+      </c>
+      <c r="O56" t="s">
+        <v>138</v>
+      </c>
+      <c r="P56" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q56">
+        <v>13</v>
+      </c>
+      <c r="R56">
+        <v>2</v>
+      </c>
+      <c r="S56">
+        <v>11</v>
+      </c>
+      <c r="T56">
+        <v>4</v>
+      </c>
+      <c r="U56">
+        <v>2</v>
+      </c>
+      <c r="V56">
+        <v>5</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <v>2</v>
+      </c>
+      <c r="Z56">
+        <v>4</v>
+      </c>
+      <c r="AA56">
+        <v>14</v>
+      </c>
+      <c r="AB56">
+        <v>11</v>
+      </c>
+      <c r="AC56">
+        <v>3</v>
+      </c>
+      <c r="AD56">
+        <v>6</v>
+      </c>
+      <c r="AE56">
+        <v>25</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI56" t="s">
+        <v>196</v>
+      </c>
+      <c r="AJ56">
+        <v>7</v>
+      </c>
+      <c r="AK56">
+        <v>0</v>
+      </c>
+      <c r="AL56" t="s">
+        <v>251</v>
+      </c>
+      <c r="AM56">
+        <v>140</v>
+      </c>
+      <c r="AN56">
+        <v>3</v>
+      </c>
+      <c r="AO56">
+        <v>37</v>
+      </c>
+      <c r="AP56">
+        <v>70</v>
+      </c>
+      <c r="AQ56">
+        <v>1000</v>
+      </c>
+      <c r="AR56">
+        <v>210</v>
+      </c>
+      <c r="AS56">
+        <v>420</v>
+      </c>
+      <c r="AT56">
+        <f t="shared" si="0"/>
+        <v>2590</v>
+      </c>
+      <c r="AU56">
+        <v>18</v>
+      </c>
+      <c r="AV56">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="AW56">
+        <f t="shared" si="2"/>
+        <v>222</v>
+      </c>
+      <c r="AX56">
+        <f t="shared" si="3"/>
+        <v>840</v>
+      </c>
+      <c r="AY56">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="57" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>105</v>
+      </c>
+      <c r="B57" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57" s="1">
+        <v>45556</v>
+      </c>
+      <c r="D57" t="s">
+        <v>118</v>
+      </c>
+      <c r="E57" t="s">
+        <v>132</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57" t="s">
+        <v>134</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57" t="s">
+        <v>133</v>
+      </c>
+      <c r="L57">
+        <v>2.96</v>
+      </c>
+      <c r="M57">
+        <v>3.33</v>
+      </c>
+      <c r="N57">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="O57" t="s">
+        <v>139</v>
+      </c>
+      <c r="P57" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q57">
+        <v>7</v>
+      </c>
+      <c r="R57">
+        <v>2</v>
+      </c>
+      <c r="S57">
+        <v>8</v>
+      </c>
+      <c r="T57">
+        <v>3</v>
+      </c>
+      <c r="U57">
+        <v>3</v>
+      </c>
+      <c r="V57">
+        <v>2</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
+      </c>
+      <c r="Y57">
+        <v>5</v>
+      </c>
+      <c r="Z57">
+        <v>4</v>
+      </c>
+      <c r="AA57">
+        <v>13</v>
+      </c>
+      <c r="AB57">
+        <v>10</v>
+      </c>
+      <c r="AC57">
+        <v>2</v>
+      </c>
+      <c r="AD57">
+        <v>9</v>
+      </c>
+      <c r="AE57">
+        <v>23</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>165</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI57" t="s">
+        <v>196</v>
+      </c>
+      <c r="AJ57">
+        <v>5</v>
+      </c>
+      <c r="AK57">
+        <v>0</v>
+      </c>
+      <c r="AL57" t="s">
+        <v>252</v>
+      </c>
+      <c r="AM57">
+        <v>114</v>
+      </c>
+      <c r="AN57">
+        <v>2</v>
+      </c>
+      <c r="AO57">
+        <v>32</v>
+      </c>
+      <c r="AP57">
+        <v>50</v>
+      </c>
+      <c r="AQ57">
+        <v>600</v>
+      </c>
+      <c r="AR57">
+        <v>100</v>
+      </c>
+      <c r="AS57">
+        <v>450</v>
+      </c>
+      <c r="AT57">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+      <c r="AU57">
+        <v>18</v>
+      </c>
+      <c r="AV57">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="AW57">
+        <f t="shared" si="2"/>
+        <v>288</v>
+      </c>
+      <c r="AX57">
+        <f t="shared" si="3"/>
+        <v>1026</v>
+      </c>
+      <c r="AY57">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="58" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>106</v>
+      </c>
+      <c r="B58" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58" s="1">
+        <v>45556</v>
+      </c>
+      <c r="D58" t="s">
+        <v>127</v>
+      </c>
+      <c r="E58" t="s">
+        <v>125</v>
+      </c>
+      <c r="F58">
+        <v>4</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58" t="s">
+        <v>134</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58" t="s">
+        <v>133</v>
+      </c>
+      <c r="L58">
+        <v>1.17</v>
+      </c>
+      <c r="M58">
+        <v>8.33</v>
+      </c>
+      <c r="N58">
+        <v>15.46</v>
+      </c>
+      <c r="O58" t="s">
+        <v>139</v>
+      </c>
+      <c r="P58" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q58">
+        <v>31</v>
+      </c>
+      <c r="R58">
+        <v>14</v>
+      </c>
+      <c r="S58">
+        <v>10</v>
+      </c>
+      <c r="T58">
+        <v>2</v>
+      </c>
+      <c r="U58">
+        <v>4</v>
+      </c>
+      <c r="V58">
+        <v>3</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
+      </c>
+      <c r="Y58">
+        <v>9</v>
+      </c>
+      <c r="Z58">
+        <v>4</v>
+      </c>
+      <c r="AA58">
+        <v>7</v>
+      </c>
+      <c r="AB58">
+        <v>5</v>
+      </c>
+      <c r="AC58">
+        <v>5</v>
+      </c>
+      <c r="AD58">
+        <v>13</v>
+      </c>
+      <c r="AE58">
+        <v>12</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>192</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI58" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ58">
+        <v>7</v>
+      </c>
+      <c r="AK58">
+        <v>0</v>
+      </c>
+      <c r="AL58" t="s">
+        <v>253</v>
+      </c>
+      <c r="AM58">
+        <v>355</v>
+      </c>
+      <c r="AN58">
+        <v>5</v>
+      </c>
+      <c r="AO58">
+        <v>30</v>
+      </c>
+      <c r="AP58">
+        <v>70</v>
+      </c>
+      <c r="AQ58">
+        <v>1200</v>
+      </c>
+      <c r="AR58">
+        <v>350</v>
+      </c>
+      <c r="AS58">
+        <v>910</v>
+      </c>
+      <c r="AT58">
+        <f t="shared" si="0"/>
+        <v>2100</v>
+      </c>
+      <c r="AU58">
+        <v>65</v>
+      </c>
+      <c r="AV58">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="AW58">
+        <f t="shared" si="2"/>
+        <v>390</v>
+      </c>
+      <c r="AX58">
+        <f t="shared" si="3"/>
+        <v>4615</v>
+      </c>
+      <c r="AY58">
+        <v>4550</v>
+      </c>
+    </row>
+    <row r="59" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>107</v>
+      </c>
+      <c r="B59" t="s">
+        <v>112</v>
+      </c>
+      <c r="C59" s="1">
+        <v>45557</v>
+      </c>
+      <c r="D59" t="s">
+        <v>126</v>
+      </c>
+      <c r="E59" t="s">
+        <v>128</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59" t="s">
+        <v>133</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59" t="s">
+        <v>133</v>
+      </c>
+      <c r="L59">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="M59">
+        <v>2.81</v>
+      </c>
+      <c r="N59">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="O59" t="s">
+        <v>139</v>
+      </c>
+      <c r="P59" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q59">
+        <v>12</v>
+      </c>
+      <c r="R59">
+        <v>3</v>
+      </c>
+      <c r="S59">
+        <v>6</v>
+      </c>
+      <c r="T59">
+        <v>3</v>
+      </c>
+      <c r="U59">
+        <v>3</v>
+      </c>
+      <c r="V59">
+        <v>2</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>0</v>
+      </c>
+      <c r="Y59">
+        <v>6</v>
+      </c>
+      <c r="Z59">
+        <v>2</v>
+      </c>
+      <c r="AA59">
+        <v>16</v>
+      </c>
+      <c r="AB59">
+        <v>17</v>
+      </c>
+      <c r="AC59">
+        <v>2</v>
+      </c>
+      <c r="AD59">
+        <v>8</v>
+      </c>
+      <c r="AE59">
+        <v>33</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>193</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI59" t="s">
+        <v>196</v>
+      </c>
+      <c r="AJ59">
+        <v>5</v>
+      </c>
+      <c r="AK59">
+        <v>0</v>
+      </c>
+      <c r="AL59" t="s">
+        <v>254</v>
+      </c>
+      <c r="AM59">
+        <v>158</v>
+      </c>
+      <c r="AN59">
+        <v>2</v>
+      </c>
+      <c r="AO59">
+        <v>12</v>
+      </c>
+      <c r="AP59">
+        <v>50</v>
+      </c>
+      <c r="AQ59">
+        <v>600</v>
+      </c>
+      <c r="AR59">
+        <v>100</v>
+      </c>
+      <c r="AS59">
+        <v>400</v>
+      </c>
+      <c r="AT59">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="AU59">
+        <v>16</v>
+      </c>
+      <c r="AV59">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AW59">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="AX59">
+        <f t="shared" si="3"/>
+        <v>1264</v>
+      </c>
+      <c r="AY59">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="60" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>108</v>
+      </c>
+      <c r="B60" t="s">
+        <v>112</v>
+      </c>
+      <c r="C60" s="1">
+        <v>45557</v>
+      </c>
+      <c r="D60" t="s">
+        <v>113</v>
+      </c>
+      <c r="E60" t="s">
+        <v>115</v>
+      </c>
+      <c r="F60">
+        <v>3</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60" t="s">
+        <v>134</v>
+      </c>
+      <c r="I60">
+        <v>2</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60" t="s">
+        <v>134</v>
+      </c>
+      <c r="L60">
+        <v>1.72</v>
+      </c>
+      <c r="M60">
+        <v>3.99</v>
+      </c>
+      <c r="N60">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="O60" t="s">
+        <v>141</v>
+      </c>
+      <c r="P60" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q60">
+        <v>10</v>
+      </c>
+      <c r="R60">
+        <v>7</v>
+      </c>
+      <c r="S60">
+        <v>11</v>
+      </c>
+      <c r="T60">
+        <v>4</v>
+      </c>
+      <c r="U60">
+        <v>3</v>
+      </c>
+      <c r="V60">
+        <v>2</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>0</v>
+      </c>
+      <c r="Y60">
+        <v>3</v>
+      </c>
+      <c r="Z60">
+        <v>6</v>
+      </c>
+      <c r="AA60">
+        <v>16</v>
+      </c>
+      <c r="AB60">
+        <v>11</v>
+      </c>
+      <c r="AC60">
+        <v>4</v>
+      </c>
+      <c r="AD60">
+        <v>9</v>
+      </c>
+      <c r="AE60">
+        <v>27</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>194</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI60" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ60">
+        <v>5</v>
+      </c>
+      <c r="AK60">
+        <v>0</v>
+      </c>
+      <c r="AL60" t="s">
+        <v>255</v>
+      </c>
+      <c r="AM60">
+        <v>148</v>
+      </c>
+      <c r="AN60">
+        <v>4</v>
+      </c>
+      <c r="AO60">
+        <v>45</v>
+      </c>
+      <c r="AP60">
+        <v>50</v>
+      </c>
+      <c r="AQ60">
+        <v>600</v>
+      </c>
+      <c r="AR60">
+        <v>200</v>
+      </c>
+      <c r="AS60">
+        <v>450</v>
+      </c>
+      <c r="AT60">
+        <f t="shared" si="0"/>
+        <v>2250</v>
+      </c>
+      <c r="AU60">
         <v>36</v>
       </c>
-      <c r="AW40">
+      <c r="AV60">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="AW60">
         <f t="shared" si="2"/>
-        <v>180</v>
-      </c>
-      <c r="AX40">
+        <v>405</v>
+      </c>
+      <c r="AX60">
         <f t="shared" si="3"/>
-        <v>1420</v>
-      </c>
-      <c r="AY40">
-        <v>400</v>
+        <v>1332</v>
+      </c>
+      <c r="AY60">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="61" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>109</v>
+      </c>
+      <c r="B61" t="s">
+        <v>112</v>
+      </c>
+      <c r="C61" s="1">
+        <v>45557</v>
+      </c>
+      <c r="D61" t="s">
+        <v>122</v>
+      </c>
+      <c r="E61" t="s">
+        <v>124</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>5</v>
+      </c>
+      <c r="H61" t="s">
+        <v>135</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>2</v>
+      </c>
+      <c r="K61" t="s">
+        <v>135</v>
+      </c>
+      <c r="L61">
+        <v>3.9</v>
+      </c>
+      <c r="M61">
+        <v>4.05</v>
+      </c>
+      <c r="N61">
+        <v>1.88</v>
+      </c>
+      <c r="O61" t="s">
+        <v>142</v>
+      </c>
+      <c r="P61" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q61">
+        <v>13</v>
+      </c>
+      <c r="R61">
+        <v>4</v>
+      </c>
+      <c r="S61">
+        <v>17</v>
+      </c>
+      <c r="T61">
+        <v>10</v>
+      </c>
+      <c r="U61">
+        <v>6</v>
+      </c>
+      <c r="V61">
+        <v>1</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>0</v>
+      </c>
+      <c r="Y61">
+        <v>7</v>
+      </c>
+      <c r="Z61">
+        <v>3</v>
+      </c>
+      <c r="AA61">
+        <v>12</v>
+      </c>
+      <c r="AB61">
+        <v>12</v>
+      </c>
+      <c r="AC61">
+        <v>6</v>
+      </c>
+      <c r="AD61">
+        <v>10</v>
+      </c>
+      <c r="AE61">
+        <v>24</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI61" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ61">
+        <v>7</v>
+      </c>
+      <c r="AK61">
+        <v>0</v>
+      </c>
+      <c r="AL61" t="s">
+        <v>256</v>
+      </c>
+      <c r="AM61">
+        <v>308</v>
+      </c>
+      <c r="AN61">
+        <v>6</v>
+      </c>
+      <c r="AO61">
+        <v>76</v>
+      </c>
+      <c r="AP61">
+        <v>70</v>
+      </c>
+      <c r="AQ61">
+        <v>600</v>
+      </c>
+      <c r="AR61">
+        <v>420</v>
+      </c>
+      <c r="AS61">
+        <v>700</v>
+      </c>
+      <c r="AT61">
+        <f t="shared" si="0"/>
+        <v>5320</v>
+      </c>
+      <c r="AU61">
+        <v>60</v>
+      </c>
+      <c r="AV61">
+        <f t="shared" si="1"/>
+        <v>456</v>
+      </c>
+      <c r="AW61">
+        <f t="shared" si="2"/>
+        <v>760</v>
+      </c>
+      <c r="AX61">
+        <f t="shared" si="3"/>
+        <v>3080</v>
+      </c>
+      <c r="AY61">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>110</v>
+      </c>
+      <c r="B62" t="s">
+        <v>112</v>
+      </c>
+      <c r="C62" s="1">
+        <v>45557</v>
+      </c>
+      <c r="D62" t="s">
+        <v>131</v>
+      </c>
+      <c r="E62" t="s">
+        <v>130</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62" t="s">
+        <v>133</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62" t="s">
+        <v>134</v>
+      </c>
+      <c r="L62">
+        <v>4.96</v>
+      </c>
+      <c r="M62">
+        <v>3.53</v>
+      </c>
+      <c r="N62">
+        <v>1.81</v>
+      </c>
+      <c r="O62" t="s">
+        <v>136</v>
+      </c>
+      <c r="P62" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q62">
+        <v>15</v>
+      </c>
+      <c r="R62">
+        <v>3</v>
+      </c>
+      <c r="S62">
+        <v>10</v>
+      </c>
+      <c r="T62">
+        <v>5</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>0</v>
+      </c>
+      <c r="Y62">
+        <v>3</v>
+      </c>
+      <c r="Z62">
+        <v>4</v>
+      </c>
+      <c r="AA62">
+        <v>9</v>
+      </c>
+      <c r="AB62">
+        <v>12</v>
+      </c>
+      <c r="AC62">
+        <v>2</v>
+      </c>
+      <c r="AD62">
+        <v>7</v>
+      </c>
+      <c r="AE62">
+        <v>21</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI62" t="s">
+        <v>196</v>
+      </c>
+      <c r="AJ62">
+        <v>0</v>
+      </c>
+      <c r="AK62">
+        <v>0</v>
+      </c>
+      <c r="AL62" t="s">
+        <v>257</v>
+      </c>
+      <c r="AM62">
+        <v>84</v>
+      </c>
+      <c r="AN62">
+        <v>2</v>
+      </c>
+      <c r="AO62">
+        <v>11</v>
+      </c>
+      <c r="AP62">
+        <v>0</v>
+      </c>
+      <c r="AQ62">
+        <v>0</v>
+      </c>
+      <c r="AR62">
+        <v>0</v>
+      </c>
+      <c r="AS62">
+        <v>0</v>
+      </c>
+      <c r="AT62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU62">
+        <v>14</v>
+      </c>
+      <c r="AV62">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="AW62">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="AX62">
+        <f t="shared" si="3"/>
+        <v>588</v>
+      </c>
+      <c r="AY62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>111</v>
+      </c>
+      <c r="B63" t="s">
+        <v>112</v>
+      </c>
+      <c r="C63" s="1">
+        <v>45558</v>
+      </c>
+      <c r="D63" t="s">
+        <v>114</v>
+      </c>
+      <c r="E63" t="s">
+        <v>120</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>2</v>
+      </c>
+      <c r="H63" t="s">
+        <v>135</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63" t="s">
+        <v>133</v>
+      </c>
+      <c r="L63">
+        <v>1.88</v>
+      </c>
+      <c r="M63">
+        <v>3.3</v>
+      </c>
+      <c r="N63">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="O63" t="s">
+        <v>138</v>
+      </c>
+      <c r="P63" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q63">
+        <v>14</v>
+      </c>
+      <c r="R63">
+        <v>6</v>
+      </c>
+      <c r="S63">
+        <v>6</v>
+      </c>
+      <c r="T63">
+        <v>6</v>
+      </c>
+      <c r="U63">
+        <v>3</v>
+      </c>
+      <c r="V63">
+        <v>2</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>0</v>
+      </c>
+      <c r="Y63">
+        <v>6</v>
+      </c>
+      <c r="Z63">
+        <v>3</v>
+      </c>
+      <c r="AA63">
+        <v>12</v>
+      </c>
+      <c r="AB63">
+        <v>12</v>
+      </c>
+      <c r="AC63">
+        <v>3</v>
+      </c>
+      <c r="AD63">
+        <v>9</v>
+      </c>
+      <c r="AE63">
+        <v>24</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG63" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH63" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI63" t="s">
+        <v>196</v>
+      </c>
+      <c r="AJ63">
+        <v>5</v>
+      </c>
+      <c r="AK63">
+        <v>0</v>
+      </c>
+      <c r="AL63" t="s">
+        <v>258</v>
+      </c>
+      <c r="AM63">
+        <v>105</v>
+      </c>
+      <c r="AN63">
+        <v>3</v>
+      </c>
+      <c r="AO63">
+        <v>50</v>
+      </c>
+      <c r="AP63">
+        <v>50</v>
+      </c>
+      <c r="AQ63">
+        <v>600</v>
+      </c>
+      <c r="AR63">
+        <v>150</v>
+      </c>
+      <c r="AS63">
+        <v>450</v>
+      </c>
+      <c r="AT63">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="AU63">
+        <v>27</v>
+      </c>
+      <c r="AV63">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="AW63">
+        <f t="shared" si="2"/>
+        <v>450</v>
+      </c>
+      <c r="AX63">
+        <f t="shared" si="3"/>
+        <v>945</v>
+      </c>
+      <c r="AY63">
+        <v>1350</v>
       </c>
     </row>
   </sheetData>

--- a/SP1_spread.xlsx
+++ b/SP1_spread.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kovan\Rsoccer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F488D66-462D-46F1-B3A4-0857796EDC8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8533824-F181-4CD2-934C-CCECFBC9B092}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3795" yWindow="2655" windowWidth="20355" windowHeight="12495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="297">
   <si>
     <t>Div</t>
   </si>
@@ -327,43 +327,97 @@
     <t>49</t>
   </si>
   <si>
-    <t>463</t>
-  </si>
-  <si>
-    <t>464</t>
-  </si>
-  <si>
-    <t>465</t>
-  </si>
-  <si>
-    <t>466</t>
-  </si>
-  <si>
-    <t>467</t>
-  </si>
-  <si>
-    <t>468</t>
-  </si>
-  <si>
-    <t>469</t>
-  </si>
-  <si>
-    <t>470</t>
-  </si>
-  <si>
-    <t>471</t>
-  </si>
-  <si>
-    <t>472</t>
-  </si>
-  <si>
-    <t>473</t>
-  </si>
-  <si>
-    <t>474</t>
-  </si>
-  <si>
-    <t>475</t>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>533</t>
+  </si>
+  <si>
+    <t>534</t>
+  </si>
+  <si>
+    <t>535</t>
+  </si>
+  <si>
+    <t>536</t>
+  </si>
+  <si>
+    <t>537</t>
+  </si>
+  <si>
+    <t>538</t>
+  </si>
+  <si>
+    <t>539</t>
+  </si>
+  <si>
+    <t>540</t>
+  </si>
+  <si>
+    <t>541</t>
+  </si>
+  <si>
+    <t>542</t>
+  </si>
+  <si>
+    <t>543</t>
+  </si>
+  <si>
+    <t>544</t>
+  </si>
+  <si>
+    <t>545</t>
+  </si>
+  <si>
+    <t>546</t>
+  </si>
+  <si>
+    <t>547</t>
+  </si>
+  <si>
+    <t>548</t>
+  </si>
+  <si>
+    <t>549</t>
+  </si>
+  <si>
+    <t>550</t>
   </si>
   <si>
     <t>SP1</t>
@@ -495,6 +549,9 @@
     <t>1-5</t>
   </si>
   <si>
+    <t>4-2</t>
+  </si>
+  <si>
     <t>5-6</t>
   </si>
   <si>
@@ -615,6 +672,9 @@
     <t>3-6</t>
   </si>
   <si>
+    <t>5-8</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
@@ -805,6 +865,60 @@
   </si>
   <si>
     <t>Betis-Mallorca</t>
+  </si>
+  <si>
+    <t>Sevilla-Valladolid</t>
+  </si>
+  <si>
+    <t>Valencia-Osasuna</t>
+  </si>
+  <si>
+    <t>Real Madrid-Alaves</t>
+  </si>
+  <si>
+    <t>Girona-Vallecano</t>
+  </si>
+  <si>
+    <t>Barcelona-Getafe</t>
+  </si>
+  <si>
+    <t>Espanol-Villarreal</t>
+  </si>
+  <si>
+    <t>Las Palmas-Betis</t>
+  </si>
+  <si>
+    <t>Celta-Ath Madrid</t>
+  </si>
+  <si>
+    <t>Valladolid-Mallorca</t>
+  </si>
+  <si>
+    <t>Getafe-Alaves</t>
+  </si>
+  <si>
+    <t>Vallecano-Leganes</t>
+  </si>
+  <si>
+    <t>Sociedad-Valencia</t>
+  </si>
+  <si>
+    <t>Osasuna-Barcelona</t>
+  </si>
+  <si>
+    <t>Celta-Girona</t>
+  </si>
+  <si>
+    <t>Ath Bilbao-Sevilla</t>
+  </si>
+  <si>
+    <t>Betis-Espanol</t>
+  </si>
+  <si>
+    <t>Ath Madrid-Real Madrid</t>
+  </si>
+  <si>
+    <t>Villarreal-Las Palmas</t>
   </si>
 </sst>
 </file>
@@ -1160,60 +1274,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY63"/>
+  <dimension ref="A1:AY81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="Z41" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="Z56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AO64" sqref="AO64"/>
+      <selection pane="bottomRight" activeCell="AO82" sqref="AO82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="31" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="31" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="2.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="23" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.25">
@@ -1373,16 +1485,16 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C2" s="1">
         <v>45519</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="E2" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1391,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -1400,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="L2">
         <v>1.48</v>
@@ -1412,10 +1524,10 @@
         <v>8.24</v>
       </c>
       <c r="O2" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="P2" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1463,16 +1575,16 @@
         <v>27</v>
       </c>
       <c r="AF2" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="AG2" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AH2" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AI2" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AJ2">
         <v>5</v>
@@ -1481,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="AL2" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AM2">
         <v>91</v>
@@ -1528,16 +1640,16 @@
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C3" s="1">
         <v>45519</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="E3" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1546,7 +1658,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1555,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="L3">
         <v>2.41</v>
@@ -1567,10 +1679,10 @@
         <v>3.07</v>
       </c>
       <c r="O3" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="P3" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="Q3">
         <v>19</v>
@@ -1618,16 +1730,16 @@
         <v>18</v>
       </c>
       <c r="AF3" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="AG3" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AH3" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AI3" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AJ3">
         <v>2</v>
@@ -1636,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="AL3" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AM3">
         <v>78</v>
@@ -1683,16 +1795,16 @@
         <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C4" s="1">
         <v>45520</v>
       </c>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="E4" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -1701,7 +1813,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1710,7 +1822,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="L4">
         <v>2.0499999999999998</v>
@@ -1722,10 +1834,10 @@
         <v>4.12</v>
       </c>
       <c r="O4" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="P4" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -1773,16 +1885,16 @@
         <v>31</v>
       </c>
       <c r="AF4" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="AG4" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AH4" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AI4" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AJ4">
         <v>5</v>
@@ -1791,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="AL4" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="AM4">
         <v>167</v>
@@ -1838,16 +1950,16 @@
         <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C5" s="1">
         <v>45520</v>
       </c>
       <c r="D5" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="E5" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -1856,7 +1968,7 @@
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1865,7 +1977,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="L5">
         <v>2.87</v>
@@ -1877,10 +1989,10 @@
         <v>2.71</v>
       </c>
       <c r="O5" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="P5" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="Q5">
         <v>13</v>
@@ -1928,16 +2040,16 @@
         <v>25</v>
       </c>
       <c r="AF5" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="AG5" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AH5" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AI5" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -1946,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="AL5" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="AM5">
         <v>199</v>
@@ -1993,16 +2105,16 @@
         <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C6" s="1">
         <v>45521</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="E6" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -2011,7 +2123,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -2020,7 +2132,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="L6">
         <v>1.89</v>
@@ -2032,10 +2144,10 @@
         <v>4.57</v>
       </c>
       <c r="O6" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="P6" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="Q6">
         <v>16</v>
@@ -2083,16 +2195,16 @@
         <v>26</v>
       </c>
       <c r="AF6" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="AG6" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AH6" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AI6" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AJ6">
         <v>5</v>
@@ -2101,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="AL6" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="AM6">
         <v>101</v>
@@ -2148,16 +2260,16 @@
         <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C7" s="1">
         <v>45521</v>
       </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="E7" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -2166,7 +2278,7 @@
         <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -2175,7 +2287,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="L7">
         <v>4.8899999999999997</v>
@@ -2187,10 +2299,10 @@
         <v>1.75</v>
       </c>
       <c r="O7" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="P7" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2238,16 +2350,16 @@
         <v>24</v>
       </c>
       <c r="AF7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="AG7" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AH7" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AI7" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AJ7">
         <v>5</v>
@@ -2256,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="AL7" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="AM7">
         <v>138</v>
@@ -2303,16 +2415,16 @@
         <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C8" s="1">
         <v>45522</v>
       </c>
       <c r="D8" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="E8" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -2321,7 +2433,7 @@
         <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2330,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="L8">
         <v>1.61</v>
@@ -2342,10 +2454,10 @@
         <v>6.8</v>
       </c>
       <c r="O8" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="P8" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="Q8">
         <v>11</v>
@@ -2393,16 +2505,16 @@
         <v>35</v>
       </c>
       <c r="AF8" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="AG8" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AH8" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AI8" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AJ8">
         <v>6</v>
@@ -2411,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="AL8" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="AM8">
         <v>241</v>
@@ -2458,16 +2570,16 @@
         <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C9" s="1">
         <v>45522</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="E9" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -2476,7 +2588,7 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2485,7 +2597,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="L9">
         <v>7.77</v>
@@ -2497,10 +2609,10 @@
         <v>1.46</v>
       </c>
       <c r="O9" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="P9" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="Q9">
         <v>12</v>
@@ -2548,16 +2660,16 @@
         <v>17</v>
       </c>
       <c r="AF9" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="AG9" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AH9" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AI9" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AJ9">
         <v>1</v>
@@ -2566,7 +2678,7 @@
         <v>1</v>
       </c>
       <c r="AL9" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="AM9">
         <v>66</v>
@@ -2613,16 +2725,16 @@
         <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C10" s="1">
         <v>45523</v>
       </c>
       <c r="D10" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="E10" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -2631,7 +2743,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -2640,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="L10">
         <v>2.39</v>
@@ -2652,10 +2764,10 @@
         <v>3.47</v>
       </c>
       <c r="O10" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="P10" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="Q10">
         <v>12</v>
@@ -2703,16 +2815,16 @@
         <v>23</v>
       </c>
       <c r="AF10" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="AG10" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AH10" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AI10" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AJ10">
         <v>4</v>
@@ -2721,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="AL10" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="AM10">
         <v>23</v>
@@ -2768,16 +2880,16 @@
         <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C11" s="1">
         <v>45523</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="E11" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -2786,7 +2898,7 @@
         <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -2795,7 +2907,7 @@
         <v>2</v>
       </c>
       <c r="K11" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="L11">
         <v>3.43</v>
@@ -2807,10 +2919,10 @@
         <v>2.12</v>
       </c>
       <c r="O11" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="P11" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="Q11">
         <v>8</v>
@@ -2858,16 +2970,16 @@
         <v>16</v>
       </c>
       <c r="AF11" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="AG11" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AH11" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AI11" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AJ11">
         <v>4</v>
@@ -2876,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="AL11" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="AM11">
         <v>120</v>
@@ -2923,16 +3035,16 @@
         <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C12" s="1">
         <v>45527</v>
       </c>
       <c r="D12" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="E12" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="F12">
         <v>3</v>
@@ -2941,7 +3053,7 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I12">
         <v>2</v>
@@ -2950,7 +3062,7 @@
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="L12">
         <v>2.17</v>
@@ -2962,10 +3074,10 @@
         <v>3.71</v>
       </c>
       <c r="O12" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="P12" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3013,16 +3125,16 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="AG12" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AH12" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AI12" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AJ12">
         <v>3</v>
@@ -3031,7 +3143,7 @@
         <v>0</v>
       </c>
       <c r="AL12" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="AM12">
         <v>124</v>
@@ -3078,16 +3190,16 @@
         <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C13" s="1">
         <v>45527</v>
       </c>
       <c r="D13" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="E13" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -3096,7 +3208,7 @@
         <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -3105,7 +3217,7 @@
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="L13">
         <v>2.4500000000000002</v>
@@ -3117,10 +3229,10 @@
         <v>2.93</v>
       </c>
       <c r="O13" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="P13" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="Q13">
         <v>15</v>
@@ -3168,16 +3280,16 @@
         <v>22</v>
       </c>
       <c r="AF13" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="AG13" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AH13" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AI13" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AJ13">
         <v>8</v>
@@ -3186,7 +3298,7 @@
         <v>0</v>
       </c>
       <c r="AL13" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="AM13">
         <v>137</v>
@@ -3233,16 +3345,16 @@
         <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C14" s="1">
         <v>45528</v>
       </c>
       <c r="D14" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="E14" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -3251,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -3260,7 +3372,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="L14">
         <v>2.52</v>
@@ -3272,10 +3384,10 @@
         <v>3.28</v>
       </c>
       <c r="O14" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="P14" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="Q14">
         <v>15</v>
@@ -3323,16 +3435,16 @@
         <v>18</v>
       </c>
       <c r="AF14" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="AG14" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AH14" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AI14" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AJ14">
         <v>3</v>
@@ -3341,7 +3453,7 @@
         <v>0</v>
       </c>
       <c r="AL14" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="AM14">
         <v>55</v>
@@ -3388,16 +3500,16 @@
         <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C15" s="1">
         <v>45528</v>
       </c>
       <c r="D15" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="E15" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -3406,7 +3518,7 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -3415,7 +3527,7 @@
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="L15">
         <v>1.63</v>
@@ -3427,10 +3539,10 @@
         <v>5.34</v>
       </c>
       <c r="O15" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="P15" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="Q15">
         <v>13</v>
@@ -3478,16 +3590,16 @@
         <v>27</v>
       </c>
       <c r="AF15" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="AG15" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AH15" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AI15" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AJ15">
         <v>9</v>
@@ -3496,7 +3608,7 @@
         <v>0</v>
       </c>
       <c r="AL15" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="AM15">
         <v>141</v>
@@ -3543,16 +3655,16 @@
         <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C16" s="1">
         <v>45528</v>
       </c>
       <c r="D16" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="E16" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -3561,7 +3673,7 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -3570,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="L16">
         <v>4.18</v>
@@ -3582,10 +3694,10 @@
         <v>2.11</v>
       </c>
       <c r="O16" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="P16" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="Q16">
         <v>13</v>
@@ -3633,16 +3745,16 @@
         <v>32</v>
       </c>
       <c r="AF16" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="AG16" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AH16" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AI16" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AJ16">
         <v>4</v>
@@ -3651,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="AL16" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="AM16">
         <v>80</v>
@@ -3698,16 +3810,16 @@
         <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C17" s="1">
         <v>45528</v>
       </c>
       <c r="D17" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="E17" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -3716,7 +3828,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -3725,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="L17">
         <v>2.5299999999999998</v>
@@ -3737,10 +3849,10 @@
         <v>3.38</v>
       </c>
       <c r="O17" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="P17" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="Q17">
         <v>12</v>
@@ -3788,16 +3900,16 @@
         <v>34</v>
       </c>
       <c r="AF17" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="AG17" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AH17" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AI17" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AJ17">
         <v>3</v>
@@ -3806,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="AL17" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="AM17">
         <v>0</v>
@@ -3853,16 +3965,16 @@
         <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C18" s="1">
         <v>45529</v>
       </c>
       <c r="D18" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="E18" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="F18">
         <v>3</v>
@@ -3871,7 +3983,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -3880,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="L18">
         <v>1.17</v>
@@ -3892,10 +4004,10 @@
         <v>16.25</v>
       </c>
       <c r="O18" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="P18" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="Q18">
         <v>17</v>
@@ -3943,16 +4055,16 @@
         <v>25</v>
       </c>
       <c r="AF18" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="AG18" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AH18" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AI18" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AJ18">
         <v>2</v>
@@ -3961,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="AL18" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="AM18">
         <v>228</v>
@@ -4008,16 +4120,16 @@
         <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C19" s="1">
         <v>45529</v>
       </c>
       <c r="D19" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="E19" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -4026,7 +4138,7 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -4035,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="L19">
         <v>2.33</v>
@@ -4047,10 +4159,10 @@
         <v>3.78</v>
       </c>
       <c r="O19" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="P19" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="Q19">
         <v>10</v>
@@ -4098,16 +4210,16 @@
         <v>21</v>
       </c>
       <c r="AF19" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="AG19" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AH19" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AI19" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AJ19">
         <v>2</v>
@@ -4116,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="AL19" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="AM19">
         <v>246</v>
@@ -4163,16 +4275,16 @@
         <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C20" s="1">
         <v>45529</v>
       </c>
       <c r="D20" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="E20" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -4181,7 +4293,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -4190,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="L20">
         <v>2.44</v>
@@ -4202,10 +4314,10 @@
         <v>3.28</v>
       </c>
       <c r="O20" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="P20" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -4253,16 +4365,16 @@
         <v>29</v>
       </c>
       <c r="AF20" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="AG20" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AH20" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AI20" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AJ20">
         <v>5</v>
@@ -4271,7 +4383,7 @@
         <v>1</v>
       </c>
       <c r="AL20" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AM20">
         <v>0</v>
@@ -4318,16 +4430,16 @@
         <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C21" s="1">
         <v>45529</v>
       </c>
       <c r="D21" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="E21" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="F21">
         <v>3</v>
@@ -4336,7 +4448,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -4345,7 +4457,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="L21">
         <v>1.6</v>
@@ -4357,10 +4469,10 @@
         <v>5.47</v>
       </c>
       <c r="O21" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="P21" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -4408,16 +4520,16 @@
         <v>21</v>
       </c>
       <c r="AF21" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="AG21" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AH21" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AI21" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AJ21">
         <v>4</v>
@@ -4426,7 +4538,7 @@
         <v>0</v>
       </c>
       <c r="AL21" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AM21">
         <v>177</v>
@@ -4473,16 +4585,16 @@
         <v>70</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C22" s="1">
         <v>45530</v>
       </c>
       <c r="D22" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="E22" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="F22">
         <v>4</v>
@@ -4491,7 +4603,7 @@
         <v>3</v>
       </c>
       <c r="H22" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -4500,7 +4612,7 @@
         <v>2</v>
       </c>
       <c r="K22" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="L22">
         <v>1.94</v>
@@ -4512,10 +4624,10 @@
         <v>3.76</v>
       </c>
       <c r="O22" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="P22" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="Q22">
         <v>22</v>
@@ -4563,16 +4675,16 @@
         <v>14</v>
       </c>
       <c r="AF22" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="AG22" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AH22" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AI22" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AJ22">
         <v>7</v>
@@ -4581,7 +4693,7 @@
         <v>0</v>
       </c>
       <c r="AL22" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="AM22">
         <v>363</v>
@@ -4628,16 +4740,16 @@
         <v>71</v>
       </c>
       <c r="B23" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C23" s="1">
         <v>45531</v>
       </c>
       <c r="D23" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="E23" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -4646,7 +4758,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -4655,7 +4767,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="L23">
         <v>2.4700000000000002</v>
@@ -4667,10 +4779,10 @@
         <v>3.33</v>
       </c>
       <c r="O23" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="P23" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="Q23">
         <v>12</v>
@@ -4718,16 +4830,16 @@
         <v>25</v>
       </c>
       <c r="AF23" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="AG23" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AH23" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AI23" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AJ23">
         <v>1</v>
@@ -4736,7 +4848,7 @@
         <v>1</v>
       </c>
       <c r="AL23" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="AM23">
         <v>0</v>
@@ -4783,16 +4895,16 @@
         <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C24" s="1">
         <v>45531</v>
       </c>
       <c r="D24" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="E24" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -4801,7 +4913,7 @@
         <v>2</v>
       </c>
       <c r="H24" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -4810,7 +4922,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="L24">
         <v>5.7</v>
@@ -4822,10 +4934,10 @@
         <v>1.64</v>
       </c>
       <c r="O24" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="P24" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="Q24">
         <v>8</v>
@@ -4873,16 +4985,16 @@
         <v>28</v>
       </c>
       <c r="AF24" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="AG24" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AH24" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AI24" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AJ24">
         <v>4</v>
@@ -4891,7 +5003,7 @@
         <v>0</v>
       </c>
       <c r="AL24" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="AM24">
         <v>151</v>
@@ -4938,16 +5050,16 @@
         <v>73</v>
       </c>
       <c r="B25" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C25" s="1">
         <v>45532</v>
       </c>
       <c r="D25" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="E25" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -4956,7 +5068,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -4965,7 +5077,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="L25">
         <v>1.63</v>
@@ -4977,10 +5089,10 @@
         <v>5.96</v>
       </c>
       <c r="O25" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="P25" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="Q25">
         <v>13</v>
@@ -5028,16 +5140,16 @@
         <v>23</v>
       </c>
       <c r="AF25" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="AG25" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AH25" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AI25" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AJ25">
         <v>4</v>
@@ -5046,7 +5158,7 @@
         <v>0</v>
       </c>
       <c r="AL25" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="AM25">
         <v>45</v>
@@ -5093,16 +5205,16 @@
         <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C26" s="1">
         <v>45532</v>
       </c>
       <c r="D26" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="E26" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -5111,7 +5223,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -5120,7 +5232,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="L26">
         <v>2.34</v>
@@ -5132,10 +5244,10 @@
         <v>3.64</v>
       </c>
       <c r="O26" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="P26" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="Q26">
         <v>12</v>
@@ -5183,16 +5295,16 @@
         <v>32</v>
       </c>
       <c r="AF26" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="AG26" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AH26" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AI26" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AJ26">
         <v>6</v>
@@ -5201,7 +5313,7 @@
         <v>0</v>
       </c>
       <c r="AL26" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="AM26">
         <v>0</v>
@@ -5248,16 +5360,16 @@
         <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C27" s="1">
         <v>45532</v>
       </c>
       <c r="D27" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="E27" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -5266,7 +5378,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -5275,7 +5387,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="L27">
         <v>1.29</v>
@@ -5287,10 +5399,10 @@
         <v>12.02</v>
       </c>
       <c r="O27" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="P27" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="Q27">
         <v>24</v>
@@ -5338,16 +5450,16 @@
         <v>15</v>
       </c>
       <c r="AF27" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="AG27" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AH27" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AI27" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AJ27">
         <v>2</v>
@@ -5356,7 +5468,7 @@
         <v>0</v>
       </c>
       <c r="AL27" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="AM27">
         <v>0</v>
@@ -5403,16 +5515,16 @@
         <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C28" s="1">
         <v>45532</v>
       </c>
       <c r="D28" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="E28" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -5421,7 +5533,7 @@
         <v>2</v>
       </c>
       <c r="H28" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -5430,7 +5542,7 @@
         <v>1</v>
       </c>
       <c r="K28" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="L28">
         <v>1.71</v>
@@ -5442,10 +5554,10 @@
         <v>5.78</v>
       </c>
       <c r="O28" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="P28" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="Q28">
         <v>8</v>
@@ -5493,16 +5605,16 @@
         <v>28</v>
       </c>
       <c r="AF28" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="AG28" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AH28" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AI28" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AJ28">
         <v>8</v>
@@ -5511,7 +5623,7 @@
         <v>1</v>
       </c>
       <c r="AL28" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="AM28">
         <v>154</v>
@@ -5558,16 +5670,16 @@
         <v>77</v>
       </c>
       <c r="B29" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C29" s="1">
         <v>45533</v>
       </c>
       <c r="D29" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="E29" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="F29">
         <v>4</v>
@@ -5576,7 +5688,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -5585,7 +5697,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="L29">
         <v>1.76</v>
@@ -5597,10 +5709,10 @@
         <v>4.57</v>
       </c>
       <c r="O29" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="P29" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="Q29">
         <v>10</v>
@@ -5648,16 +5760,16 @@
         <v>19</v>
       </c>
       <c r="AF29" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="AG29" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AH29" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AI29" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AJ29">
         <v>0</v>
@@ -5666,7 +5778,7 @@
         <v>0</v>
       </c>
       <c r="AL29" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="AM29">
         <v>233</v>
@@ -5713,16 +5825,16 @@
         <v>78</v>
       </c>
       <c r="B30" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C30" s="1">
         <v>45533</v>
       </c>
       <c r="D30" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="E30" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -5731,7 +5843,7 @@
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -5740,7 +5852,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="L30">
         <v>8.1</v>
@@ -5752,10 +5864,10 @@
         <v>1.38</v>
       </c>
       <c r="O30" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="P30" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="Q30">
         <v>7</v>
@@ -5803,16 +5915,16 @@
         <v>29</v>
       </c>
       <c r="AF30" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="AG30" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AH30" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AI30" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AJ30">
         <v>2</v>
@@ -5821,7 +5933,7 @@
         <v>0</v>
       </c>
       <c r="AL30" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="AM30">
         <v>74</v>
@@ -5868,16 +5980,16 @@
         <v>79</v>
       </c>
       <c r="B31" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C31" s="1">
         <v>45535</v>
       </c>
       <c r="D31" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="E31" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="F31">
         <v>7</v>
@@ -5886,7 +5998,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I31">
         <v>3</v>
@@ -5895,7 +6007,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="L31">
         <v>1.25</v>
@@ -5907,10 +6019,10 @@
         <v>11.82</v>
       </c>
       <c r="O31" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="P31" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="Q31">
         <v>23</v>
@@ -5958,16 +6070,16 @@
         <v>18</v>
       </c>
       <c r="AF31" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="AG31" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AH31" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AI31" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AJ31">
         <v>3</v>
@@ -5976,7 +6088,7 @@
         <v>0</v>
       </c>
       <c r="AL31" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="AM31">
         <v>392</v>
@@ -6023,16 +6135,16 @@
         <v>80</v>
       </c>
       <c r="B32" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C32" s="1">
         <v>45535</v>
       </c>
       <c r="D32" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="E32" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -6041,7 +6153,7 @@
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -6050,7 +6162,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="L32">
         <v>3.05</v>
@@ -6062,10 +6174,10 @@
         <v>2.46</v>
       </c>
       <c r="O32" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="P32" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="Q32">
         <v>8</v>
@@ -6113,16 +6225,16 @@
         <v>22</v>
       </c>
       <c r="AF32" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="AG32" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AH32" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AI32" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AJ32">
         <v>4</v>
@@ -6131,7 +6243,7 @@
         <v>0</v>
       </c>
       <c r="AL32" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="AM32">
         <v>90</v>
@@ -6178,16 +6290,16 @@
         <v>81</v>
       </c>
       <c r="B33" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C33" s="1">
         <v>45535</v>
       </c>
       <c r="D33" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="E33" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="F33">
         <v>2</v>
@@ -6196,7 +6308,7 @@
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I33">
         <v>1</v>
@@ -6205,7 +6317,7 @@
         <v>1</v>
       </c>
       <c r="K33" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="L33">
         <v>2.8</v>
@@ -6217,10 +6329,10 @@
         <v>2.92</v>
       </c>
       <c r="O33" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="P33" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="Q33">
         <v>10</v>
@@ -6268,16 +6380,16 @@
         <v>30</v>
       </c>
       <c r="AF33" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="AG33" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AH33" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AI33" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AJ33">
         <v>5</v>
@@ -6286,7 +6398,7 @@
         <v>0</v>
       </c>
       <c r="AL33" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="AM33">
         <v>102</v>
@@ -6333,16 +6445,16 @@
         <v>82</v>
       </c>
       <c r="B34" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C34" s="1">
         <v>45535</v>
       </c>
       <c r="D34" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="E34" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -6351,7 +6463,7 @@
         <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -6360,7 +6472,7 @@
         <v>1</v>
       </c>
       <c r="K34" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="L34">
         <v>2.6</v>
@@ -6372,10 +6484,10 @@
         <v>3.32</v>
       </c>
       <c r="O34" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="P34" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -6423,16 +6535,16 @@
         <v>28</v>
       </c>
       <c r="AF34" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="AG34" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AH34" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AI34" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AJ34">
         <v>4</v>
@@ -6441,7 +6553,7 @@
         <v>0</v>
       </c>
       <c r="AL34" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="AM34">
         <v>43</v>
@@ -6488,16 +6600,16 @@
         <v>83</v>
       </c>
       <c r="B35" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C35" s="1">
         <v>45535</v>
       </c>
       <c r="D35" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="E35" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -6506,7 +6618,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -6515,7 +6627,7 @@
         <v>1</v>
       </c>
       <c r="K35" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="L35">
         <v>2.81</v>
@@ -6527,10 +6639,10 @@
         <v>2.61</v>
       </c>
       <c r="O35" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="P35" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="Q35">
         <v>22</v>
@@ -6578,16 +6690,16 @@
         <v>26</v>
       </c>
       <c r="AF35" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="AG35" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AH35" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AI35" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AJ35">
         <v>8</v>
@@ -6596,7 +6708,7 @@
         <v>1</v>
       </c>
       <c r="AL35" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="AM35">
         <v>89</v>
@@ -6643,16 +6755,16 @@
         <v>84</v>
       </c>
       <c r="B36" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C36" s="1">
         <v>45536</v>
       </c>
       <c r="D36" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="E36" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="F36">
         <v>2</v>
@@ -6661,7 +6773,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -6670,7 +6782,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="L36">
         <v>1.94</v>
@@ -6682,10 +6794,10 @@
         <v>4.45</v>
       </c>
       <c r="O36" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="P36" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="Q36">
         <v>15</v>
@@ -6733,16 +6845,16 @@
         <v>22</v>
       </c>
       <c r="AF36" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="AG36" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AH36" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AI36" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AJ36">
         <v>3</v>
@@ -6751,7 +6863,7 @@
         <v>0</v>
       </c>
       <c r="AL36" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="AM36">
         <v>85</v>
@@ -6798,16 +6910,16 @@
         <v>85</v>
       </c>
       <c r="B37" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C37" s="1">
         <v>45536</v>
       </c>
       <c r="D37" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="E37" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="F37">
         <v>3</v>
@@ -6816,7 +6928,7 @@
         <v>2</v>
       </c>
       <c r="H37" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I37">
         <v>2</v>
@@ -6825,7 +6937,7 @@
         <v>1</v>
       </c>
       <c r="K37" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="L37">
         <v>2.5099999999999998</v>
@@ -6837,10 +6949,10 @@
         <v>3</v>
       </c>
       <c r="O37" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="P37" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="Q37">
         <v>10</v>
@@ -6888,16 +7000,16 @@
         <v>29</v>
       </c>
       <c r="AF37" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="AG37" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AH37" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AI37" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AJ37">
         <v>2</v>
@@ -6906,7 +7018,7 @@
         <v>1</v>
       </c>
       <c r="AL37" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="AM37">
         <v>247</v>
@@ -6953,16 +7065,16 @@
         <v>86</v>
       </c>
       <c r="B38" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C38" s="1">
         <v>45536</v>
       </c>
       <c r="D38" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="E38" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -6971,7 +7083,7 @@
         <v>2</v>
       </c>
       <c r="H38" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -6980,7 +7092,7 @@
         <v>1</v>
       </c>
       <c r="K38" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="L38">
         <v>2.42</v>
@@ -6992,10 +7104,10 @@
         <v>2.8</v>
       </c>
       <c r="O38" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="P38" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="Q38">
         <v>16</v>
@@ -7043,16 +7155,16 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="AG38" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AH38" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AI38" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AJ38">
         <v>5</v>
@@ -7061,7 +7173,7 @@
         <v>0</v>
       </c>
       <c r="AL38" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="AM38">
         <v>114</v>
@@ -7108,16 +7220,16 @@
         <v>87</v>
       </c>
       <c r="B39" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C39" s="1">
         <v>45536</v>
       </c>
       <c r="D39" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="E39" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -7126,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -7135,7 +7247,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="L39">
         <v>3.59</v>
@@ -7147,10 +7259,10 @@
         <v>2.46</v>
       </c>
       <c r="O39" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="P39" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="Q39">
         <v>16</v>
@@ -7198,16 +7310,16 @@
         <v>30</v>
       </c>
       <c r="AF39" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="AG39" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AH39" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AI39" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AJ39">
         <v>2</v>
@@ -7216,7 +7328,7 @@
         <v>0</v>
       </c>
       <c r="AL39" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="AM39">
         <v>0</v>
@@ -7263,16 +7375,16 @@
         <v>88</v>
       </c>
       <c r="B40" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C40" s="1">
         <v>45536</v>
       </c>
       <c r="D40" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="E40" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="F40">
         <v>2</v>
@@ -7281,7 +7393,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -7290,7 +7402,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="L40">
         <v>1.29</v>
@@ -7302,10 +7414,10 @@
         <v>9.9</v>
       </c>
       <c r="O40" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="P40" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="Q40">
         <v>20</v>
@@ -7353,16 +7465,16 @@
         <v>24</v>
       </c>
       <c r="AF40" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="AG40" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AH40" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AI40" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AJ40">
         <v>2</v>
@@ -7371,7 +7483,7 @@
         <v>0</v>
       </c>
       <c r="AL40" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="AM40">
         <v>142</v>
@@ -7418,16 +7530,16 @@
         <v>89</v>
       </c>
       <c r="B41" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C41" s="1">
         <v>45548</v>
       </c>
       <c r="D41" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="E41" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="F41">
         <v>2</v>
@@ -7436,7 +7548,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -7445,7 +7557,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="L41">
         <v>1.63</v>
@@ -7457,10 +7569,10 @@
         <v>6.37</v>
       </c>
       <c r="O41" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="P41" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="Q41">
         <v>14</v>
@@ -7508,16 +7620,16 @@
         <v>29</v>
       </c>
       <c r="AF41" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="AG41" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AH41" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AI41" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AJ41">
         <v>3</v>
@@ -7526,7 +7638,7 @@
         <v>0</v>
       </c>
       <c r="AL41" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="AM41">
         <v>160</v>
@@ -7573,16 +7685,16 @@
         <v>90</v>
       </c>
       <c r="B42" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C42" s="1">
         <v>45549</v>
       </c>
       <c r="D42" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="E42" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -7591,7 +7703,7 @@
         <v>2</v>
       </c>
       <c r="H42" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -7600,7 +7712,7 @@
         <v>1</v>
       </c>
       <c r="K42" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="L42">
         <v>2.5</v>
@@ -7612,10 +7724,10 @@
         <v>3.07</v>
       </c>
       <c r="O42" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="P42" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="Q42">
         <v>10</v>
@@ -7663,16 +7775,16 @@
         <v>21</v>
       </c>
       <c r="AF42" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="AG42" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AH42" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AI42" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AJ42">
         <v>6</v>
@@ -7681,7 +7793,7 @@
         <v>1</v>
       </c>
       <c r="AL42" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="AM42">
         <v>174</v>
@@ -7728,16 +7840,16 @@
         <v>91</v>
       </c>
       <c r="B43" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C43" s="1">
         <v>45549</v>
       </c>
       <c r="D43" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="E43" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="F43">
         <v>3</v>
@@ -7746,7 +7858,7 @@
         <v>2</v>
       </c>
       <c r="H43" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -7755,7 +7867,7 @@
         <v>1</v>
       </c>
       <c r="K43" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="L43">
         <v>2.75</v>
@@ -7767,10 +7879,10 @@
         <v>2.91</v>
       </c>
       <c r="O43" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="P43" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="Q43">
         <v>9</v>
@@ -7818,16 +7930,16 @@
         <v>31</v>
       </c>
       <c r="AF43" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="AG43" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AH43" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AI43" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AJ43">
         <v>5</v>
@@ -7836,7 +7948,7 @@
         <v>0</v>
       </c>
       <c r="AL43" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="AM43">
         <v>243</v>
@@ -7883,16 +7995,16 @@
         <v>92</v>
       </c>
       <c r="B44" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C44" s="1">
         <v>45549</v>
       </c>
       <c r="D44" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="E44" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -7901,7 +8013,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -7910,7 +8022,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="L44">
         <v>2.2400000000000002</v>
@@ -7922,10 +8034,10 @@
         <v>3.72</v>
       </c>
       <c r="O44" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="P44" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="Q44">
         <v>10</v>
@@ -7973,16 +8085,16 @@
         <v>34</v>
       </c>
       <c r="AF44" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="AG44" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AH44" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AI44" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AJ44">
         <v>7</v>
@@ -7991,7 +8103,7 @@
         <v>1</v>
       </c>
       <c r="AL44" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="AM44">
         <v>23</v>
@@ -8038,16 +8150,16 @@
         <v>93</v>
       </c>
       <c r="B45" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C45" s="1">
         <v>45549</v>
       </c>
       <c r="D45" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="E45" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -8056,7 +8168,7 @@
         <v>2</v>
       </c>
       <c r="H45" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -8065,7 +8177,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="L45">
         <v>5.32</v>
@@ -8077,10 +8189,10 @@
         <v>1.69</v>
       </c>
       <c r="O45" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="P45" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="Q45">
         <v>11</v>
@@ -8128,16 +8240,16 @@
         <v>21</v>
       </c>
       <c r="AF45" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="AG45" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AH45" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AI45" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AJ45">
         <v>5</v>
@@ -8146,7 +8258,7 @@
         <v>0</v>
       </c>
       <c r="AL45" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="AM45">
         <v>133</v>
@@ -8193,16 +8305,16 @@
         <v>94</v>
       </c>
       <c r="B46" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C46" s="1">
         <v>45550</v>
       </c>
       <c r="D46" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="E46" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="F46">
         <v>3</v>
@@ -8211,7 +8323,7 @@
         <v>1</v>
       </c>
       <c r="H46" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I46">
         <v>2</v>
@@ -8220,7 +8332,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="L46">
         <v>1.68</v>
@@ -8232,10 +8344,10 @@
         <v>5.1100000000000003</v>
       </c>
       <c r="O46" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="P46" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="Q46">
         <v>14</v>
@@ -8283,16 +8395,16 @@
         <v>29</v>
       </c>
       <c r="AF46" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="AG46" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AH46" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AI46" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AJ46">
         <v>8</v>
@@ -8301,7 +8413,7 @@
         <v>1</v>
       </c>
       <c r="AL46" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="AM46">
         <v>197</v>
@@ -8348,16 +8460,16 @@
         <v>95</v>
       </c>
       <c r="B47" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C47" s="1">
         <v>45550</v>
       </c>
       <c r="D47" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="E47" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -8366,7 +8478,7 @@
         <v>4</v>
       </c>
       <c r="H47" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -8375,7 +8487,7 @@
         <v>2</v>
       </c>
       <c r="K47" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="L47">
         <v>4.2</v>
@@ -8387,10 +8499,10 @@
         <v>1.83</v>
       </c>
       <c r="O47" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="P47" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="Q47">
         <v>9</v>
@@ -8438,16 +8550,16 @@
         <v>17</v>
       </c>
       <c r="AF47" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="AG47" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AH47" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AI47" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AJ47">
         <v>5</v>
@@ -8456,7 +8568,7 @@
         <v>1</v>
       </c>
       <c r="AL47" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="AM47">
         <v>258</v>
@@ -8503,16 +8615,16 @@
         <v>96</v>
       </c>
       <c r="B48" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C48" s="1">
         <v>45550</v>
       </c>
       <c r="D48" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="E48" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="F48">
         <v>2</v>
@@ -8521,7 +8633,7 @@
         <v>3</v>
       </c>
       <c r="H48" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -8530,7 +8642,7 @@
         <v>2</v>
       </c>
       <c r="K48" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="L48">
         <v>3.9</v>
@@ -8542,10 +8654,10 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="O48" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="P48" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="Q48">
         <v>15</v>
@@ -8593,16 +8705,16 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="AG48" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AH48" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AI48" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AJ48">
         <v>3</v>
@@ -8611,7 +8723,7 @@
         <v>1</v>
       </c>
       <c r="AL48" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="AM48">
         <v>254</v>
@@ -8658,16 +8770,16 @@
         <v>97</v>
       </c>
       <c r="B49" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C49" s="1">
         <v>45550</v>
       </c>
       <c r="D49" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="E49" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="F49">
         <v>3</v>
@@ -8676,7 +8788,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -8685,7 +8797,7 @@
         <v>0</v>
       </c>
       <c r="K49" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="L49">
         <v>1.34</v>
@@ -8697,10 +8809,10 @@
         <v>9.9</v>
       </c>
       <c r="O49" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="P49" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="Q49">
         <v>14</v>
@@ -8748,16 +8860,16 @@
         <v>18</v>
       </c>
       <c r="AF49" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="AG49" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AH49" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AI49" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AJ49">
         <v>3</v>
@@ -8766,7 +8878,7 @@
         <v>0</v>
       </c>
       <c r="AL49" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="AM49">
         <v>183</v>
@@ -8813,16 +8925,16 @@
         <v>98</v>
       </c>
       <c r="B50" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C50" s="1">
         <v>45551</v>
       </c>
       <c r="D50" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="E50" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="F50">
         <v>3</v>
@@ -8831,7 +8943,7 @@
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -8840,7 +8952,7 @@
         <v>1</v>
       </c>
       <c r="K50" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="L50">
         <v>2.08</v>
@@ -8852,10 +8964,10 @@
         <v>4.13</v>
       </c>
       <c r="O50" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="P50" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="Q50">
         <v>17</v>
@@ -8903,16 +9015,16 @@
         <v>27</v>
       </c>
       <c r="AF50" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="AG50" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AH50" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AI50" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AJ50">
         <v>5</v>
@@ -8921,7 +9033,7 @@
         <v>0</v>
       </c>
       <c r="AL50" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="AM50">
         <v>206</v>
@@ -8968,16 +9080,16 @@
         <v>99</v>
       </c>
       <c r="B51" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C51" s="1">
         <v>45552</v>
       </c>
       <c r="D51" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="E51" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -8986,7 +9098,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -8995,7 +9107,7 @@
         <v>0</v>
       </c>
       <c r="K51" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="L51">
         <v>2.94</v>
@@ -9007,10 +9119,10 @@
         <v>3.02</v>
       </c>
       <c r="O51" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="P51" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="Q51">
         <v>10</v>
@@ -9058,16 +9170,16 @@
         <v>15</v>
       </c>
       <c r="AF51" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="AG51" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AH51" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AI51" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AJ51">
         <v>2</v>
@@ -9076,7 +9188,7 @@
         <v>0</v>
       </c>
       <c r="AL51" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="AM51">
         <v>36</v>
@@ -9100,22 +9212,18 @@
         <v>200</v>
       </c>
       <c r="AT51">
-        <f>AO51*AP51</f>
         <v>180</v>
       </c>
       <c r="AU51">
         <v>10</v>
       </c>
       <c r="AV51">
-        <f>AN51*AO51</f>
         <v>9</v>
       </c>
       <c r="AW51">
-        <f>AO51*AD51</f>
         <v>90</v>
       </c>
       <c r="AX51">
-        <f>AM51*AD51</f>
         <v>360</v>
       </c>
       <c r="AY51">
@@ -9127,16 +9235,16 @@
         <v>100</v>
       </c>
       <c r="B52" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C52" s="1">
         <v>45553</v>
       </c>
       <c r="D52" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="E52" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="F52">
         <v>2</v>
@@ -9145,7 +9253,7 @@
         <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -9154,7 +9262,7 @@
         <v>0</v>
       </c>
       <c r="K52" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="L52">
         <v>1.96</v>
@@ -9166,10 +9274,10 @@
         <v>4.84</v>
       </c>
       <c r="O52" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="P52" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="Q52">
         <v>18</v>
@@ -9217,16 +9325,16 @@
         <v>30</v>
       </c>
       <c r="AF52" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="AG52" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AH52" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AI52" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AJ52">
         <v>8</v>
@@ -9235,7 +9343,7 @@
         <v>0</v>
       </c>
       <c r="AL52" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="AM52">
         <v>225</v>
@@ -9259,22 +9367,18 @@
         <v>960</v>
       </c>
       <c r="AT52">
-        <f t="shared" ref="AT52:AT63" si="0">AO52*AP52</f>
         <v>3840</v>
       </c>
       <c r="AU52">
         <v>36</v>
       </c>
       <c r="AV52">
-        <f t="shared" ref="AV52:AV63" si="1">AN52*AO52</f>
         <v>144</v>
       </c>
       <c r="AW52">
-        <f t="shared" ref="AW52:AW63" si="2">AO52*AD52</f>
         <v>576</v>
       </c>
       <c r="AX52">
-        <f t="shared" ref="AX52:AX63" si="3">AM52*AD52</f>
         <v>2700</v>
       </c>
       <c r="AY52">
@@ -9286,16 +9390,16 @@
         <v>101</v>
       </c>
       <c r="B53" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C53" s="1">
         <v>45554</v>
       </c>
       <c r="D53" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="E53" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -9304,7 +9408,7 @@
         <v>2</v>
       </c>
       <c r="H53" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -9313,7 +9417,7 @@
         <v>0</v>
       </c>
       <c r="K53" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="L53">
         <v>4.26</v>
@@ -9325,10 +9429,10 @@
         <v>2.0699999999999998</v>
       </c>
       <c r="O53" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="P53" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="Q53">
         <v>14</v>
@@ -9376,16 +9480,16 @@
         <v>23</v>
       </c>
       <c r="AF53" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="AG53" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AH53" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AI53" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AJ53">
         <v>3</v>
@@ -9394,7 +9498,7 @@
         <v>0</v>
       </c>
       <c r="AL53" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="AM53">
         <v>140</v>
@@ -9418,22 +9522,18 @@
         <v>330</v>
       </c>
       <c r="AT53">
-        <f t="shared" si="0"/>
         <v>360</v>
       </c>
       <c r="AU53">
         <v>22</v>
       </c>
       <c r="AV53">
-        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="AW53">
-        <f t="shared" si="2"/>
         <v>132</v>
       </c>
       <c r="AX53">
-        <f t="shared" si="3"/>
         <v>1540</v>
       </c>
       <c r="AY53">
@@ -9445,16 +9545,16 @@
         <v>102</v>
       </c>
       <c r="B54" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C54" s="1">
         <v>45555</v>
       </c>
       <c r="D54" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="E54" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="F54">
         <v>2</v>
@@ -9463,7 +9563,7 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I54">
         <v>1</v>
@@ -9472,7 +9572,7 @@
         <v>0</v>
       </c>
       <c r="K54" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="L54">
         <v>2.2000000000000002</v>
@@ -9484,10 +9584,10 @@
         <v>3.7</v>
       </c>
       <c r="O54" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="P54" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="Q54">
         <v>10</v>
@@ -9535,16 +9635,16 @@
         <v>27</v>
       </c>
       <c r="AF54" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="AG54" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AH54" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AI54" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AJ54">
         <v>5</v>
@@ -9553,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="AL54" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="AM54">
         <v>160</v>
@@ -9577,22 +9677,18 @@
         <v>400</v>
       </c>
       <c r="AT54">
-        <f t="shared" si="0"/>
         <v>1650</v>
       </c>
       <c r="AU54">
         <v>24</v>
       </c>
       <c r="AV54">
-        <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="AW54">
-        <f t="shared" si="2"/>
         <v>264</v>
       </c>
       <c r="AX54">
-        <f t="shared" si="3"/>
         <v>1280</v>
       </c>
       <c r="AY54">
@@ -9604,16 +9700,16 @@
         <v>103</v>
       </c>
       <c r="B55" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C55" s="1">
         <v>45556</v>
       </c>
       <c r="D55" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="E55" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -9622,7 +9718,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -9631,7 +9727,7 @@
         <v>0</v>
       </c>
       <c r="K55" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="L55">
         <v>3.87</v>
@@ -9643,10 +9739,10 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="O55" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="P55" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="Q55">
         <v>15</v>
@@ -9694,16 +9790,16 @@
         <v>27</v>
       </c>
       <c r="AF55" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AG55" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AH55" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AI55" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AJ55">
         <v>8</v>
@@ -9712,7 +9808,7 @@
         <v>0</v>
       </c>
       <c r="AL55" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="AM55">
         <v>0</v>
@@ -9736,22 +9832,18 @@
         <v>960</v>
       </c>
       <c r="AT55">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AU55">
         <v>0</v>
       </c>
       <c r="AV55">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AW55">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AX55">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AY55">
@@ -9763,16 +9855,16 @@
         <v>104</v>
       </c>
       <c r="B56" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C56" s="1">
         <v>45556</v>
       </c>
       <c r="D56" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="E56" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="F56">
         <v>2</v>
@@ -9781,7 +9873,7 @@
         <v>1</v>
       </c>
       <c r="H56" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I56">
         <v>1</v>
@@ -9790,7 +9882,7 @@
         <v>1</v>
       </c>
       <c r="K56" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="L56">
         <v>1.92</v>
@@ -9802,10 +9894,10 @@
         <v>4.51</v>
       </c>
       <c r="O56" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="P56" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="Q56">
         <v>13</v>
@@ -9853,16 +9945,16 @@
         <v>25</v>
       </c>
       <c r="AF56" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="AG56" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AH56" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AI56" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AJ56">
         <v>7</v>
@@ -9871,7 +9963,7 @@
         <v>0</v>
       </c>
       <c r="AL56" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="AM56">
         <v>140</v>
@@ -9895,22 +9987,18 @@
         <v>420</v>
       </c>
       <c r="AT56">
-        <f t="shared" si="0"/>
         <v>2590</v>
       </c>
       <c r="AU56">
         <v>18</v>
       </c>
       <c r="AV56">
-        <f t="shared" si="1"/>
         <v>111</v>
       </c>
       <c r="AW56">
-        <f t="shared" si="2"/>
         <v>222</v>
       </c>
       <c r="AX56">
-        <f t="shared" si="3"/>
         <v>840</v>
       </c>
       <c r="AY56">
@@ -9922,16 +10010,16 @@
         <v>105</v>
       </c>
       <c r="B57" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C57" s="1">
         <v>45556</v>
       </c>
       <c r="D57" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="E57" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="F57">
         <v>2</v>
@@ -9940,7 +10028,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -9949,7 +10037,7 @@
         <v>0</v>
       </c>
       <c r="K57" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="L57">
         <v>2.96</v>
@@ -9961,10 +10049,10 @@
         <v>2.5299999999999998</v>
       </c>
       <c r="O57" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="P57" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -10012,16 +10100,16 @@
         <v>23</v>
       </c>
       <c r="AF57" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="AG57" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AH57" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AI57" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AJ57">
         <v>5</v>
@@ -10030,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="AL57" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="AM57">
         <v>114</v>
@@ -10054,22 +10142,18 @@
         <v>450</v>
       </c>
       <c r="AT57">
-        <f t="shared" si="0"/>
         <v>1600</v>
       </c>
       <c r="AU57">
         <v>18</v>
       </c>
       <c r="AV57">
-        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="AW57">
-        <f t="shared" si="2"/>
         <v>288</v>
       </c>
       <c r="AX57">
-        <f t="shared" si="3"/>
         <v>1026</v>
       </c>
       <c r="AY57">
@@ -10081,16 +10165,16 @@
         <v>106</v>
       </c>
       <c r="B58" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C58" s="1">
         <v>45556</v>
       </c>
       <c r="D58" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="E58" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="F58">
         <v>4</v>
@@ -10099,7 +10183,7 @@
         <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -10108,7 +10192,7 @@
         <v>0</v>
       </c>
       <c r="K58" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="L58">
         <v>1.17</v>
@@ -10120,10 +10204,10 @@
         <v>15.46</v>
       </c>
       <c r="O58" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="P58" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="Q58">
         <v>31</v>
@@ -10171,16 +10255,16 @@
         <v>12</v>
       </c>
       <c r="AF58" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="AG58" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AH58" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AI58" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AJ58">
         <v>7</v>
@@ -10189,7 +10273,7 @@
         <v>0</v>
       </c>
       <c r="AL58" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="AM58">
         <v>355</v>
@@ -10213,22 +10297,18 @@
         <v>910</v>
       </c>
       <c r="AT58">
-        <f t="shared" si="0"/>
         <v>2100</v>
       </c>
       <c r="AU58">
         <v>65</v>
       </c>
       <c r="AV58">
-        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="AW58">
-        <f t="shared" si="2"/>
         <v>390</v>
       </c>
       <c r="AX58">
-        <f t="shared" si="3"/>
         <v>4615</v>
       </c>
       <c r="AY58">
@@ -10240,16 +10320,16 @@
         <v>107</v>
       </c>
       <c r="B59" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C59" s="1">
         <v>45557</v>
       </c>
       <c r="D59" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="E59" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -10258,7 +10338,7 @@
         <v>1</v>
       </c>
       <c r="H59" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -10267,7 +10347,7 @@
         <v>0</v>
       </c>
       <c r="K59" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="L59">
         <v>2.0699999999999998</v>
@@ -10279,10 +10359,10 @@
         <v>5.0599999999999996</v>
       </c>
       <c r="O59" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="P59" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="Q59">
         <v>12</v>
@@ -10330,16 +10410,16 @@
         <v>33</v>
       </c>
       <c r="AF59" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="AG59" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AH59" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AI59" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AJ59">
         <v>5</v>
@@ -10348,7 +10428,7 @@
         <v>0</v>
       </c>
       <c r="AL59" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="AM59">
         <v>158</v>
@@ -10372,22 +10452,18 @@
         <v>400</v>
       </c>
       <c r="AT59">
-        <f t="shared" si="0"/>
         <v>600</v>
       </c>
       <c r="AU59">
         <v>16</v>
       </c>
       <c r="AV59">
-        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="AW59">
-        <f t="shared" si="2"/>
         <v>96</v>
       </c>
       <c r="AX59">
-        <f t="shared" si="3"/>
         <v>1264</v>
       </c>
       <c r="AY59">
@@ -10399,16 +10475,16 @@
         <v>108</v>
       </c>
       <c r="B60" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C60" s="1">
         <v>45557</v>
       </c>
       <c r="D60" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="E60" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="F60">
         <v>3</v>
@@ -10417,7 +10493,7 @@
         <v>1</v>
       </c>
       <c r="H60" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I60">
         <v>2</v>
@@ -10426,7 +10502,7 @@
         <v>1</v>
       </c>
       <c r="K60" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="L60">
         <v>1.72</v>
@@ -10438,10 +10514,10 @@
         <v>4.8499999999999996</v>
       </c>
       <c r="O60" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="P60" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="Q60">
         <v>10</v>
@@ -10489,16 +10565,16 @@
         <v>27</v>
       </c>
       <c r="AF60" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="AG60" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AH60" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AI60" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AJ60">
         <v>5</v>
@@ -10507,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="AL60" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="AM60">
         <v>148</v>
@@ -10531,22 +10607,18 @@
         <v>450</v>
       </c>
       <c r="AT60">
-        <f t="shared" si="0"/>
         <v>2250</v>
       </c>
       <c r="AU60">
         <v>36</v>
       </c>
       <c r="AV60">
-        <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="AW60">
-        <f t="shared" si="2"/>
         <v>405</v>
       </c>
       <c r="AX60">
-        <f t="shared" si="3"/>
         <v>1332</v>
       </c>
       <c r="AY60">
@@ -10558,16 +10630,16 @@
         <v>109</v>
       </c>
       <c r="B61" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C61" s="1">
         <v>45557</v>
       </c>
       <c r="D61" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="E61" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -10576,7 +10648,7 @@
         <v>5</v>
       </c>
       <c r="H61" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="I61">
         <v>1</v>
@@ -10585,7 +10657,7 @@
         <v>2</v>
       </c>
       <c r="K61" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="L61">
         <v>3.9</v>
@@ -10597,10 +10669,10 @@
         <v>1.88</v>
       </c>
       <c r="O61" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="P61" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="Q61">
         <v>13</v>
@@ -10648,16 +10720,16 @@
         <v>24</v>
       </c>
       <c r="AF61" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="AG61" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AH61" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AI61" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AJ61">
         <v>7</v>
@@ -10666,7 +10738,7 @@
         <v>0</v>
       </c>
       <c r="AL61" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="AM61">
         <v>308</v>
@@ -10690,22 +10762,18 @@
         <v>700</v>
       </c>
       <c r="AT61">
-        <f t="shared" si="0"/>
         <v>5320</v>
       </c>
       <c r="AU61">
         <v>60</v>
       </c>
       <c r="AV61">
-        <f t="shared" si="1"/>
         <v>456</v>
       </c>
       <c r="AW61">
-        <f t="shared" si="2"/>
         <v>760</v>
       </c>
       <c r="AX61">
-        <f t="shared" si="3"/>
         <v>3080</v>
       </c>
       <c r="AY61">
@@ -10717,16 +10785,16 @@
         <v>110</v>
       </c>
       <c r="B62" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C62" s="1">
         <v>45557</v>
       </c>
       <c r="D62" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="E62" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -10735,7 +10803,7 @@
         <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="I62">
         <v>1</v>
@@ -10744,7 +10812,7 @@
         <v>0</v>
       </c>
       <c r="K62" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="L62">
         <v>4.96</v>
@@ -10756,10 +10824,10 @@
         <v>1.81</v>
       </c>
       <c r="O62" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="P62" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="Q62">
         <v>15</v>
@@ -10807,16 +10875,16 @@
         <v>21</v>
       </c>
       <c r="AF62" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="AG62" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AH62" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AI62" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AJ62">
         <v>0</v>
@@ -10825,7 +10893,7 @@
         <v>0</v>
       </c>
       <c r="AL62" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="AM62">
         <v>84</v>
@@ -10849,22 +10917,18 @@
         <v>0</v>
       </c>
       <c r="AT62">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AU62">
         <v>14</v>
       </c>
       <c r="AV62">
-        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="AW62">
-        <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="AX62">
-        <f t="shared" si="3"/>
         <v>588</v>
       </c>
       <c r="AY62">
@@ -10876,16 +10940,16 @@
         <v>111</v>
       </c>
       <c r="B63" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C63" s="1">
         <v>45558</v>
       </c>
       <c r="D63" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="E63" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -10894,7 +10958,7 @@
         <v>2</v>
       </c>
       <c r="H63" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="I63">
         <v>1</v>
@@ -10903,7 +10967,7 @@
         <v>1</v>
       </c>
       <c r="K63" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="L63">
         <v>1.88</v>
@@ -10915,10 +10979,10 @@
         <v>4.9800000000000004</v>
       </c>
       <c r="O63" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="P63" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="Q63">
         <v>14</v>
@@ -10966,16 +11030,16 @@
         <v>24</v>
       </c>
       <c r="AF63" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="AG63" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AH63" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AI63" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AJ63">
         <v>5</v>
@@ -10984,7 +11048,7 @@
         <v>0</v>
       </c>
       <c r="AL63" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="AM63">
         <v>105</v>
@@ -11008,26 +11072,2884 @@
         <v>450</v>
       </c>
       <c r="AT63">
-        <f t="shared" si="0"/>
         <v>2500</v>
       </c>
       <c r="AU63">
         <v>27</v>
       </c>
       <c r="AV63">
-        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="AW63">
-        <f t="shared" si="2"/>
         <v>450</v>
       </c>
       <c r="AX63">
-        <f t="shared" si="3"/>
         <v>945</v>
       </c>
       <c r="AY63">
         <v>1350</v>
+      </c>
+    </row>
+    <row r="64" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>112</v>
+      </c>
+      <c r="B64" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" s="1">
+        <v>45559</v>
+      </c>
+      <c r="D64" t="s">
+        <v>141</v>
+      </c>
+      <c r="E64" t="s">
+        <v>139</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64" t="s">
+        <v>152</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64" t="s">
+        <v>152</v>
+      </c>
+      <c r="L64">
+        <v>1.67</v>
+      </c>
+      <c r="M64">
+        <v>3.9</v>
+      </c>
+      <c r="N64">
+        <v>5.49</v>
+      </c>
+      <c r="O64" t="s">
+        <v>154</v>
+      </c>
+      <c r="P64" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q64">
+        <v>22</v>
+      </c>
+      <c r="R64">
+        <v>5</v>
+      </c>
+      <c r="S64">
+        <v>8</v>
+      </c>
+      <c r="T64">
+        <v>2</v>
+      </c>
+      <c r="U64">
+        <v>5</v>
+      </c>
+      <c r="V64">
+        <v>4</v>
+      </c>
+      <c r="W64">
+        <v>1</v>
+      </c>
+      <c r="X64">
+        <v>0</v>
+      </c>
+      <c r="Y64">
+        <v>6</v>
+      </c>
+      <c r="Z64">
+        <v>4</v>
+      </c>
+      <c r="AA64">
+        <v>14</v>
+      </c>
+      <c r="AB64">
+        <v>12</v>
+      </c>
+      <c r="AC64">
+        <v>3</v>
+      </c>
+      <c r="AD64">
+        <v>10</v>
+      </c>
+      <c r="AE64">
+        <v>26</v>
+      </c>
+      <c r="AF64" t="s">
+        <v>178</v>
+      </c>
+      <c r="AG64" t="s">
+        <v>215</v>
+      </c>
+      <c r="AH64" t="s">
+        <v>215</v>
+      </c>
+      <c r="AI64" t="s">
+        <v>216</v>
+      </c>
+      <c r="AJ64">
+        <v>9</v>
+      </c>
+      <c r="AK64">
+        <v>1</v>
+      </c>
+      <c r="AL64" t="s">
+        <v>279</v>
+      </c>
+      <c r="AM64">
+        <v>186</v>
+      </c>
+      <c r="AN64">
+        <v>3</v>
+      </c>
+      <c r="AO64">
+        <v>32</v>
+      </c>
+      <c r="AP64">
+        <v>115</v>
+      </c>
+      <c r="AQ64">
+        <v>3000</v>
+      </c>
+      <c r="AR64">
+        <v>345</v>
+      </c>
+      <c r="AS64">
+        <v>1150</v>
+      </c>
+      <c r="AT64">
+        <f>AO64*AP64</f>
+        <v>3680</v>
+      </c>
+      <c r="AU64">
+        <v>30</v>
+      </c>
+      <c r="AV64">
+        <f>AN64*AO64</f>
+        <v>96</v>
+      </c>
+      <c r="AW64">
+        <f>AO64*AD64</f>
+        <v>320</v>
+      </c>
+      <c r="AX64">
+        <f>AM64*AD64</f>
+        <v>1860</v>
+      </c>
+      <c r="AY64">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="65" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>113</v>
+      </c>
+      <c r="B65" t="s">
+        <v>130</v>
+      </c>
+      <c r="C65" s="1">
+        <v>45559</v>
+      </c>
+      <c r="D65" t="s">
+        <v>136</v>
+      </c>
+      <c r="E65" t="s">
+        <v>135</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65" t="s">
+        <v>151</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65" t="s">
+        <v>151</v>
+      </c>
+      <c r="L65">
+        <v>2.09</v>
+      </c>
+      <c r="M65">
+        <v>3.15</v>
+      </c>
+      <c r="N65">
+        <v>4.2</v>
+      </c>
+      <c r="O65" t="s">
+        <v>157</v>
+      </c>
+      <c r="P65" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q65">
+        <v>10</v>
+      </c>
+      <c r="R65">
+        <v>2</v>
+      </c>
+      <c r="S65">
+        <v>9</v>
+      </c>
+      <c r="T65">
+        <v>2</v>
+      </c>
+      <c r="U65">
+        <v>2</v>
+      </c>
+      <c r="V65">
+        <v>3</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>0</v>
+      </c>
+      <c r="Y65">
+        <v>10</v>
+      </c>
+      <c r="Z65">
+        <v>5</v>
+      </c>
+      <c r="AA65">
+        <v>6</v>
+      </c>
+      <c r="AB65">
+        <v>11</v>
+      </c>
+      <c r="AC65">
+        <v>0</v>
+      </c>
+      <c r="AD65">
+        <v>15</v>
+      </c>
+      <c r="AE65">
+        <v>17</v>
+      </c>
+      <c r="AF65" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG65" t="s">
+        <v>216</v>
+      </c>
+      <c r="AH65" t="s">
+        <v>216</v>
+      </c>
+      <c r="AI65" t="s">
+        <v>216</v>
+      </c>
+      <c r="AJ65">
+        <v>5</v>
+      </c>
+      <c r="AK65">
+        <v>0</v>
+      </c>
+      <c r="AL65" t="s">
+        <v>280</v>
+      </c>
+      <c r="AM65">
+        <v>0</v>
+      </c>
+      <c r="AN65">
+        <v>0</v>
+      </c>
+      <c r="AO65">
+        <v>0</v>
+      </c>
+      <c r="AP65">
+        <v>50</v>
+      </c>
+      <c r="AQ65">
+        <v>600</v>
+      </c>
+      <c r="AR65">
+        <v>0</v>
+      </c>
+      <c r="AS65">
+        <v>750</v>
+      </c>
+      <c r="AT65">
+        <f t="shared" ref="AT65:AT81" si="0">AO65*AP65</f>
+        <v>0</v>
+      </c>
+      <c r="AU65">
+        <v>0</v>
+      </c>
+      <c r="AV65">
+        <f t="shared" ref="AV65:AV81" si="1">AN65*AO65</f>
+        <v>0</v>
+      </c>
+      <c r="AW65">
+        <f t="shared" ref="AW65:AW81" si="2">AO65*AD65</f>
+        <v>0</v>
+      </c>
+      <c r="AX65">
+        <f t="shared" ref="AX65:AX81" si="3">AM65*AD65</f>
+        <v>0</v>
+      </c>
+      <c r="AY65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>114</v>
+      </c>
+      <c r="B66" t="s">
+        <v>130</v>
+      </c>
+      <c r="C66" s="1">
+        <v>45559</v>
+      </c>
+      <c r="D66" t="s">
+        <v>145</v>
+      </c>
+      <c r="E66" t="s">
+        <v>147</v>
+      </c>
+      <c r="F66">
+        <v>3</v>
+      </c>
+      <c r="G66">
+        <v>2</v>
+      </c>
+      <c r="H66" t="s">
+        <v>152</v>
+      </c>
+      <c r="I66">
+        <v>2</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66" t="s">
+        <v>152</v>
+      </c>
+      <c r="L66">
+        <v>1.18</v>
+      </c>
+      <c r="M66">
+        <v>7.39</v>
+      </c>
+      <c r="N66">
+        <v>16.8</v>
+      </c>
+      <c r="O66" t="s">
+        <v>162</v>
+      </c>
+      <c r="P66" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q66">
+        <v>10</v>
+      </c>
+      <c r="R66">
+        <v>4</v>
+      </c>
+      <c r="S66">
+        <v>12</v>
+      </c>
+      <c r="T66">
+        <v>3</v>
+      </c>
+      <c r="U66">
+        <v>4</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>0</v>
+      </c>
+      <c r="Y66">
+        <v>4</v>
+      </c>
+      <c r="Z66">
+        <v>4</v>
+      </c>
+      <c r="AA66">
+        <v>7</v>
+      </c>
+      <c r="AB66">
+        <v>10</v>
+      </c>
+      <c r="AC66">
+        <v>5</v>
+      </c>
+      <c r="AD66">
+        <v>8</v>
+      </c>
+      <c r="AE66">
+        <v>17</v>
+      </c>
+      <c r="AF66" t="s">
+        <v>175</v>
+      </c>
+      <c r="AG66" t="s">
+        <v>215</v>
+      </c>
+      <c r="AH66" t="s">
+        <v>215</v>
+      </c>
+      <c r="AI66" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ66">
+        <v>4</v>
+      </c>
+      <c r="AK66">
+        <v>0</v>
+      </c>
+      <c r="AL66" t="s">
+        <v>281</v>
+      </c>
+      <c r="AM66">
+        <v>260</v>
+      </c>
+      <c r="AN66">
+        <v>5</v>
+      </c>
+      <c r="AO66">
+        <v>77</v>
+      </c>
+      <c r="AP66">
+        <v>40</v>
+      </c>
+      <c r="AQ66">
+        <v>0</v>
+      </c>
+      <c r="AR66">
+        <v>200</v>
+      </c>
+      <c r="AS66">
+        <v>320</v>
+      </c>
+      <c r="AT66">
+        <f t="shared" si="0"/>
+        <v>3080</v>
+      </c>
+      <c r="AU66">
+        <v>40</v>
+      </c>
+      <c r="AV66">
+        <f t="shared" si="1"/>
+        <v>385</v>
+      </c>
+      <c r="AW66">
+        <f t="shared" si="2"/>
+        <v>616</v>
+      </c>
+      <c r="AX66">
+        <f t="shared" si="3"/>
+        <v>2080</v>
+      </c>
+      <c r="AY66">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="67" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>115</v>
+      </c>
+      <c r="B67" t="s">
+        <v>130</v>
+      </c>
+      <c r="C67" s="1">
+        <v>45560</v>
+      </c>
+      <c r="D67" t="s">
+        <v>150</v>
+      </c>
+      <c r="E67" t="s">
+        <v>149</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67" t="s">
+        <v>151</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67" t="s">
+        <v>151</v>
+      </c>
+      <c r="L67">
+        <v>1.76</v>
+      </c>
+      <c r="M67">
+        <v>3.91</v>
+      </c>
+      <c r="N67">
+        <v>4.71</v>
+      </c>
+      <c r="O67" t="s">
+        <v>157</v>
+      </c>
+      <c r="P67" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q67">
+        <v>11</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>2</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>3</v>
+      </c>
+      <c r="V67">
+        <v>4</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>0</v>
+      </c>
+      <c r="Y67">
+        <v>4</v>
+      </c>
+      <c r="Z67">
+        <v>3</v>
+      </c>
+      <c r="AA67">
+        <v>8</v>
+      </c>
+      <c r="AB67">
+        <v>16</v>
+      </c>
+      <c r="AC67">
+        <v>0</v>
+      </c>
+      <c r="AD67">
+        <v>7</v>
+      </c>
+      <c r="AE67">
+        <v>24</v>
+      </c>
+      <c r="AF67" t="s">
+        <v>165</v>
+      </c>
+      <c r="AG67" t="s">
+        <v>216</v>
+      </c>
+      <c r="AH67" t="s">
+        <v>216</v>
+      </c>
+      <c r="AI67" t="s">
+        <v>216</v>
+      </c>
+      <c r="AJ67">
+        <v>7</v>
+      </c>
+      <c r="AK67">
+        <v>0</v>
+      </c>
+      <c r="AL67" t="s">
+        <v>282</v>
+      </c>
+      <c r="AM67">
+        <v>0</v>
+      </c>
+      <c r="AN67">
+        <v>0</v>
+      </c>
+      <c r="AO67">
+        <v>0</v>
+      </c>
+      <c r="AP67">
+        <v>70</v>
+      </c>
+      <c r="AQ67">
+        <v>1200</v>
+      </c>
+      <c r="AR67">
+        <v>0</v>
+      </c>
+      <c r="AS67">
+        <v>490</v>
+      </c>
+      <c r="AT67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU67">
+        <v>0</v>
+      </c>
+      <c r="AV67">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AW67">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AX67">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AY67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>116</v>
+      </c>
+      <c r="B68" t="s">
+        <v>130</v>
+      </c>
+      <c r="C68" s="1">
+        <v>45560</v>
+      </c>
+      <c r="D68" t="s">
+        <v>142</v>
+      </c>
+      <c r="E68" t="s">
+        <v>144</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68" t="s">
+        <v>152</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68" t="s">
+        <v>152</v>
+      </c>
+      <c r="L68">
+        <v>1.23</v>
+      </c>
+      <c r="M68">
+        <v>6.57</v>
+      </c>
+      <c r="N68">
+        <v>13.27</v>
+      </c>
+      <c r="O68" t="s">
+        <v>154</v>
+      </c>
+      <c r="P68" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q68">
+        <v>16</v>
+      </c>
+      <c r="R68">
+        <v>4</v>
+      </c>
+      <c r="S68">
+        <v>7</v>
+      </c>
+      <c r="T68">
+        <v>1</v>
+      </c>
+      <c r="U68">
+        <v>1</v>
+      </c>
+      <c r="V68">
+        <v>1</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>0</v>
+      </c>
+      <c r="Y68">
+        <v>7</v>
+      </c>
+      <c r="Z68">
+        <v>5</v>
+      </c>
+      <c r="AA68">
+        <v>4</v>
+      </c>
+      <c r="AB68">
+        <v>14</v>
+      </c>
+      <c r="AC68">
+        <v>1</v>
+      </c>
+      <c r="AD68">
+        <v>12</v>
+      </c>
+      <c r="AE68">
+        <v>18</v>
+      </c>
+      <c r="AF68" t="s">
+        <v>200</v>
+      </c>
+      <c r="AG68" t="s">
+        <v>216</v>
+      </c>
+      <c r="AH68" t="s">
+        <v>216</v>
+      </c>
+      <c r="AI68" t="s">
+        <v>216</v>
+      </c>
+      <c r="AJ68">
+        <v>2</v>
+      </c>
+      <c r="AK68">
+        <v>0</v>
+      </c>
+      <c r="AL68" t="s">
+        <v>283</v>
+      </c>
+      <c r="AM68">
+        <v>19</v>
+      </c>
+      <c r="AN68">
+        <v>1</v>
+      </c>
+      <c r="AO68">
+        <v>9</v>
+      </c>
+      <c r="AP68">
+        <v>20</v>
+      </c>
+      <c r="AQ68">
+        <v>100</v>
+      </c>
+      <c r="AR68">
+        <v>20</v>
+      </c>
+      <c r="AS68">
+        <v>240</v>
+      </c>
+      <c r="AT68">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="AU68">
+        <v>12</v>
+      </c>
+      <c r="AV68">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="AW68">
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
+      <c r="AX68">
+        <f t="shared" si="3"/>
+        <v>228</v>
+      </c>
+      <c r="AY68">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="69" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>117</v>
+      </c>
+      <c r="B69" t="s">
+        <v>130</v>
+      </c>
+      <c r="C69" s="1">
+        <v>45561</v>
+      </c>
+      <c r="D69" t="s">
+        <v>143</v>
+      </c>
+      <c r="E69" t="s">
+        <v>140</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>2</v>
+      </c>
+      <c r="H69" t="s">
+        <v>153</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69" t="s">
+        <v>151</v>
+      </c>
+      <c r="L69">
+        <v>3.45</v>
+      </c>
+      <c r="M69">
+        <v>3.41</v>
+      </c>
+      <c r="N69">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="O69" t="s">
+        <v>156</v>
+      </c>
+      <c r="P69" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q69">
+        <v>11</v>
+      </c>
+      <c r="R69">
+        <v>2</v>
+      </c>
+      <c r="S69">
+        <v>15</v>
+      </c>
+      <c r="T69">
+        <v>4</v>
+      </c>
+      <c r="U69">
+        <v>5</v>
+      </c>
+      <c r="V69">
+        <v>3</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>0</v>
+      </c>
+      <c r="Y69">
+        <v>4</v>
+      </c>
+      <c r="Z69">
+        <v>1</v>
+      </c>
+      <c r="AA69">
+        <v>12</v>
+      </c>
+      <c r="AB69">
+        <v>14</v>
+      </c>
+      <c r="AC69">
+        <v>3</v>
+      </c>
+      <c r="AD69">
+        <v>5</v>
+      </c>
+      <c r="AE69">
+        <v>26</v>
+      </c>
+      <c r="AF69" t="s">
+        <v>171</v>
+      </c>
+      <c r="AG69" t="s">
+        <v>215</v>
+      </c>
+      <c r="AH69" t="s">
+        <v>215</v>
+      </c>
+      <c r="AI69" t="s">
+        <v>216</v>
+      </c>
+      <c r="AJ69">
+        <v>8</v>
+      </c>
+      <c r="AK69">
+        <v>0</v>
+      </c>
+      <c r="AL69" t="s">
+        <v>284</v>
+      </c>
+      <c r="AM69">
+        <v>153</v>
+      </c>
+      <c r="AN69">
+        <v>3</v>
+      </c>
+      <c r="AO69">
+        <v>61</v>
+      </c>
+      <c r="AP69">
+        <v>80</v>
+      </c>
+      <c r="AQ69">
+        <v>1500</v>
+      </c>
+      <c r="AR69">
+        <v>240</v>
+      </c>
+      <c r="AS69">
+        <v>400</v>
+      </c>
+      <c r="AT69">
+        <f t="shared" si="0"/>
+        <v>4880</v>
+      </c>
+      <c r="AU69">
+        <v>15</v>
+      </c>
+      <c r="AV69">
+        <f t="shared" si="1"/>
+        <v>183</v>
+      </c>
+      <c r="AW69">
+        <f t="shared" si="2"/>
+        <v>305</v>
+      </c>
+      <c r="AX69">
+        <f t="shared" si="3"/>
+        <v>765</v>
+      </c>
+      <c r="AY69">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="70" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>118</v>
+      </c>
+      <c r="B70" t="s">
+        <v>130</v>
+      </c>
+      <c r="C70" s="1">
+        <v>45561</v>
+      </c>
+      <c r="D70" t="s">
+        <v>134</v>
+      </c>
+      <c r="E70" t="s">
+        <v>132</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70" t="s">
+        <v>151</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70" t="s">
+        <v>151</v>
+      </c>
+      <c r="L70">
+        <v>3.18</v>
+      </c>
+      <c r="M70">
+        <v>3.3</v>
+      </c>
+      <c r="N70">
+        <v>2.41</v>
+      </c>
+      <c r="O70" t="s">
+        <v>156</v>
+      </c>
+      <c r="P70" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q70">
+        <v>8</v>
+      </c>
+      <c r="R70">
+        <v>2</v>
+      </c>
+      <c r="S70">
+        <v>14</v>
+      </c>
+      <c r="T70">
+        <v>5</v>
+      </c>
+      <c r="U70">
+        <v>4</v>
+      </c>
+      <c r="V70">
+        <v>2</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>0</v>
+      </c>
+      <c r="Y70">
+        <v>1</v>
+      </c>
+      <c r="Z70">
+        <v>4</v>
+      </c>
+      <c r="AA70">
+        <v>21</v>
+      </c>
+      <c r="AB70">
+        <v>10</v>
+      </c>
+      <c r="AC70">
+        <v>2</v>
+      </c>
+      <c r="AD70">
+        <v>5</v>
+      </c>
+      <c r="AE70">
+        <v>31</v>
+      </c>
+      <c r="AF70" t="s">
+        <v>169</v>
+      </c>
+      <c r="AG70" t="s">
+        <v>215</v>
+      </c>
+      <c r="AH70" t="s">
+        <v>216</v>
+      </c>
+      <c r="AI70" t="s">
+        <v>216</v>
+      </c>
+      <c r="AJ70">
+        <v>6</v>
+      </c>
+      <c r="AK70">
+        <v>0</v>
+      </c>
+      <c r="AL70" t="s">
+        <v>285</v>
+      </c>
+      <c r="AM70">
+        <v>54</v>
+      </c>
+      <c r="AN70">
+        <v>2</v>
+      </c>
+      <c r="AO70">
+        <v>30</v>
+      </c>
+      <c r="AP70">
+        <v>60</v>
+      </c>
+      <c r="AQ70">
+        <v>800</v>
+      </c>
+      <c r="AR70">
+        <v>120</v>
+      </c>
+      <c r="AS70">
+        <v>300</v>
+      </c>
+      <c r="AT70">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+      <c r="AU70">
+        <v>10</v>
+      </c>
+      <c r="AV70">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="AW70">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="AX70">
+        <f t="shared" si="3"/>
+        <v>270</v>
+      </c>
+      <c r="AY70">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="71" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>119</v>
+      </c>
+      <c r="B71" t="s">
+        <v>130</v>
+      </c>
+      <c r="C71" s="1">
+        <v>45561</v>
+      </c>
+      <c r="D71" t="s">
+        <v>133</v>
+      </c>
+      <c r="E71" t="s">
+        <v>148</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71" t="s">
+        <v>153</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71" t="s">
+        <v>151</v>
+      </c>
+      <c r="L71">
+        <v>4.01</v>
+      </c>
+      <c r="M71">
+        <v>3.76</v>
+      </c>
+      <c r="N71">
+        <v>1.93</v>
+      </c>
+      <c r="O71" t="s">
+        <v>157</v>
+      </c>
+      <c r="P71" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q71">
+        <v>9</v>
+      </c>
+      <c r="R71">
+        <v>4</v>
+      </c>
+      <c r="S71">
+        <v>7</v>
+      </c>
+      <c r="T71">
+        <v>2</v>
+      </c>
+      <c r="U71">
+        <v>2</v>
+      </c>
+      <c r="V71">
+        <v>2</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>0</v>
+      </c>
+      <c r="Y71">
+        <v>2</v>
+      </c>
+      <c r="Z71">
+        <v>3</v>
+      </c>
+      <c r="AA71">
+        <v>10</v>
+      </c>
+      <c r="AB71">
+        <v>7</v>
+      </c>
+      <c r="AC71">
+        <v>1</v>
+      </c>
+      <c r="AD71">
+        <v>5</v>
+      </c>
+      <c r="AE71">
+        <v>17</v>
+      </c>
+      <c r="AF71" t="s">
+        <v>170</v>
+      </c>
+      <c r="AG71" t="s">
+        <v>216</v>
+      </c>
+      <c r="AH71" t="s">
+        <v>216</v>
+      </c>
+      <c r="AI71" t="s">
+        <v>216</v>
+      </c>
+      <c r="AJ71">
+        <v>4</v>
+      </c>
+      <c r="AK71">
+        <v>0</v>
+      </c>
+      <c r="AL71" t="s">
+        <v>286</v>
+      </c>
+      <c r="AM71">
+        <v>89</v>
+      </c>
+      <c r="AN71">
+        <v>1</v>
+      </c>
+      <c r="AO71">
+        <v>19</v>
+      </c>
+      <c r="AP71">
+        <v>40</v>
+      </c>
+      <c r="AQ71">
+        <v>400</v>
+      </c>
+      <c r="AR71">
+        <v>40</v>
+      </c>
+      <c r="AS71">
+        <v>200</v>
+      </c>
+      <c r="AT71">
+        <f t="shared" si="0"/>
+        <v>760</v>
+      </c>
+      <c r="AU71">
+        <v>5</v>
+      </c>
+      <c r="AV71">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="AW71">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="AX71">
+        <f t="shared" si="3"/>
+        <v>445</v>
+      </c>
+      <c r="AY71">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>120</v>
+      </c>
+      <c r="B72" t="s">
+        <v>130</v>
+      </c>
+      <c r="C72" s="1">
+        <v>45562</v>
+      </c>
+      <c r="D72" t="s">
+        <v>139</v>
+      </c>
+      <c r="E72" t="s">
+        <v>138</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>2</v>
+      </c>
+      <c r="H72" t="s">
+        <v>153</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72" t="s">
+        <v>151</v>
+      </c>
+      <c r="L72">
+        <v>3.11</v>
+      </c>
+      <c r="M72">
+        <v>2.9</v>
+      </c>
+      <c r="N72">
+        <v>2.77</v>
+      </c>
+      <c r="O72" t="s">
+        <v>157</v>
+      </c>
+      <c r="P72" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q72">
+        <v>11</v>
+      </c>
+      <c r="R72">
+        <v>1</v>
+      </c>
+      <c r="S72">
+        <v>14</v>
+      </c>
+      <c r="T72">
+        <v>6</v>
+      </c>
+      <c r="U72">
+        <v>3</v>
+      </c>
+      <c r="V72">
+        <v>2</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>0</v>
+      </c>
+      <c r="Y72">
+        <v>7</v>
+      </c>
+      <c r="Z72">
+        <v>4</v>
+      </c>
+      <c r="AA72">
+        <v>15</v>
+      </c>
+      <c r="AB72">
+        <v>9</v>
+      </c>
+      <c r="AC72">
+        <v>3</v>
+      </c>
+      <c r="AD72">
+        <v>11</v>
+      </c>
+      <c r="AE72">
+        <v>24</v>
+      </c>
+      <c r="AF72" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG72" t="s">
+        <v>215</v>
+      </c>
+      <c r="AH72" t="s">
+        <v>215</v>
+      </c>
+      <c r="AI72" t="s">
+        <v>216</v>
+      </c>
+      <c r="AJ72">
+        <v>5</v>
+      </c>
+      <c r="AK72">
+        <v>0</v>
+      </c>
+      <c r="AL72" t="s">
+        <v>287</v>
+      </c>
+      <c r="AM72">
+        <v>232</v>
+      </c>
+      <c r="AN72">
+        <v>3</v>
+      </c>
+      <c r="AO72">
+        <v>43</v>
+      </c>
+      <c r="AP72">
+        <v>50</v>
+      </c>
+      <c r="AQ72">
+        <v>600</v>
+      </c>
+      <c r="AR72">
+        <v>150</v>
+      </c>
+      <c r="AS72">
+        <v>550</v>
+      </c>
+      <c r="AT72">
+        <f t="shared" si="0"/>
+        <v>2150</v>
+      </c>
+      <c r="AU72">
+        <v>33</v>
+      </c>
+      <c r="AV72">
+        <f t="shared" si="1"/>
+        <v>129</v>
+      </c>
+      <c r="AW72">
+        <f t="shared" si="2"/>
+        <v>473</v>
+      </c>
+      <c r="AX72">
+        <f t="shared" si="3"/>
+        <v>2552</v>
+      </c>
+      <c r="AY72">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="73" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>121</v>
+      </c>
+      <c r="B73" t="s">
+        <v>130</v>
+      </c>
+      <c r="C73" s="1">
+        <v>45563</v>
+      </c>
+      <c r="D73" t="s">
+        <v>144</v>
+      </c>
+      <c r="E73" t="s">
+        <v>147</v>
+      </c>
+      <c r="F73">
+        <v>2</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73" t="s">
+        <v>152</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73" t="s">
+        <v>152</v>
+      </c>
+      <c r="L73">
+        <v>2.66</v>
+      </c>
+      <c r="M73">
+        <v>2.78</v>
+      </c>
+      <c r="N73">
+        <v>3.36</v>
+      </c>
+      <c r="O73" t="s">
+        <v>154</v>
+      </c>
+      <c r="P73" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q73">
+        <v>14</v>
+      </c>
+      <c r="R73">
+        <v>8</v>
+      </c>
+      <c r="S73">
+        <v>9</v>
+      </c>
+      <c r="T73">
+        <v>1</v>
+      </c>
+      <c r="U73">
+        <v>3</v>
+      </c>
+      <c r="V73">
+        <v>6</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>0</v>
+      </c>
+      <c r="Y73">
+        <v>2</v>
+      </c>
+      <c r="Z73">
+        <v>2</v>
+      </c>
+      <c r="AA73">
+        <v>17</v>
+      </c>
+      <c r="AB73">
+        <v>24</v>
+      </c>
+      <c r="AC73">
+        <v>2</v>
+      </c>
+      <c r="AD73">
+        <v>4</v>
+      </c>
+      <c r="AE73">
+        <v>41</v>
+      </c>
+      <c r="AF73" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG73" t="s">
+        <v>215</v>
+      </c>
+      <c r="AH73" t="s">
+        <v>216</v>
+      </c>
+      <c r="AI73" t="s">
+        <v>216</v>
+      </c>
+      <c r="AJ73">
+        <v>9</v>
+      </c>
+      <c r="AK73">
+        <v>0</v>
+      </c>
+      <c r="AL73" t="s">
+        <v>288</v>
+      </c>
+      <c r="AM73">
+        <v>100</v>
+      </c>
+      <c r="AN73">
+        <v>2</v>
+      </c>
+      <c r="AO73">
+        <v>13</v>
+      </c>
+      <c r="AP73">
+        <v>90</v>
+      </c>
+      <c r="AQ73">
+        <v>1800</v>
+      </c>
+      <c r="AR73">
+        <v>180</v>
+      </c>
+      <c r="AS73">
+        <v>360</v>
+      </c>
+      <c r="AT73">
+        <f t="shared" si="0"/>
+        <v>1170</v>
+      </c>
+      <c r="AU73">
+        <v>8</v>
+      </c>
+      <c r="AV73">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="AW73">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="AX73">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="AY73">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="74" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>122</v>
+      </c>
+      <c r="B74" t="s">
+        <v>130</v>
+      </c>
+      <c r="C74" s="1">
+        <v>45563</v>
+      </c>
+      <c r="D74" t="s">
+        <v>149</v>
+      </c>
+      <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74" t="s">
+        <v>151</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74" t="s">
+        <v>152</v>
+      </c>
+      <c r="L74">
+        <v>1.93</v>
+      </c>
+      <c r="M74">
+        <v>3.18</v>
+      </c>
+      <c r="N74">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="O74" t="s">
+        <v>154</v>
+      </c>
+      <c r="P74" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q74">
+        <v>15</v>
+      </c>
+      <c r="R74">
+        <v>6</v>
+      </c>
+      <c r="S74">
+        <v>13</v>
+      </c>
+      <c r="T74">
+        <v>3</v>
+      </c>
+      <c r="U74">
+        <v>2</v>
+      </c>
+      <c r="V74">
+        <v>1</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
+      </c>
+      <c r="Y74">
+        <v>5</v>
+      </c>
+      <c r="Z74">
+        <v>5</v>
+      </c>
+      <c r="AA74">
+        <v>12</v>
+      </c>
+      <c r="AB74">
+        <v>7</v>
+      </c>
+      <c r="AC74">
+        <v>2</v>
+      </c>
+      <c r="AD74">
+        <v>10</v>
+      </c>
+      <c r="AE74">
+        <v>19</v>
+      </c>
+      <c r="AF74" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG74" t="s">
+        <v>215</v>
+      </c>
+      <c r="AH74" t="s">
+        <v>216</v>
+      </c>
+      <c r="AI74" t="s">
+        <v>216</v>
+      </c>
+      <c r="AJ74">
+        <v>3</v>
+      </c>
+      <c r="AK74">
+        <v>0</v>
+      </c>
+      <c r="AL74" t="s">
+        <v>289</v>
+      </c>
+      <c r="AM74">
+        <v>63</v>
+      </c>
+      <c r="AN74">
+        <v>2</v>
+      </c>
+      <c r="AO74">
+        <v>25</v>
+      </c>
+      <c r="AP74">
+        <v>30</v>
+      </c>
+      <c r="AQ74">
+        <v>200</v>
+      </c>
+      <c r="AR74">
+        <v>60</v>
+      </c>
+      <c r="AS74">
+        <v>300</v>
+      </c>
+      <c r="AT74">
+        <f t="shared" si="0"/>
+        <v>750</v>
+      </c>
+      <c r="AU74">
+        <v>20</v>
+      </c>
+      <c r="AV74">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="AW74">
+        <f t="shared" si="2"/>
+        <v>250</v>
+      </c>
+      <c r="AX74">
+        <f t="shared" si="3"/>
+        <v>630</v>
+      </c>
+      <c r="AY74">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="75" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>123</v>
+      </c>
+      <c r="B75" t="s">
+        <v>130</v>
+      </c>
+      <c r="C75" s="1">
+        <v>45563</v>
+      </c>
+      <c r="D75" t="s">
+        <v>137</v>
+      </c>
+      <c r="E75" t="s">
+        <v>136</v>
+      </c>
+      <c r="F75">
+        <v>3</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75" t="s">
+        <v>152</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75" t="s">
+        <v>152</v>
+      </c>
+      <c r="L75">
+        <v>1.92</v>
+      </c>
+      <c r="M75">
+        <v>3.33</v>
+      </c>
+      <c r="N75">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="O75" t="s">
+        <v>154</v>
+      </c>
+      <c r="P75" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q75">
+        <v>11</v>
+      </c>
+      <c r="R75">
+        <v>6</v>
+      </c>
+      <c r="S75">
+        <v>9</v>
+      </c>
+      <c r="T75">
+        <v>4</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>0</v>
+      </c>
+      <c r="Y75">
+        <v>6</v>
+      </c>
+      <c r="Z75">
+        <v>4</v>
+      </c>
+      <c r="AA75">
+        <v>7</v>
+      </c>
+      <c r="AB75">
+        <v>12</v>
+      </c>
+      <c r="AC75">
+        <v>3</v>
+      </c>
+      <c r="AD75">
+        <v>10</v>
+      </c>
+      <c r="AE75">
+        <v>19</v>
+      </c>
+      <c r="AF75" t="s">
+        <v>178</v>
+      </c>
+      <c r="AG75" t="s">
+        <v>215</v>
+      </c>
+      <c r="AH75" t="s">
+        <v>215</v>
+      </c>
+      <c r="AI75" t="s">
+        <v>216</v>
+      </c>
+      <c r="AJ75">
+        <v>0</v>
+      </c>
+      <c r="AK75">
+        <v>0</v>
+      </c>
+      <c r="AL75" t="s">
+        <v>290</v>
+      </c>
+      <c r="AM75">
+        <v>178</v>
+      </c>
+      <c r="AN75">
+        <v>3</v>
+      </c>
+      <c r="AO75">
+        <v>32</v>
+      </c>
+      <c r="AP75">
+        <v>0</v>
+      </c>
+      <c r="AQ75">
+        <v>0</v>
+      </c>
+      <c r="AR75">
+        <v>0</v>
+      </c>
+      <c r="AS75">
+        <v>0</v>
+      </c>
+      <c r="AT75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU75">
+        <v>30</v>
+      </c>
+      <c r="AV75">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="AW75">
+        <f t="shared" si="2"/>
+        <v>320</v>
+      </c>
+      <c r="AX75">
+        <f t="shared" si="3"/>
+        <v>1780</v>
+      </c>
+      <c r="AY75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>124</v>
+      </c>
+      <c r="B76" t="s">
+        <v>130</v>
+      </c>
+      <c r="C76" s="1">
+        <v>45563</v>
+      </c>
+      <c r="D76" t="s">
+        <v>135</v>
+      </c>
+      <c r="E76" t="s">
+        <v>142</v>
+      </c>
+      <c r="F76">
+        <v>4</v>
+      </c>
+      <c r="G76">
+        <v>2</v>
+      </c>
+      <c r="H76" t="s">
+        <v>152</v>
+      </c>
+      <c r="I76">
+        <v>2</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76" t="s">
+        <v>152</v>
+      </c>
+      <c r="L76">
+        <v>6.42</v>
+      </c>
+      <c r="M76">
+        <v>4.78</v>
+      </c>
+      <c r="N76">
+        <v>1.49</v>
+      </c>
+      <c r="O76" t="s">
+        <v>162</v>
+      </c>
+      <c r="P76" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q76">
+        <v>11</v>
+      </c>
+      <c r="R76">
+        <v>6</v>
+      </c>
+      <c r="S76">
+        <v>12</v>
+      </c>
+      <c r="T76">
+        <v>5</v>
+      </c>
+      <c r="U76">
+        <v>2</v>
+      </c>
+      <c r="V76">
+        <v>2</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>0</v>
+      </c>
+      <c r="Y76">
+        <v>5</v>
+      </c>
+      <c r="Z76">
+        <v>8</v>
+      </c>
+      <c r="AA76">
+        <v>13</v>
+      </c>
+      <c r="AB76">
+        <v>3</v>
+      </c>
+      <c r="AC76">
+        <v>6</v>
+      </c>
+      <c r="AD76">
+        <v>13</v>
+      </c>
+      <c r="AE76">
+        <v>16</v>
+      </c>
+      <c r="AF76" t="s">
+        <v>214</v>
+      </c>
+      <c r="AG76" t="s">
+        <v>215</v>
+      </c>
+      <c r="AH76" t="s">
+        <v>215</v>
+      </c>
+      <c r="AI76" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ76">
+        <v>4</v>
+      </c>
+      <c r="AK76">
+        <v>0</v>
+      </c>
+      <c r="AL76" t="s">
+        <v>291</v>
+      </c>
+      <c r="AM76">
+        <v>345</v>
+      </c>
+      <c r="AN76">
+        <v>6</v>
+      </c>
+      <c r="AO76">
+        <v>94</v>
+      </c>
+      <c r="AP76">
+        <v>40</v>
+      </c>
+      <c r="AQ76">
+        <v>400</v>
+      </c>
+      <c r="AR76">
+        <v>240</v>
+      </c>
+      <c r="AS76">
+        <v>520</v>
+      </c>
+      <c r="AT76">
+        <f t="shared" si="0"/>
+        <v>3760</v>
+      </c>
+      <c r="AU76">
+        <v>78</v>
+      </c>
+      <c r="AV76">
+        <f t="shared" si="1"/>
+        <v>564</v>
+      </c>
+      <c r="AW76">
+        <f t="shared" si="2"/>
+        <v>1222</v>
+      </c>
+      <c r="AX76">
+        <f t="shared" si="3"/>
+        <v>4485</v>
+      </c>
+      <c r="AY76">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="77" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>125</v>
+      </c>
+      <c r="B77" t="s">
+        <v>130</v>
+      </c>
+      <c r="C77" s="1">
+        <v>45564</v>
+      </c>
+      <c r="D77" t="s">
+        <v>133</v>
+      </c>
+      <c r="E77" t="s">
+        <v>150</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77" t="s">
+        <v>151</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77" t="s">
+        <v>153</v>
+      </c>
+      <c r="L77">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M77">
+        <v>3.66</v>
+      </c>
+      <c r="N77">
+        <v>3.26</v>
+      </c>
+      <c r="O77" t="s">
+        <v>155</v>
+      </c>
+      <c r="P77" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q77">
+        <v>12</v>
+      </c>
+      <c r="R77">
+        <v>2</v>
+      </c>
+      <c r="S77">
+        <v>9</v>
+      </c>
+      <c r="T77">
+        <v>4</v>
+      </c>
+      <c r="U77">
+        <v>1</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>0</v>
+      </c>
+      <c r="Y77">
+        <v>4</v>
+      </c>
+      <c r="Z77">
+        <v>4</v>
+      </c>
+      <c r="AA77">
+        <v>9</v>
+      </c>
+      <c r="AB77">
+        <v>14</v>
+      </c>
+      <c r="AC77">
+        <v>2</v>
+      </c>
+      <c r="AD77">
+        <v>8</v>
+      </c>
+      <c r="AE77">
+        <v>23</v>
+      </c>
+      <c r="AF77" t="s">
+        <v>175</v>
+      </c>
+      <c r="AG77" t="s">
+        <v>215</v>
+      </c>
+      <c r="AH77" t="s">
+        <v>216</v>
+      </c>
+      <c r="AI77" t="s">
+        <v>216</v>
+      </c>
+      <c r="AJ77">
+        <v>1</v>
+      </c>
+      <c r="AK77">
+        <v>0</v>
+      </c>
+      <c r="AL77" t="s">
+        <v>292</v>
+      </c>
+      <c r="AM77">
+        <v>119</v>
+      </c>
+      <c r="AN77">
+        <v>2</v>
+      </c>
+      <c r="AO77">
+        <v>31</v>
+      </c>
+      <c r="AP77">
+        <v>10</v>
+      </c>
+      <c r="AQ77">
+        <v>0</v>
+      </c>
+      <c r="AR77">
+        <v>20</v>
+      </c>
+      <c r="AS77">
+        <v>80</v>
+      </c>
+      <c r="AT77">
+        <f t="shared" si="0"/>
+        <v>310</v>
+      </c>
+      <c r="AU77">
+        <v>16</v>
+      </c>
+      <c r="AV77">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="AW77">
+        <f t="shared" si="2"/>
+        <v>248</v>
+      </c>
+      <c r="AX77">
+        <f t="shared" si="3"/>
+        <v>952</v>
+      </c>
+      <c r="AY77">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="78" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>126</v>
+      </c>
+      <c r="B78" t="s">
+        <v>130</v>
+      </c>
+      <c r="C78" s="1">
+        <v>45564</v>
+      </c>
+      <c r="D78" t="s">
+        <v>131</v>
+      </c>
+      <c r="E78" t="s">
+        <v>141</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78" t="s">
+        <v>151</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78" t="s">
+        <v>152</v>
+      </c>
+      <c r="L78">
+        <v>1.75</v>
+      </c>
+      <c r="M78">
+        <v>3.86</v>
+      </c>
+      <c r="N78">
+        <v>4.91</v>
+      </c>
+      <c r="O78" t="s">
+        <v>154</v>
+      </c>
+      <c r="P78" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q78">
+        <v>13</v>
+      </c>
+      <c r="R78">
+        <v>3</v>
+      </c>
+      <c r="S78">
+        <v>13</v>
+      </c>
+      <c r="T78">
+        <v>4</v>
+      </c>
+      <c r="U78">
+        <v>0</v>
+      </c>
+      <c r="V78">
+        <v>3</v>
+      </c>
+      <c r="W78">
+        <v>1</v>
+      </c>
+      <c r="X78">
+        <v>0</v>
+      </c>
+      <c r="Y78">
+        <v>4</v>
+      </c>
+      <c r="Z78">
+        <v>7</v>
+      </c>
+      <c r="AA78">
+        <v>6</v>
+      </c>
+      <c r="AB78">
+        <v>7</v>
+      </c>
+      <c r="AC78">
+        <v>2</v>
+      </c>
+      <c r="AD78">
+        <v>11</v>
+      </c>
+      <c r="AE78">
+        <v>13</v>
+      </c>
+      <c r="AF78" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG78" t="s">
+        <v>215</v>
+      </c>
+      <c r="AH78" t="s">
+        <v>216</v>
+      </c>
+      <c r="AI78" t="s">
+        <v>216</v>
+      </c>
+      <c r="AJ78">
+        <v>3</v>
+      </c>
+      <c r="AK78">
+        <v>1</v>
+      </c>
+      <c r="AL78" t="s">
+        <v>293</v>
+      </c>
+      <c r="AM78">
+        <v>126</v>
+      </c>
+      <c r="AN78">
+        <v>2</v>
+      </c>
+      <c r="AO78">
+        <v>46</v>
+      </c>
+      <c r="AP78">
+        <v>55</v>
+      </c>
+      <c r="AQ78">
+        <v>750</v>
+      </c>
+      <c r="AR78">
+        <v>110</v>
+      </c>
+      <c r="AS78">
+        <v>605</v>
+      </c>
+      <c r="AT78">
+        <f t="shared" si="0"/>
+        <v>2530</v>
+      </c>
+      <c r="AU78">
+        <v>22</v>
+      </c>
+      <c r="AV78">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="AW78">
+        <f t="shared" si="2"/>
+        <v>506</v>
+      </c>
+      <c r="AX78">
+        <f t="shared" si="3"/>
+        <v>1386</v>
+      </c>
+      <c r="AY78">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="79" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>127</v>
+      </c>
+      <c r="B79" t="s">
+        <v>130</v>
+      </c>
+      <c r="C79" s="1">
+        <v>45564</v>
+      </c>
+      <c r="D79" t="s">
+        <v>132</v>
+      </c>
+      <c r="E79" t="s">
+        <v>143</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79" t="s">
+        <v>152</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79" t="s">
+        <v>151</v>
+      </c>
+      <c r="L79">
+        <v>1.64</v>
+      </c>
+      <c r="M79">
+        <v>3.87</v>
+      </c>
+      <c r="N79">
+        <v>5.91</v>
+      </c>
+      <c r="O79" t="s">
+        <v>157</v>
+      </c>
+      <c r="P79" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q79">
+        <v>20</v>
+      </c>
+      <c r="R79">
+        <v>12</v>
+      </c>
+      <c r="S79">
+        <v>8</v>
+      </c>
+      <c r="T79">
+        <v>1</v>
+      </c>
+      <c r="U79">
+        <v>2</v>
+      </c>
+      <c r="V79">
+        <v>4</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>0</v>
+      </c>
+      <c r="Y79">
+        <v>8</v>
+      </c>
+      <c r="Z79">
+        <v>4</v>
+      </c>
+      <c r="AA79">
+        <v>14</v>
+      </c>
+      <c r="AB79">
+        <v>20</v>
+      </c>
+      <c r="AC79">
+        <v>1</v>
+      </c>
+      <c r="AD79">
+        <v>12</v>
+      </c>
+      <c r="AE79">
+        <v>34</v>
+      </c>
+      <c r="AF79" t="s">
+        <v>207</v>
+      </c>
+      <c r="AG79" t="s">
+        <v>216</v>
+      </c>
+      <c r="AH79" t="s">
+        <v>216</v>
+      </c>
+      <c r="AI79" t="s">
+        <v>216</v>
+      </c>
+      <c r="AJ79">
+        <v>6</v>
+      </c>
+      <c r="AK79">
+        <v>0</v>
+      </c>
+      <c r="AL79" t="s">
+        <v>294</v>
+      </c>
+      <c r="AM79">
+        <v>85</v>
+      </c>
+      <c r="AN79">
+        <v>1</v>
+      </c>
+      <c r="AO79">
+        <v>20</v>
+      </c>
+      <c r="AP79">
+        <v>60</v>
+      </c>
+      <c r="AQ79">
+        <v>800</v>
+      </c>
+      <c r="AR79">
+        <v>60</v>
+      </c>
+      <c r="AS79">
+        <v>720</v>
+      </c>
+      <c r="AT79">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="AU79">
+        <v>12</v>
+      </c>
+      <c r="AV79">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="AW79">
+        <f t="shared" si="2"/>
+        <v>240</v>
+      </c>
+      <c r="AX79">
+        <f t="shared" si="3"/>
+        <v>1020</v>
+      </c>
+      <c r="AY79">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="80" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>128</v>
+      </c>
+      <c r="B80" t="s">
+        <v>130</v>
+      </c>
+      <c r="C80" s="1">
+        <v>45564</v>
+      </c>
+      <c r="D80" t="s">
+        <v>148</v>
+      </c>
+      <c r="E80" t="s">
+        <v>145</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80" t="s">
+        <v>151</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80" t="s">
+        <v>151</v>
+      </c>
+      <c r="L80">
+        <v>2.81</v>
+      </c>
+      <c r="M80">
+        <v>3.47</v>
+      </c>
+      <c r="N80">
+        <v>2.57</v>
+      </c>
+      <c r="O80" t="s">
+        <v>157</v>
+      </c>
+      <c r="P80" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q80">
+        <v>12</v>
+      </c>
+      <c r="R80">
+        <v>4</v>
+      </c>
+      <c r="S80">
+        <v>12</v>
+      </c>
+      <c r="T80">
+        <v>4</v>
+      </c>
+      <c r="U80">
+        <v>3</v>
+      </c>
+      <c r="V80">
+        <v>1</v>
+      </c>
+      <c r="W80">
+        <v>1</v>
+      </c>
+      <c r="X80">
+        <v>0</v>
+      </c>
+      <c r="Y80">
+        <v>5</v>
+      </c>
+      <c r="Z80">
+        <v>5</v>
+      </c>
+      <c r="AA80">
+        <v>11</v>
+      </c>
+      <c r="AB80">
+        <v>11</v>
+      </c>
+      <c r="AC80">
+        <v>2</v>
+      </c>
+      <c r="AD80">
+        <v>10</v>
+      </c>
+      <c r="AE80">
+        <v>22</v>
+      </c>
+      <c r="AF80" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG80" t="s">
+        <v>215</v>
+      </c>
+      <c r="AH80" t="s">
+        <v>216</v>
+      </c>
+      <c r="AI80" t="s">
+        <v>216</v>
+      </c>
+      <c r="AJ80">
+        <v>4</v>
+      </c>
+      <c r="AK80">
+        <v>1</v>
+      </c>
+      <c r="AL80" t="s">
+        <v>295</v>
+      </c>
+      <c r="AM80">
+        <v>154</v>
+      </c>
+      <c r="AN80">
+        <v>2</v>
+      </c>
+      <c r="AO80">
+        <v>13</v>
+      </c>
+      <c r="AP80">
+        <v>65</v>
+      </c>
+      <c r="AQ80">
+        <v>550</v>
+      </c>
+      <c r="AR80">
+        <v>130</v>
+      </c>
+      <c r="AS80">
+        <v>650</v>
+      </c>
+      <c r="AT80">
+        <f t="shared" si="0"/>
+        <v>845</v>
+      </c>
+      <c r="AU80">
+        <v>20</v>
+      </c>
+      <c r="AV80">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="AW80">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+      <c r="AX80">
+        <f t="shared" si="3"/>
+        <v>1540</v>
+      </c>
+      <c r="AY80">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="81" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>129</v>
+      </c>
+      <c r="B81" t="s">
+        <v>130</v>
+      </c>
+      <c r="C81" s="1">
+        <v>45565</v>
+      </c>
+      <c r="D81" t="s">
+        <v>140</v>
+      </c>
+      <c r="E81" t="s">
+        <v>134</v>
+      </c>
+      <c r="F81">
+        <v>3</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81" t="s">
+        <v>152</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81" t="s">
+        <v>152</v>
+      </c>
+      <c r="L81">
+        <v>1.47</v>
+      </c>
+      <c r="M81">
+        <v>4.92</v>
+      </c>
+      <c r="N81">
+        <v>6.53</v>
+      </c>
+      <c r="O81" t="s">
+        <v>154</v>
+      </c>
+      <c r="P81" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q81">
+        <v>17</v>
+      </c>
+      <c r="R81">
+        <v>7</v>
+      </c>
+      <c r="S81">
+        <v>7</v>
+      </c>
+      <c r="T81">
+        <v>3</v>
+      </c>
+      <c r="U81">
+        <v>0</v>
+      </c>
+      <c r="V81">
+        <v>3</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>0</v>
+      </c>
+      <c r="Y81">
+        <v>3</v>
+      </c>
+      <c r="Z81">
+        <v>2</v>
+      </c>
+      <c r="AA81">
+        <v>14</v>
+      </c>
+      <c r="AB81">
+        <v>10</v>
+      </c>
+      <c r="AC81">
+        <v>4</v>
+      </c>
+      <c r="AD81">
+        <v>5</v>
+      </c>
+      <c r="AE81">
+        <v>24</v>
+      </c>
+      <c r="AF81" t="s">
+        <v>168</v>
+      </c>
+      <c r="AG81" t="s">
+        <v>215</v>
+      </c>
+      <c r="AH81" t="s">
+        <v>215</v>
+      </c>
+      <c r="AI81" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ81">
+        <v>3</v>
+      </c>
+      <c r="AK81">
+        <v>0</v>
+      </c>
+      <c r="AL81" t="s">
+        <v>296</v>
+      </c>
+      <c r="AM81">
+        <v>266</v>
+      </c>
+      <c r="AN81">
+        <v>4</v>
+      </c>
+      <c r="AO81">
+        <v>87</v>
+      </c>
+      <c r="AP81">
+        <v>30</v>
+      </c>
+      <c r="AQ81">
+        <v>0</v>
+      </c>
+      <c r="AR81">
+        <v>120</v>
+      </c>
+      <c r="AS81">
+        <v>150</v>
+      </c>
+      <c r="AT81">
+        <f t="shared" si="0"/>
+        <v>2610</v>
+      </c>
+      <c r="AU81">
+        <v>20</v>
+      </c>
+      <c r="AV81">
+        <f t="shared" si="1"/>
+        <v>348</v>
+      </c>
+      <c r="AW81">
+        <f t="shared" si="2"/>
+        <v>435</v>
+      </c>
+      <c r="AX81">
+        <f t="shared" si="3"/>
+        <v>1330</v>
+      </c>
+      <c r="AY81">
+        <v>600</v>
       </c>
     </row>
   </sheetData>
